--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1491672588558307</v>
+        <v>0.1590412478465196</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004575050590420893</v>
+        <v>0.008071354353092097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02121753071552425</v>
+        <v>0.05522848827196102</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02844382291697984</v>
+        <v>0.05629418987751389</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009286349964832442</v>
+        <v>0.01360545050767828</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06475478697249136</v>
+        <v>0.01886596450736935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02772184270866779</v>
+        <v>0.02094270192742457</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000853462045584726</v>
+        <v>0.0003982778914439683</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001368896113732165</v>
+        <v>0.05312647992495112</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01937705044101635</v>
+        <v>0.0270921899284131</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004573871407447017</v>
+        <v>0.0009199288846209526</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04098975013982494</v>
+        <v>0.03611914184996486</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04966063060823929</v>
+        <v>0.05645681574251107</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00287608819587857</v>
+        <v>0.01889389425078864</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06999642339669343</v>
+        <v>0.02131529826132589</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03423409201682431</v>
+        <v>0.03632042943482983</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02239415522605121</v>
+        <v>0.06257716647915747</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03059630616575745</v>
+        <v>0.04466785952701596</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06934053672817302</v>
+        <v>0.05416282741806262</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06445817056534434</v>
+        <v>0.02315034635547356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06909017340642211</v>
+        <v>0.02293735378232254</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0176044577388805</v>
+        <v>0.05356714358175969</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07170075101067638</v>
+        <v>0.05542001899965123</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02619088663088876</v>
+        <v>0.02513610363720205</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01772719379797312</v>
+        <v>0.02128068937415732</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05145388790103851</v>
+        <v>0.02968656960227604</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.04595182081786085</v>
+        <v>0.05669904806732674</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.06312792955634626</v>
+        <v>0.06478021009937532</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.07043408222043013</v>
+        <v>0.06228405746233076</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.07611958042947067</v>
+        <v>0.04959097317011259</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.050923085077813</v>
+        <v>0.8337397648005755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01266374303515085</v>
+        <v>0.004702419960976019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01916968322792043</v>
+        <v>0.06268452414631552</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03374638759344052</v>
+        <v>0.031479760085788</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003263427303089656</v>
+        <v>0.005350009297574117</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005646931470937102</v>
+        <v>0.04904282647537667</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04306261180417024</v>
+        <v>0.0467531949279737</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07368735583428179</v>
+        <v>0.0660897844279649</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03042683805434972</v>
+        <v>0.03385887386986024</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02282662169005219</v>
+        <v>0.06801051301821047</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09621614989338896</v>
+        <v>0.07324550681458902</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03821230023925021</v>
+        <v>0.06315892004629844</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06444406322742732</v>
+        <v>0.02400045646306669</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05347367120737249</v>
+        <v>0.02703517184295334</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02868635524192824</v>
+        <v>0.03136122164056845</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0244938082756061</v>
+        <v>0.01254529832769477</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02323731720955693</v>
+        <v>0.001633175161404348</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01141457068761819</v>
+        <v>0.05019277463532072</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007948495458024098</v>
+        <v>0.003834408589339139</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09650833710728854</v>
+        <v>0.05245153295374747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02472634324660924</v>
+        <v>0.02193939431985339</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02612368938319491</v>
+        <v>0.04734915756744187</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02063812174308181</v>
+        <v>0.05657848415705979</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.06665456530202346</v>
+        <v>0.03465188237057256</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.008353591471087897</v>
+        <v>0.008744594311432857</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03855737138940702</v>
+        <v>0.01176106440571242</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.002289726389888167</v>
+        <v>0.06724822746353187</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.09226768964978414</v>
+        <v>0.02929040505737665</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03126023286406987</v>
+        <v>0.01500641766199661</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05210105488581632</v>
+        <v>0.05445830050718938</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.127540076533873</v>
+        <v>0.1240794199213757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007750824070953843</v>
+        <v>0.01210636914627675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06589519430956796</v>
+        <v>0.06310047001908996</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007317933298959714</v>
+        <v>0.05950790322942672</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05661368200566828</v>
+        <v>0.02139942808036213</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05909989654451725</v>
+        <v>0.03549170660655304</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04531919514636664</v>
+        <v>0.04570316661744021</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01229508917914908</v>
+        <v>0.01464877598349706</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02290999144589894</v>
+        <v>0.008580526036607411</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06649344403147898</v>
+        <v>0.01997709821574044</v>
       </c>
       <c r="O4" t="n">
-        <v>0.029886322719938</v>
+        <v>0.009359144543798424</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02509086991012347</v>
+        <v>0.007189396417254631</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006363621709962514</v>
+        <v>0.003213156830528131</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07032208926915984</v>
+        <v>0.05594586574464575</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03196204471365716</v>
+        <v>0.04390669843511569</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03698504506772601</v>
+        <v>0.0536580680920137</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06557685976083244</v>
+        <v>0.005151873291716141</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005773641495972</v>
+        <v>0.03919257537473354</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06177376058586873</v>
+        <v>0.03805136170829407</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02721950438789952</v>
+        <v>0.02486671750906502</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0294187145274236</v>
+        <v>0.02191632004401091</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04808281374154776</v>
+        <v>0.05194539465313114</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.002024979497359512</v>
+        <v>0.07160600592471791</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05432208390506772</v>
+        <v>0.06034361173298598</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0662458546457092</v>
+        <v>0.05245629193519717</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05950790831175499</v>
+        <v>0.05027920927811901</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.000117240097628679</v>
+        <v>0.0006952624576347843</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0001768289913249899</v>
+        <v>0.05817179774506757</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.03545456662848315</v>
+        <v>0.07153580434697679</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01992158432757138</v>
+        <v>0.03733145407118726</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7378493920321898</v>
+        <v>1.019635293122403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00155526208228198</v>
+        <v>0.001071049783404799</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0364717683193561</v>
+        <v>0.03429907839903999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07116616625122657</v>
+        <v>0.007658196118901822</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07084255519508918</v>
+        <v>0.07112903852010231</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02476456740848975</v>
+        <v>0.005844717863522871</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01342410029044446</v>
+        <v>0.01499726158553615</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07284471628042696</v>
+        <v>0.02165042212077963</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005561438942562105</v>
+        <v>0.008869018282676902</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03611981676975851</v>
+        <v>0.000146489735249833</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03188911666575752</v>
+        <v>0.0583991789102246</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004282184152590109</v>
+        <v>0.007838038244080182</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04473766262525557</v>
+        <v>0.002320123571682367</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03102460932041853</v>
+        <v>0.06610128068754011</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01829252494686373</v>
+        <v>0.04462352600964083</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05094145665129021</v>
+        <v>0.06580363261729573</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04875347345897908</v>
+        <v>0.004469374287206288</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04803614419333126</v>
+        <v>0.001908521521443361</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03942792429729602</v>
+        <v>0.05914200869623391</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01153908608950328</v>
+        <v>0.07603314482112541</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05765332889550358</v>
+        <v>0.04600455996447389</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02682893428807595</v>
+        <v>0.02638833409419833</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01628915002234073</v>
+        <v>0.04615061540229019</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02453907991600622</v>
+        <v>0.03505037343413928</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03170798351721887</v>
+        <v>0.02320443823276655</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04157263564853745</v>
+        <v>0.04592405407000084</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0695279511452542</v>
+        <v>0.09673322874383707</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05766648279049333</v>
+        <v>0.04013466812938102</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01253987983564849</v>
+        <v>0.08810562615322573</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.006714182713100353</v>
+        <v>0.02794917591317161</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1364957633985895</v>
+        <v>0.1290039126331847</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02682145545065872</v>
+        <v>0.03647909984782736</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05274646552039761</v>
+        <v>0.06632150481477013</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03366970271123335</v>
+        <v>0.04056702720906006</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04902045841872647</v>
+        <v>0.0007642283872831668</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06029160877283154</v>
+        <v>0.07181167860787405</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02055162235557928</v>
+        <v>0.01232193672125374</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05682241992369446</v>
+        <v>0.03453597581753568</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02003407682404558</v>
+        <v>0.01887638404212521</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05357331167123763</v>
+        <v>0.05375739515315957</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01094968009649352</v>
+        <v>0.0001788158012142314</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04951035108446099</v>
+        <v>0.02458762182193285</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0158592699779363</v>
+        <v>0.005745619327412846</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06001084462721036</v>
+        <v>0.0740908465838426</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01154188044393996</v>
+        <v>0.005043215478948015</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04787613724879777</v>
+        <v>0.06240305174043232</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01744425347111295</v>
+        <v>0.01297620911952589</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02193740731818771</v>
+        <v>0.00984924342780542</v>
       </c>
       <c r="W6" t="n">
-        <v>0.007487241338325938</v>
+        <v>0.01130912558665056</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06185992475348424</v>
+        <v>0.04688901933741028</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001417727980520095</v>
+        <v>0.003288100182720455</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05320926784380129</v>
+        <v>0.03258819200538547</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04518751386058566</v>
+        <v>0.03643038796201752</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.00568323380079346</v>
+        <v>0.06033049521456667</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03375107114089364</v>
+        <v>0.0613946836113204</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02122192109604096</v>
+        <v>0.03050023088821645</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05040893205915924</v>
+        <v>0.06878417612889437</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.05154785855331176</v>
+        <v>0.04947344391927267</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.05956436165653965</v>
+        <v>0.06870229126154202</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.09472345941455447</v>
+        <v>-0.08272427516292555</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1653443955333521</v>
+        <v>0.1674998160358524</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02455351807011219</v>
+        <v>0.07908900306749941</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04235425937145588</v>
+        <v>0.02495426037211594</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007066165500425339</v>
+        <v>0.002361428900370716</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01187300598259875</v>
+        <v>0.0520537024158622</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06978756572217125</v>
+        <v>0.09899586389020036</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06350977349199929</v>
+        <v>0.08036480249507526</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005954418971476157</v>
+        <v>0.01037483480831679</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07528390934367916</v>
+        <v>0.08063943206126518</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03422412900122593</v>
+        <v>0.05400023158038147</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03611257693453845</v>
+        <v>0.06758197090341612</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001439948366490795</v>
+        <v>0.01362937332025936</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06116797052662279</v>
+        <v>0.01231073592294474</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06829388090898887</v>
+        <v>0.03599346365046464</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002718207160884611</v>
+        <v>0.04204844954237293</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07566182834609426</v>
+        <v>0.005200078366571763</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04582309629160001</v>
+        <v>0.04442636855720019</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03529306448658068</v>
+        <v>0.02898938194841433</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07291058623042301</v>
+        <v>0.0385518707283912</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002969794787864076</v>
+        <v>0.00554578769440757</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.009800829215244623</v>
+        <v>0.0001478624593622939</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.007769201968582982</v>
+        <v>0.01284435348576242</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.06542782324114298</v>
+        <v>0.04309749731645991</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001848484797776825</v>
+        <v>0.04182299749440318</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01163193769143199</v>
+        <v>0.007920949476108699</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01316691492594424</v>
+        <v>0.01828071161212804</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0700061055710564</v>
+        <v>0.005349027810172173</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0009576479359154078</v>
+        <v>0.03419108485727265</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.08239335515767293</v>
+        <v>0.05923447526280042</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.03789384689764943</v>
+        <v>-0.06046962435672904</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1423003834544424</v>
+        <v>0.1479743896737384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06025560834250032</v>
+        <v>0.0700609272756333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04570641266516594</v>
+        <v>0.03438734208608906</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005560359872574105</v>
+        <v>0.03179327844460408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06762848276840397</v>
+        <v>0.01507952493041887</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06692904053417574</v>
+        <v>0.05396910936516432</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01249643878064905</v>
+        <v>0.03546113549423446</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006679436998313644</v>
+        <v>0.01050507256005825</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003548610238475415</v>
+        <v>0.04130646694786938</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06298775507224288</v>
+        <v>0.01705720294301287</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01426677201287119</v>
+        <v>0.02540184691679663</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02995255729820481</v>
+        <v>0.05612712535618975</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04496178402387004</v>
+        <v>0.01256564948516141</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01649535624011174</v>
+        <v>0.05165803572600834</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06206163791260432</v>
+        <v>0.001456323103730975</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06117196377208476</v>
+        <v>0.06024281206017183</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01860087651150086</v>
+        <v>0.004897474227537064</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0328411750212814</v>
+        <v>0.02910486135399704</v>
       </c>
       <c r="W8" t="n">
-        <v>0.003147917325022294</v>
+        <v>0.002980861326874933</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01828210556412555</v>
+        <v>0.0461023155972323</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03385651245558154</v>
+        <v>0.06264559759538729</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04945893402265972</v>
+        <v>0.04957634620718121</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04491540958227999</v>
+        <v>0.03224425540027984</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06821404459405243</v>
+        <v>0.0636060557840926</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.05150297431403283</v>
+        <v>0.07371225437289168</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.03295900932536531</v>
+        <v>0.06546652460153268</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.07006015882744381</v>
+        <v>0.01951280941617127</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01532568061480872</v>
+        <v>0.03254897450003908</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.000132985309597581</v>
+        <v>0.0005298169216394621</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.244749983785027</v>
+        <v>-0.2533160492500403</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1973245095626946</v>
+        <v>0.2176315403690308</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007411230322225944</v>
+        <v>0.06860592136709114</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09608774979922949</v>
+        <v>0.0154621882668833</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06230758945183551</v>
+        <v>0.06441174494337785</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03762702431062001</v>
+        <v>0.03479343123598379</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04931785011311438</v>
+        <v>0.04922528793245574</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0840792780840629</v>
+        <v>0.004638188387695406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02734743648258017</v>
+        <v>0.04304487471898625</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01666324100546202</v>
+        <v>0.05202886998195088</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0169103174586747</v>
+        <v>0.001522000740070539</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01895170831790806</v>
+        <v>0.02923367953717255</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00960419999617901</v>
+        <v>0.02023650807496622</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00187901728503948</v>
+        <v>0.05876539173214634</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09613676590974823</v>
+        <v>0.10111668967464</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07450038534670485</v>
+        <v>0.04293409838863109</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06150350182359023</v>
+        <v>0.05899850522639362</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01974248732724091</v>
+        <v>0.007411513965429278</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02262018391181675</v>
+        <v>0.02877971988401172</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01210469656501058</v>
+        <v>0.007421165421908142</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02176064609726633</v>
+        <v>0.01335986983998615</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03351261047298323</v>
+        <v>0.02118833423440391</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.001031400680839363</v>
+        <v>0.06585170196406637</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.05513318359609447</v>
+        <v>0.06972427267241547</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.773316863878086e-05</v>
+        <v>0.03045223910890854</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.07715632581656046</v>
+        <v>0.0502460106656964</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.02761564789245466</v>
+        <v>0.01602992767402019</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05981950148296612</v>
+        <v>0.002218424234609601</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.00545609547102206</v>
+        <v>0.03075610166376151</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.003672191810131421</v>
+        <v>0.01154333846233819</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2709072521881241</v>
+        <v>-0.3236281742840208</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2515537439685173</v>
+        <v>0.2500545981682088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03071327816508379</v>
+        <v>0.02570983739748291</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05871692266457593</v>
+        <v>0.03755722326618226</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01137787416541184</v>
+        <v>0.007844884468536527</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0201861113082934</v>
+        <v>0.03458794953908956</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03835787912477971</v>
+        <v>0.06266328824044107</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004128421115310975</v>
+        <v>0.001080827638494289</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03660882166122324</v>
+        <v>0.01280018279968038</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0362398999122102</v>
+        <v>0.0249956754506142</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009827149106605313</v>
+        <v>0.002819877487835984</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008533151333840354</v>
+        <v>0.0198818986911431</v>
       </c>
       <c r="P10" t="n">
-        <v>0.009583073635879041</v>
+        <v>0.001887497885301334</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01555666264304014</v>
+        <v>0.01711349634414882</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0354651476961182</v>
+        <v>0.0724827209503785</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00355051437012552</v>
+        <v>0.01715443574708421</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02077448942048177</v>
+        <v>0.08170914723299359</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01228595588484149</v>
+        <v>0.0136801332808784</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07262986843495259</v>
+        <v>0.03659421096923021</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05355047244865865</v>
+        <v>0.04511309947594384</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06344102089586723</v>
+        <v>0.04440159229793125</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.05554454938518148</v>
+        <v>0.05666303531902713</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06391813859193757</v>
+        <v>0.03030605057287924</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05090801533043627</v>
+        <v>0.05703094002021323</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.00423520215679379</v>
+        <v>0.01377284711300022</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01769973353427472</v>
+        <v>0.03003794745167726</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0764167842506342</v>
+        <v>0.06607588582888008</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.06188903617530071</v>
+        <v>0.07738957067235797</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.06582807234928388</v>
+        <v>0.03365855978071144</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.06203375423885802</v>
+        <v>0.07498718407786291</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.008382594563674153</v>
+        <v>-0.02721769689370824</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3786100498807657</v>
+        <v>0.3430027056585449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05520462422843341</v>
+        <v>0.07768394005842376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007902004119477123</v>
+        <v>0.05879855835453512</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08321655638353667</v>
+        <v>0.07779262126115349</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06438740420922875</v>
+        <v>0.02056395144012108</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004694969108982865</v>
+        <v>0.05475001410415503</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09345556522599885</v>
+        <v>0.008558317091963629</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08588563495003629</v>
+        <v>0.0699954802981278</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01878190482640166</v>
+        <v>0.01531213560649074</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02100552421744773</v>
+        <v>0.01878369463408533</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08997039761377591</v>
+        <v>0.02473491431235945</v>
       </c>
       <c r="P11" t="n">
-        <v>0.09057234934710272</v>
+        <v>0.04910239816625649</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02849921241171059</v>
+        <v>0.004421718137697662</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00822633925251289</v>
+        <v>0.06231599750799868</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002436036952992833</v>
+        <v>0.03981026544725694</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02195732913759594</v>
+        <v>0.03660052650729481</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02017842435335317</v>
+        <v>0.0490605764253354</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0006263990912938819</v>
+        <v>0.005633800786565697</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06826163985456572</v>
+        <v>0.07168244908228381</v>
       </c>
       <c r="X11" t="n">
-        <v>0.003916832805642799</v>
+        <v>0.006495331522421341</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.00291860406759301</v>
+        <v>0.003134942291226797</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02056483793939023</v>
+        <v>0.02499664289343038</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.06018588310223018</v>
+        <v>0.03199795830137763</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01133509541122252</v>
+        <v>0.01033329095691538</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0133732996968631</v>
+        <v>0.01337028096980798</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.005173565539177541</v>
+        <v>0.001565438523718233</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01421434491718004</v>
+        <v>0.06348315452929258</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07016220137703916</v>
+        <v>0.06923344827711439</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.03289301985921435</v>
+        <v>0.02978815251259029</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.09152483359418004</v>
+        <v>0.04822193355114865</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2771836450471964</v>
+        <v>0.2753401887403282</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005169601863796763</v>
+        <v>0.0415438046091372</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06524523016198855</v>
+        <v>0.04675767231863568</v>
       </c>
       <c r="H12" t="n">
-        <v>5.983972500758258e-05</v>
+        <v>0.003886123365023373</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0432089333281014</v>
+        <v>0.07149412195170381</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003107542326136353</v>
+        <v>0.007978360666719368</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01264190898853107</v>
+        <v>0.06430589779835406</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008760920809928878</v>
+        <v>0.01627394923738451</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07180854672158868</v>
+        <v>0.04428876472011337</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03601341897718005</v>
+        <v>0.04169800161213633</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01193656837894815</v>
+        <v>0.003673616817966838</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02936475166124544</v>
+        <v>0.005052210174857429</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02936231189119289</v>
+        <v>0.01737729600838621</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05086953918630181</v>
+        <v>0.07300640644388895</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02028084273642809</v>
+        <v>0.003585375680968298</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04061736422155428</v>
+        <v>0.05095777149585928</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04106237402622347</v>
+        <v>0.02378237281377932</v>
       </c>
       <c r="V12" t="n">
-        <v>0.08724148893453626</v>
+        <v>0.04562806124542997</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02398929446731536</v>
+        <v>0.07298263490836521</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06813008095095355</v>
+        <v>0.02875608670865571</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0724548825850774</v>
+        <v>0.04832017794223385</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.007750781590540618</v>
+        <v>0.02826825185065206</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04132284245916477</v>
+        <v>0.007359082824115353</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06950295133131307</v>
+        <v>0.03033772625265064</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01959459751902603</v>
+        <v>0.02767777860453881</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.007353805463788302</v>
+        <v>0.01537768584528605</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0491649752360668</v>
+        <v>0.07313883867208314</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05557279592040131</v>
+        <v>0.05944928187139453</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.03120859663118579</v>
+        <v>0.04704264755968065</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1928204008324091</v>
+        <v>0.219789198589467</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3608716913738532</v>
+        <v>0.3169446407822013</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04828787432758638</v>
+        <v>0.08191926732229082</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006130882503666423</v>
+        <v>0.06276967173605995</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002542275597771061</v>
+        <v>0.006508375626251335</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002656684546358529</v>
+        <v>0.03035659896949806</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05588844103443327</v>
+        <v>0.01235656027864613</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07559029199721</v>
+        <v>0.03301622199677615</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06332965403771799</v>
+        <v>0.08003778775341561</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02275366696933413</v>
+        <v>0.04627680073434801</v>
       </c>
       <c r="N13" t="n">
-        <v>0.009507628175551135</v>
+        <v>0.01805687943308816</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07145219124854781</v>
+        <v>0.05204228446389664</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06921429113736992</v>
+        <v>0.01772648998928828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.004014021838116557</v>
+        <v>0.0148786445251821</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03218883137984469</v>
+        <v>0.03458361604558509</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06707216287692951</v>
+        <v>0.02237374601401971</v>
       </c>
       <c r="T13" t="n">
-        <v>0.008409059078897833</v>
+        <v>0.04089977328251679</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0610822710361505</v>
+        <v>0.06146050366875937</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03192556033382164</v>
+        <v>0.07042433192365637</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01025979018649072</v>
+        <v>0.0005309495397793867</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06266267039805536</v>
+        <v>0.001291621602160162</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01192990590244036</v>
+        <v>0.02684826320310491</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01869907055785682</v>
+        <v>0.04115137630456247</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06876040426372429</v>
+        <v>0.05764425609637554</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001827040815081695</v>
+        <v>0.01730340929350002</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03239265398108412</v>
+        <v>0.05263410871437547</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01463706706918886</v>
+        <v>0.002362811414389567</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.02447051416613807</v>
+        <v>0.002791843723561755</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.05910259044079429</v>
+        <v>0.06704814717557921</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.063212504099838</v>
+        <v>0.04470565916933303</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2578761918153017</v>
+        <v>0.2243878091252279</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.283218661624664</v>
+        <v>0.2849779232370349</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002659164800548853</v>
+        <v>0.004124123916751923</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06021984912645677</v>
+        <v>0.03137040876997019</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006213218963990273</v>
+        <v>0.002597826358279838</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06299484789764988</v>
+        <v>0.06278557043346594</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05300562586240627</v>
+        <v>0.06719976625684999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01752187606026002</v>
+        <v>0.03805479249958876</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0296875188029072</v>
+        <v>0.03599108163194342</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05982862674112491</v>
+        <v>0.01301334192021388</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03602142862883239</v>
+        <v>0.02685379317332951</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03123013710163226</v>
+        <v>0.03380542249621197</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05902831919646971</v>
+        <v>0.009007159307543637</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02629532186676846</v>
+        <v>0.0104818181140376</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06212972050132112</v>
+        <v>0.06369234196800894</v>
       </c>
       <c r="S14" t="n">
-        <v>0.009347646018154269</v>
+        <v>0.01751313063668435</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05677402336709596</v>
+        <v>0.04445449620748008</v>
       </c>
       <c r="U14" t="n">
-        <v>0.009602270337351077</v>
+        <v>0.003319196570386521</v>
       </c>
       <c r="V14" t="n">
-        <v>0.05516896449547499</v>
+        <v>0.05556481839255813</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04081695522983649</v>
+        <v>0.02714448202812401</v>
       </c>
       <c r="X14" t="n">
-        <v>0.001439726117873616</v>
+        <v>0.05134513056975309</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04568678051549064</v>
+        <v>0.04386309372630764</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03794930002182782</v>
+        <v>0.02693794127082741</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01363481675810988</v>
+        <v>0.006003535832496148</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05811408636340907</v>
+        <v>0.06330762895612044</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.007320666956681217</v>
+        <v>0.01192027335023235</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02596469230501619</v>
+        <v>0.06120265997058803</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.03192502925182177</v>
+        <v>0.05927953655567736</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.05851663377744934</v>
+        <v>0.06576293891855624</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.04090275293403943</v>
+        <v>0.06340369016801267</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.08745653059078853</v>
+        <v>-0.08616063525714303</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3710008387051587</v>
+        <v>0.355823456103823</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01896452334303323</v>
+        <v>0.008014013645162209</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0490860833246349</v>
+        <v>0.02235706361257214</v>
       </c>
       <c r="H15" t="n">
-        <v>0.088039297212768</v>
+        <v>0.06105473412679552</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07340633637931436</v>
+        <v>0.07491073313984307</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01646624824410317</v>
+        <v>0.03678708297519418</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04553251855695076</v>
+        <v>0.08342006775030418</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08703175964553454</v>
+        <v>0.02778412284039544</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01263213591758016</v>
+        <v>0.04076572785133759</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04680191646461544</v>
+        <v>0.02355852603271109</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08064963063093836</v>
+        <v>0.05676125535926802</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01703360103070248</v>
+        <v>0.04145630116771891</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0113617100748796</v>
+        <v>0.06203800508185812</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07552978725963158</v>
+        <v>0.01544248926461051</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01810375735381714</v>
+        <v>0.07259878319491139</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0535878986257048</v>
+        <v>0.002920828363802877</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02500200487368574</v>
+        <v>0.008468767838094332</v>
       </c>
       <c r="V15" t="n">
-        <v>0.06620140785762975</v>
+        <v>0.07008234955131282</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03916135759153302</v>
+        <v>0.01083252406380483</v>
       </c>
       <c r="X15" t="n">
-        <v>0.007113703703841174</v>
+        <v>0.03694096864173081</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.04378992921004619</v>
+        <v>0.03587311351697461</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0009719764223680537</v>
+        <v>0.04919588029639998</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.001491173865559436</v>
+        <v>0.06388091666948079</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02985471470396903</v>
+        <v>0.006067438713291169</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.003260053266518415</v>
+        <v>0.02537222805001256</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.007893858381274302</v>
+        <v>0.01355720054649399</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0292462661936883</v>
+        <v>0.002385066389126824</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.04102625978325786</v>
+        <v>0.03975130694019966</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.01076009008242008</v>
+        <v>0.007722504376592206</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.0782689170675674</v>
+        <v>-0.0635282682746504</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2695843913790822</v>
+        <v>0.2640840065520445</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01751506252799172</v>
+        <v>0.01996691773389122</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01983236158933741</v>
+        <v>0.08849965418786487</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003101330912083878</v>
+        <v>0.03302136839539237</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003221480347245086</v>
+        <v>0.009256522955504267</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006808307640692903</v>
+        <v>0.03583953652123684</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01903842496111876</v>
+        <v>0.0187119645959111</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03527689624674642</v>
+        <v>0.002882382130876978</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05760121387575475</v>
+        <v>0.03601470581080952</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0611043758923874</v>
+        <v>0.003423345174884441</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00484962412143625</v>
+        <v>0.01017967261808449</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02461308131759673</v>
+        <v>0.02531729657502358</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05141221454864628</v>
+        <v>0.0454140995511066</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05363324685212432</v>
+        <v>0.05454352763511293</v>
       </c>
       <c r="S16" t="n">
-        <v>0.03929307747233965</v>
+        <v>0.0169597526108346</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06034773864387244</v>
+        <v>0.07975037495734291</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0007404136309413304</v>
+        <v>0.004320198385136208</v>
       </c>
       <c r="V16" t="n">
-        <v>0.05804874055905004</v>
+        <v>0.01173765581589956</v>
       </c>
       <c r="W16" t="n">
-        <v>0.007554526701755162</v>
+        <v>0.0524996230318422</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05961596659291879</v>
+        <v>0.08603576908304116</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.04471548685781414</v>
+        <v>0.07375677850603012</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.02978257183993344</v>
+        <v>0.002741675632283997</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.05459678168097046</v>
+        <v>0.08103944523986388</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.06194852084508538</v>
+        <v>0.08040114766980744</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.04251722722809258</v>
+        <v>0.01254361452600536</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.02706415076708658</v>
+        <v>0.004096879048508032</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.04431057928754237</v>
+        <v>0.02747147582774313</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.05334348841186395</v>
+        <v>0.03982235708051814</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06424058552419534</v>
+        <v>0.04375225869944388</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1807960554998506</v>
+        <v>0.1651039465694912</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3118230831616735</v>
+        <v>0.3215585676697423</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07976405353436068</v>
+        <v>0.07438066010013857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06167048363471069</v>
+        <v>0.01365057456302187</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05834699760890701</v>
+        <v>0.07830589720966881</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03037976073332163</v>
+        <v>0.04626161182985791</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02427113155302504</v>
+        <v>0.02515269040279715</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06135537300061263</v>
+        <v>0.06747109261694079</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07333522910194119</v>
+        <v>0.05453640765667237</v>
       </c>
       <c r="M17" t="n">
-        <v>0.009442965816643405</v>
+        <v>0.04118488716689869</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06917089925610427</v>
+        <v>0.04034135892812712</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06386635578843371</v>
+        <v>0.03100503218031023</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03845227943234319</v>
+        <v>0.05240445887318537</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.009022047513781582</v>
+        <v>0.001169378024699915</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07702572332131354</v>
+        <v>0.02980102322372215</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01470269611119057</v>
+        <v>0.05294181653807735</v>
       </c>
       <c r="T17" t="n">
-        <v>0.005385793798988918</v>
+        <v>0.01424822467487229</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0005842374104316107</v>
+        <v>0.01206120450029837</v>
       </c>
       <c r="V17" t="n">
-        <v>0.00290997612402847</v>
+        <v>0.02710863806307351</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04941929624986048</v>
+        <v>0.008957037887255079</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02827753172514341</v>
+        <v>0.05230623950708962</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04685726830672041</v>
+        <v>0.06408937201896228</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.003472745799681302</v>
+        <v>0.03367550586013236</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.05064520739893632</v>
+        <v>0.06241726385020832</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03820897273902408</v>
+        <v>0.00690288011711469</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02091735517502327</v>
+        <v>0.00977128457044402</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.001222417135133479</v>
+        <v>0.0008869361998949832</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.03620613393136538</v>
+        <v>0.01807019978133898</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.02741513871042007</v>
+        <v>0.04948390731736368</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.01767192908855382</v>
+        <v>0.03141441633783357</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1752733139666575</v>
+        <v>0.1844963348745214</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2495954472530647</v>
+        <v>0.2643416509670778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07551666503333074</v>
+        <v>0.002785668193268846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00364981036822154</v>
+        <v>0.0779084404663473</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05550180739928957</v>
+        <v>0.001163179807235784</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003392450176474903</v>
+        <v>0.04925648832739426</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03263393984072391</v>
+        <v>0.07008006090007518</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003556356668085265</v>
+        <v>0.002026284611858584</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04230138535417837</v>
+        <v>0.05321299806886783</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001981023233925338</v>
+        <v>9.046328043091325e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01146836507146558</v>
+        <v>0.07266731090352371</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0003261622557542558</v>
+        <v>0.06814427771562129</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01540257086175067</v>
+        <v>0.01431067428775203</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05958648433063648</v>
+        <v>0.01784297811338643</v>
       </c>
       <c r="R18" t="n">
-        <v>0.007412765040127759</v>
+        <v>0.01618377193245636</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07126120562280117</v>
+        <v>0.06351746492795518</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05821078962596152</v>
+        <v>0.07684227053831837</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002098818745343934</v>
+        <v>0.002557212519865289</v>
       </c>
       <c r="V18" t="n">
-        <v>0.03009771238218902</v>
+        <v>0.01153390310709404</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07403864062027876</v>
+        <v>0.07160321817274162</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03325550216983927</v>
+        <v>0.03252757920257848</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03266089891225081</v>
+        <v>0.07494287061653127</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.05473592506348869</v>
+        <v>0.06000025708803771</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.06937048231012802</v>
+        <v>0.01979252156355435</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.003687635192578907</v>
+        <v>0.01104697691244306</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0310322095732454</v>
+        <v>0.001714520371358367</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.07183763502324336</v>
+        <v>0.06256890362153104</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.01359935043783833</v>
+        <v>0.008608965575037507</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.07359688877759589</v>
+        <v>0.005315409539742875</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.07404044606935682</v>
+        <v>0.05175532963499211</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.07188902795705758</v>
+        <v>0.0390858782616023</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3238207346720742</v>
+        <v>0.3628403072294763</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06018811216679356</v>
+        <v>0.07107515916914263</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04258891491542955</v>
+        <v>0.03455785593923483</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04949181415626401</v>
+        <v>0.008025801335290184</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04287049526662957</v>
+        <v>0.01532225378861574</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06582827966870973</v>
+        <v>0.02744225845939495</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01487990359323808</v>
+        <v>0.01067339588014871</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02948754441990675</v>
+        <v>6.677455163296341e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002125778823851072</v>
+        <v>0.005094838978880726</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03810449577556359</v>
+        <v>0.0362626217890468</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03447694626011957</v>
+        <v>0.07124233166756366</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04729137579403958</v>
+        <v>0.05079335046669739</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03441461728464075</v>
+        <v>0.07159362663172088</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0005006897321766612</v>
+        <v>0.007623942043260463</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0300333452832227</v>
+        <v>0.0129479015938683</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05994164350873808</v>
+        <v>0.009415708626290773</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0199019621281968</v>
+        <v>0.006501014804170552</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02890371259103437</v>
+        <v>0.06549342061173567</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05238578783472128</v>
+        <v>0.01153073147507589</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02747739543783437</v>
+        <v>0.07324971940371391</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02233875851434316</v>
+        <v>0.06059256569080772</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.006451972041370491</v>
+        <v>0.002227429118122481</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.05397063397569915</v>
+        <v>0.07132384641427203</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03929413373522626</v>
+        <v>0.06850928475189326</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02705763288784409</v>
+        <v>0.0218922743832553</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.06525837084168944</v>
+        <v>0.06082559161160789</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.007464591679346103</v>
+        <v>0.006519969555438296</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.04996122025698611</v>
+        <v>0.07037463753322815</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.04730987142638513</v>
+        <v>0.04882169372588997</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.067864376143201</v>
+        <v>0.05386435912368127</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1310954486651715</v>
+        <v>0.1333237382339326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05086472556998082</v>
+        <v>0.000917877898514169</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08072009262548852</v>
+        <v>0.07018399440147821</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02897442647981033</v>
+        <v>0.009014774108930703</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003731963623576182</v>
+        <v>0.01253612261211978</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02856468181100531</v>
+        <v>0.0112508302122062</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01566204417480828</v>
+        <v>0.03867282358043378</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0230150888830549</v>
+        <v>0.01683697415381052</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02863538926979532</v>
+        <v>0.03438705307792598</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03270662012037618</v>
+        <v>0.00956349261252633</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003285403451415581</v>
+        <v>0.01094055512537343</v>
       </c>
       <c r="P20" t="n">
-        <v>0.009719653150223035</v>
+        <v>0.04421409548858011</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0248619005554714</v>
+        <v>0.01656247343025212</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07147707359020969</v>
+        <v>0.06821041088110179</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01632695686260465</v>
+        <v>0.0204770931341259</v>
       </c>
       <c r="T20" t="n">
-        <v>0.08039571453409627</v>
+        <v>0.06966708937397878</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0438981894210738</v>
+        <v>0.01137289389130494</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06155974548446619</v>
+        <v>0.04914825108251417</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02491518331138991</v>
+        <v>0.02968868677682834</v>
       </c>
       <c r="X20" t="n">
-        <v>0.02319809461435419</v>
+        <v>0.06993200931284914</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05012822949010282</v>
+        <v>0.02903483176384592</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03377065940726024</v>
+        <v>0.05222698562285969</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.005600584747477899</v>
+        <v>0.01624574894196599</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.03756713630310573</v>
+        <v>0.06566887147697327</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05089909604705969</v>
+        <v>0.03690373274373269</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.00534640563245853</v>
+        <v>0.07303448305680148</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.04931457890180619</v>
+        <v>0.0627776741173886</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.04538078385395891</v>
+        <v>0.003176532186747977</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.07283834534478789</v>
+        <v>0.0673536389348299</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.0005890264813448558</v>
+        <v>-0.002236996606943722</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1692266691865862</v>
+        <v>0.16326851090796</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0748350285454818</v>
+        <v>0.06725629279576373</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004687067857827781</v>
+        <v>0.04186660374938588</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01917539040088114</v>
+        <v>0.03069546617195197</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008842166141329599</v>
+        <v>0.002756605052022843</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0608847535884808</v>
+        <v>0.07112042825179712</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07542894191426218</v>
+        <v>0.07966305580693882</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02994032530841952</v>
+        <v>0.01695837794900655</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04946438758357628</v>
+        <v>0.06042810861207686</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0208846377165317</v>
+        <v>0.0677518943263842</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0440195728862255</v>
+        <v>0.0187296380007009</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01467594131901211</v>
+        <v>0.04822107172443048</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07089217807938984</v>
+        <v>0.01342984167012124</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04781831041453512</v>
+        <v>0.01574968801637333</v>
       </c>
       <c r="S21" t="n">
-        <v>0.002620215295005366</v>
+        <v>0.0158197514362411</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02282983695597242</v>
+        <v>0.01883066115011817</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01644988182050651</v>
+        <v>0.04802468068725864</v>
       </c>
       <c r="V21" t="n">
-        <v>0.008295495326905615</v>
+        <v>0.04349367032917026</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003252862945601327</v>
+        <v>0.01477825293005554</v>
       </c>
       <c r="X21" t="n">
-        <v>0.03327260751564587</v>
+        <v>0.007631541448451509</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.03254849419174892</v>
+        <v>0.04566035952724862</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01269490882543312</v>
+        <v>0.0003166359963935109</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.08071048397080283</v>
+        <v>0.04693312569462539</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05620833385039613</v>
+        <v>0.05830179305722509</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05468432144529746</v>
+        <v>0.05623893700221876</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0282172053191581</v>
+        <v>0.02297782409903606</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.008760236345778121</v>
+        <v>0.01762318399827062</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.07246813839808323</v>
+        <v>0.06412237987640509</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0454382760377117</v>
+        <v>0.004620130640327564</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.06221329851166396</v>
+        <v>-0.05071827082556495</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1629360396092363</v>
+        <v>0.1649905184185607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0137771653635769</v>
+        <v>0.009525234212906873</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04087688484644005</v>
+        <v>0.06349779484524433</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04282618808846608</v>
+        <v>0.06227680859996464</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05210926509728599</v>
+        <v>0.0162258995614176</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02826925314580059</v>
+        <v>0.01243232326416703</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005180670257701924</v>
+        <v>0.03697800992876219</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01417245770456733</v>
+        <v>0.0366637556351653</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003962910828457528</v>
+        <v>0.01494215766090622</v>
       </c>
       <c r="N22" t="n">
-        <v>0.000299592196350933</v>
+        <v>0.004697242448857884</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01733147223233296</v>
+        <v>0.03641998431097495</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06063570681072045</v>
+        <v>0.02106074895766039</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04338138761872066</v>
+        <v>0.01280065119092211</v>
       </c>
       <c r="R22" t="n">
-        <v>0.03644209061738325</v>
+        <v>0.06306968719675515</v>
       </c>
       <c r="S22" t="n">
-        <v>0.00985763875905148</v>
+        <v>0.03852193973323588</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06215102418909966</v>
+        <v>0.04869157233657002</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02697702096027515</v>
+        <v>0.01476430449649917</v>
       </c>
       <c r="V22" t="n">
-        <v>0.06565810277842479</v>
+        <v>0.04918368305154696</v>
       </c>
       <c r="W22" t="n">
-        <v>0.003153055999332332</v>
+        <v>0.001075924559035369</v>
       </c>
       <c r="X22" t="n">
-        <v>0.08704756222172172</v>
+        <v>0.05325251869822423</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07808615061042674</v>
+        <v>0.0680864888541812</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03227849069188355</v>
+        <v>0.076825351602116</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0193237465751097</v>
+        <v>0.02157960132729995</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.08000080869485351</v>
+        <v>0.07509100528845569</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0255512027640194</v>
+        <v>0.01713795554733874</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.006535663971942899</v>
+        <v>0.06425849490357263</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.01317121528046455</v>
+        <v>0.02942344085932926</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0453655763549732</v>
+        <v>0.01652600777735973</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.08557769534061678</v>
+        <v>0.03499141315153045</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.06121875695508546</v>
+        <v>0.07613125675983745</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1954732245680477</v>
+        <v>0.411988405858943</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01388656660750008</v>
+        <v>0.005970092898093363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06533557593542219</v>
+        <v>0.03257057763746309</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003438313558705599</v>
+        <v>0.0003265982748334701</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05930846334457165</v>
+        <v>0.01740576071409216</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006637938271735469</v>
+        <v>0.03781613209796955</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003358196456629856</v>
+        <v>0.03880900982235623</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03997743270576577</v>
+        <v>0.009492439183889582</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06734170758588272</v>
+        <v>0.04803421964068323</v>
       </c>
       <c r="N23" t="n">
-        <v>0.004976191021135768</v>
+        <v>0.00233556428235345</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008858625554442844</v>
+        <v>0.003687076057943892</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04198146318092291</v>
+        <v>0.004880581247270002</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001332246597902259</v>
+        <v>0.03531731868178977</v>
       </c>
       <c r="R23" t="n">
-        <v>0.07751822066810926</v>
+        <v>0.05301640212615683</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02551898894952254</v>
+        <v>0.102618945412896</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08527770902717041</v>
+        <v>0.05371763850781419</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008670455130639401</v>
+        <v>0.03348919681006042</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03088861097148562</v>
+        <v>0.05038781083857288</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01184488881619441</v>
+        <v>0.04816002641946892</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03512911149692757</v>
+        <v>0.01529103751873792</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0532956548127553</v>
+        <v>0.01161034749032871</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.04932680936957206</v>
+        <v>0.006479623325403786</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08221157729475267</v>
+        <v>0.08490471914739783</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.006239199116112236</v>
+        <v>0.05186338960417657</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.04234341489969067</v>
+        <v>0.03011043995468399</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.07418122987773981</v>
+        <v>0.09835693954445289</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.02086765224744007</v>
+        <v>0.01941685114805402</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.002851881207627802</v>
+        <v>0.01328163800074841</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.07740187529364301</v>
+        <v>0.09064962361230872</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.06024170919446251</v>
+        <v>0.04567395999044716</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1815875495293851</v>
+        <v>0.1817212045357199</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03805419418523091</v>
+        <v>0.06344633643059162</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03505557992055132</v>
+        <v>0.02973357458456369</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03742015282738684</v>
+        <v>0.01412358331771871</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06041389100084545</v>
+        <v>0.04726586154257501</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02759599591417264</v>
+        <v>0.006562827217686618</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05299955453499634</v>
+        <v>0.01924784374189291</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03938715922503101</v>
+        <v>0.06770732663290029</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02309582506849351</v>
+        <v>0.01550595110360773</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02715872311575484</v>
+        <v>0.04907290874530886</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04501640830308237</v>
+        <v>0.06724697243362265</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0007272716916022445</v>
+        <v>0.002814677952161194</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02411603971108831</v>
+        <v>0.05527541609676898</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03525119256788716</v>
+        <v>0.06357764431206681</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0348257695871429</v>
+        <v>0.02631442179772202</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04157923918985477</v>
+        <v>0.02525437222253739</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02596119152258417</v>
+        <v>0.007454781638581919</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04115381214347737</v>
+        <v>0.05939139903214084</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02491128000078664</v>
+        <v>0.05454628027103593</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04903427991026483</v>
+        <v>0.01720338239696818</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01917201964120019</v>
+        <v>0.02920523338419641</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06570979776970935</v>
+        <v>0.03503298121338779</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06685624432399991</v>
+        <v>0.06162797818333901</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06764701927851983</v>
+        <v>0.04436228455274379</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.006089377892505451</v>
+        <v>0.06459445694546317</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.04200095339543354</v>
+        <v>0.0007749630547327568</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01592895201659181</v>
+        <v>0.002660669924204585</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.05192074322410321</v>
+        <v>0.06702570343723646</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0009173320377033152</v>
+        <v>0.002970167834244744</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.04861981635106979</v>
+        <v>0.06004556024467041</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6318099476750153</v>
+        <v>0.6804229461750755</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01344034442193372</v>
+        <v>0.08227528670267673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0220778226704041</v>
+        <v>0.003838765340118908</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0004987815067447066</v>
+        <v>0.02714376787485335</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01246098023128375</v>
+        <v>0.06250799128329464</v>
       </c>
       <c r="J25" t="n">
-        <v>0.004017935318341252</v>
+        <v>0.05968343090260878</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07673725125053295</v>
+        <v>0.04915926567424834</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02724545109566319</v>
+        <v>0.02979154708319904</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03214185575693487</v>
+        <v>0.01910540878787142</v>
       </c>
       <c r="N25" t="n">
-        <v>0.046366343947547</v>
+        <v>0.002863181551384326</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01229517944997052</v>
+        <v>0.003215308401807623</v>
       </c>
       <c r="P25" t="n">
-        <v>0.07021143505972627</v>
+        <v>0.0745146309811469</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05036045525877016</v>
+        <v>0.06653022753028148</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05574480872418913</v>
+        <v>0.01283996901288485</v>
       </c>
       <c r="S25" t="n">
-        <v>0.001862745063752594</v>
+        <v>0.07855921470042629</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05191936366266656</v>
+        <v>0.04557983741980874</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0701692377777535</v>
+        <v>0.05621916224496583</v>
       </c>
       <c r="V25" t="n">
-        <v>0.05488055516925993</v>
+        <v>0.06262591373986505</v>
       </c>
       <c r="W25" t="n">
-        <v>0.002196060205539305</v>
+        <v>0.006199682047320551</v>
       </c>
       <c r="X25" t="n">
-        <v>0.07489080462415917</v>
+        <v>0.08310039100809556</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01019011077955667</v>
+        <v>0.06929732117229664</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.06702562220315599</v>
+        <v>0.008271495061918755</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.07125789921458831</v>
+        <v>0.01863293851508009</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02083247851374554</v>
+        <v>0.03950221377574191</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.06176978279337267</v>
+        <v>0.009217142630716636</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0501212722224868</v>
+        <v>0.01056467692959343</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.003879892402301094</v>
+        <v>0.006159155229473987</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.03521402963864474</v>
+        <v>0.01251711119949507</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.000191501036975511</v>
+        <v>8.496319882507002e-05</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.07175160321772003</v>
+        <v>0.02963942156446982</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1750445537248297</v>
+        <v>0.1753974495959146</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04135734766713991</v>
+        <v>0.03629270479392897</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002000587206428332</v>
+        <v>0.006992584078041772</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06911389756399341</v>
+        <v>0.05016997347121771</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001951830657130206</v>
+        <v>0.01471801023324721</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07326253615634844</v>
+        <v>0.02460135541753318</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00419203996203237</v>
+        <v>0.009072942315101005</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02071504203994698</v>
+        <v>0.05239814462712059</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07778382197196672</v>
+        <v>0.01571435573360785</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03707495975250472</v>
+        <v>0.05439825962518263</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03866382302032143</v>
+        <v>0.04058075512067744</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02757600071389897</v>
+        <v>0.03975240708941857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001183808946426907</v>
+        <v>0.006030137465036538</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05020461900297967</v>
+        <v>0.07273788717927003</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03887596787123544</v>
+        <v>0.01732541043770034</v>
       </c>
       <c r="T26" t="n">
-        <v>0.002975700998365529</v>
+        <v>0.0324653084373839</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03101793978149609</v>
+        <v>0.01628915688421973</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02267648408188135</v>
+        <v>0.05830518405253541</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08520820294292637</v>
+        <v>0.07977091276224429</v>
       </c>
       <c r="X26" t="n">
-        <v>0.006667591180555948</v>
+        <v>0.02021623262798398</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05013025289312569</v>
+        <v>0.05922994600873623</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.06075459222302346</v>
+        <v>0.01302862481572713</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0158775836911755</v>
+        <v>0.04130685440254183</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02329920074507538</v>
+        <v>0.005990933196998228</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01005484319820912</v>
+        <v>0.01799591920610212</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.04152472082887856</v>
+        <v>0.06048167020339433</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.08132772797703079</v>
+        <v>0.03955454337800079</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.03132680105308166</v>
+        <v>0.03914022454376743</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.05495872346423827</v>
+        <v>0.07543956189328072</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.09767508793485122</v>
+        <v>0.1124631730537966</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.203352184705476</v>
+        <v>0.2088942953482489</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0143913372381454</v>
+        <v>0.05528277457316846</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004372281334715226</v>
+        <v>0.007389035260758721</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04890737578419579</v>
+        <v>0.03633081115624002</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06746436997224002</v>
+        <v>0.07229814314993958</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01368154989155252</v>
+        <v>0.002677552500305913</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03062296002687825</v>
+        <v>0.0405658403903618</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03686983619284868</v>
+        <v>0.07252620347070386</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01686439780135307</v>
+        <v>0.02346048911914203</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07166441803461494</v>
+        <v>0.05172697930537574</v>
       </c>
       <c r="O27" t="n">
-        <v>0.07634154398488771</v>
+        <v>0.03352866490449982</v>
       </c>
       <c r="P27" t="n">
-        <v>0.07730911744608029</v>
+        <v>0.07092489111658676</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01777252718830112</v>
+        <v>0.07103618404500023</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06408430365849985</v>
+        <v>0.01735618107811736</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01542443641454708</v>
+        <v>0.03790394701967573</v>
       </c>
       <c r="T27" t="n">
-        <v>0.07327061046287445</v>
+        <v>0.02039304149819294</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01693557421344996</v>
+        <v>0.06842676111310676</v>
       </c>
       <c r="V27" t="n">
-        <v>0.006113088196306466</v>
+        <v>0.005045477289438732</v>
       </c>
       <c r="W27" t="n">
-        <v>0.04274555383310429</v>
+        <v>0.02335195533187725</v>
       </c>
       <c r="X27" t="n">
-        <v>0.008580494384580644</v>
+        <v>0.05415519670670644</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.009915215059335123</v>
+        <v>0.06665356150257064</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03232455894445441</v>
+        <v>0.0003046626818474458</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.07549873703312313</v>
+        <v>0.01874783372749739</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01383836676539092</v>
+        <v>0.004872617805630115</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.02991470636229742</v>
+        <v>0.009474053125334921</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.03089636973532436</v>
+        <v>0.05338785614301608</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.02187289657906092</v>
+        <v>0.03546575113557245</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.06597825695747313</v>
+        <v>0.04164370582034184</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.01634511650436476</v>
+        <v>0.005069829028991182</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.146503398653436</v>
+        <v>0.1326706872921423</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.154737788052225</v>
+        <v>0.1590473206242776</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02342033938070875</v>
+        <v>0.02076979400359295</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004943474232124298</v>
+        <v>0.05763813186327492</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05625109851549163</v>
+        <v>0.01102415458190386</v>
       </c>
       <c r="I28" t="n">
-        <v>0.006256620766189016</v>
+        <v>0.0008029929027648858</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02759266066441873</v>
+        <v>0.04915336097738859</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02406599075869642</v>
+        <v>0.01798865194112204</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0009691994512444059</v>
+        <v>0.001900449896278132</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01937071041968778</v>
+        <v>0.007860480663175263</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05780868290676168</v>
+        <v>0.01103048131022705</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01112814941240378</v>
+        <v>0.007213256989024019</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06270101885072807</v>
+        <v>0.05159024483548313</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01395642165556183</v>
+        <v>0.02508065691572151</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06292376003948584</v>
+        <v>0.05827631554334604</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03389191767385795</v>
+        <v>0.02809719007545779</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06657251434571244</v>
+        <v>0.02976246603126962</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01242958033410659</v>
+        <v>0.06231024103918471</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06756108416535669</v>
+        <v>0.06256073291239862</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06507171014636924</v>
+        <v>0.008608917621439189</v>
       </c>
       <c r="X28" t="n">
-        <v>0.06676408708611435</v>
+        <v>0.007559941818161812</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03858055407851056</v>
+        <v>0.04045343274007575</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01618624020422069</v>
+        <v>0.07006971963939918</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01015143775672774</v>
+        <v>0.0372549633471418</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05195310698806794</v>
+        <v>0.06022524819992712</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.04513477400207012</v>
+        <v>0.03807767445280741</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.005236262197247229</v>
+        <v>0.06494509425328168</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.05069369027644269</v>
+        <v>0.03960687061844308</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.02141996978595774</v>
+        <v>0.07150144862322734</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.07696494390573566</v>
+        <v>0.0586370862044826</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.09668537603213739</v>
+        <v>0.1059480505173626</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1889526172412259</v>
+        <v>0.17017147197742</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05441428342000688</v>
+        <v>0.05572766857880729</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04231183649714448</v>
+        <v>0.04295484549031578</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0680900466676751</v>
+        <v>0.005257397522462058</v>
       </c>
       <c r="I29" t="n">
-        <v>0.003319741258045289</v>
+        <v>0.002840537512537873</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04688274749961786</v>
+        <v>0.02878666483978012</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01346193060162341</v>
+        <v>0.01186311923829019</v>
       </c>
       <c r="L29" t="n">
-        <v>0.003711301940349805</v>
+        <v>0.002393293331695423</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0142917851594408</v>
+        <v>0.02801385190370148</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08927559911029349</v>
+        <v>0.08795804141846424</v>
       </c>
       <c r="O29" t="n">
-        <v>0.09210136011609515</v>
+        <v>0.07958999869691263</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03790140966434723</v>
+        <v>0.0434758951048216</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05723508631168547</v>
+        <v>0.01706155600273337</v>
       </c>
       <c r="R29" t="n">
-        <v>0.08619057327062574</v>
+        <v>0.02369127219528516</v>
       </c>
       <c r="S29" t="n">
-        <v>0.006067209355586639</v>
+        <v>0.01084093760738163</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01894397607923056</v>
+        <v>0.006646343214785263</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02385248441735637</v>
+        <v>0.02646517671001339</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02623585176357867</v>
+        <v>0.004548775124649056</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0262094976425498</v>
+        <v>0.03154425768463814</v>
       </c>
       <c r="X29" t="n">
-        <v>0.002099424318327237</v>
+        <v>0.04431087228662531</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03568856118858044</v>
+        <v>0.09061376394821659</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02410633385968336</v>
+        <v>0.0427107743386251</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.00708396468386898</v>
+        <v>0.03805667816812886</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0406660564646186</v>
+        <v>0.08413491657944071</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.04929174829542608</v>
+        <v>0.05666839315614409</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.006515611316764738</v>
+        <v>0.05848265323761315</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01727538252985055</v>
+        <v>0.0251481783112019</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.08852306120923034</v>
+        <v>0.02713844252992027</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.01825313535839675</v>
+        <v>0.02307569526680937</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1279303729710278</v>
+        <v>0.1265292414148519</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1249469052372334</v>
+        <v>0.1302323171908616</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04085726052291097</v>
+        <v>0.03132419156594849</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05873455538017906</v>
+        <v>0.03094863274279859</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02966293478548412</v>
+        <v>0.04137268367463165</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01609445939849142</v>
+        <v>0.01569441748105911</v>
       </c>
       <c r="J30" t="n">
-        <v>0.06758102426625247</v>
+        <v>0.01730540639872163</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0128092296931774</v>
+        <v>0.0192209738534846</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03786166445479148</v>
+        <v>0.04674065222723851</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01696629113860102</v>
+        <v>0.02377054608762238</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04641245311888647</v>
+        <v>0.06577886759435715</v>
       </c>
       <c r="O30" t="n">
-        <v>0.001689839446496184</v>
+        <v>0.01814556966798426</v>
       </c>
       <c r="P30" t="n">
-        <v>0.003019826514883799</v>
+        <v>0.003193884083258137</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01322352213504131</v>
+        <v>0.004036666280162167</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06400285046107437</v>
+        <v>0.05441187506232767</v>
       </c>
       <c r="S30" t="n">
-        <v>0.04519773693366812</v>
+        <v>0.05652962792706036</v>
       </c>
       <c r="T30" t="n">
-        <v>0.05785136626255093</v>
+        <v>0.0448977199668453</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02724777552573059</v>
+        <v>0.04566961311473086</v>
       </c>
       <c r="V30" t="n">
-        <v>0.04243681522178613</v>
+        <v>0.03368041431268156</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03114528159763362</v>
+        <v>0.04905182829958877</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01082919484495993</v>
+        <v>0.002674728611592702</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.070317539970902</v>
+        <v>0.06745246560975512</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01968334131553048</v>
+        <v>0.008381534257018328</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02849372944644069</v>
+        <v>0.06187241967504246</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.05985582211021131</v>
+        <v>0.04647131039298685</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.04826726418194111</v>
+        <v>0.04442756013783355</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.03195883991385107</v>
+        <v>0.06202242843903054</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.03682649012765588</v>
+        <v>0.002007102575300774</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.06556115109592829</v>
+        <v>0.03870526732295972</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.01541174013493982</v>
+        <v>0.06421161263797864</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.09292327215164135</v>
+        <v>0.07546133518422544</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1316080292499573</v>
+        <v>0.1370186258848944</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02252645532674845</v>
+        <v>0.01125075060105451</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05452802657164631</v>
+        <v>0.0323784494401783</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02144797524332068</v>
+        <v>0.04805133816357277</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0365545383720263</v>
+        <v>0.05178917059802639</v>
       </c>
       <c r="J31" t="n">
-        <v>0.07961324876969748</v>
+        <v>0.01304737813676677</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01477042182023806</v>
+        <v>0.00653143900150294</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04468697403836749</v>
+        <v>0.0405879065103134</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06827051817795528</v>
+        <v>0.007038670508732576</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04667348336547494</v>
+        <v>0.03650921156870284</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001565794054844477</v>
+        <v>0.002235667011821973</v>
       </c>
       <c r="P31" t="n">
-        <v>0.03929078725251502</v>
+        <v>0.06458753135026842</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001990939893934926</v>
+        <v>0.008615026817078464</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0522558314810571</v>
+        <v>0.0505058312204428</v>
       </c>
       <c r="S31" t="n">
-        <v>0.05884726886898344</v>
+        <v>0.04098764072995831</v>
       </c>
       <c r="T31" t="n">
-        <v>0.07073804545532537</v>
+        <v>0.06644652851754876</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007284381231631307</v>
+        <v>0.02419023299976248</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03736281383299317</v>
+        <v>0.03395204339812335</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01638193120241266</v>
+        <v>0.04438952003641957</v>
       </c>
       <c r="X31" t="n">
-        <v>0.008000251493154392</v>
+        <v>0.01067548399014533</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.08399254511479549</v>
+        <v>0.02685994506528149</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01101458411081481</v>
+        <v>0.0526233006067772</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.02770495274675539</v>
+        <v>0.05945008488475674</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01057578873674034</v>
+        <v>0.0225801138734983</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.01088044116570938</v>
+        <v>0.06704435744817468</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.05755152656926091</v>
+        <v>0.04655404245190983</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.03901746813383533</v>
+        <v>0.04816020275656289</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.0690095824836757</v>
+        <v>0.05257829489935395</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.007463424486085666</v>
+        <v>0.03037983741326499</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.1001820790154328</v>
+        <v>0.06937057928091164</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1004773334390581</v>
+        <v>0.09988624317406218</v>
       </c>
       <c r="F32" t="n">
-        <v>0.009980040103883883</v>
+        <v>0.0408239667486618</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04495760361487704</v>
+        <v>0.02719412542130049</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001630341022846707</v>
+        <v>0.0236091216106729</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03449415873682368</v>
+        <v>0.04074864197470802</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06630450396835674</v>
+        <v>0.006665071344106266</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01593589851018149</v>
+        <v>0.02044753878809934</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04642886735426968</v>
+        <v>0.07230870102672197</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04155405047931048</v>
+        <v>0.02888825200215719</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02325118481257067</v>
+        <v>0.005760658091934495</v>
       </c>
       <c r="O32" t="n">
-        <v>0.006187734042229405</v>
+        <v>0.01424499075666359</v>
       </c>
       <c r="P32" t="n">
-        <v>0.04461026427783553</v>
+        <v>0.05340937210594458</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.003011064379717255</v>
+        <v>0.01502267656888306</v>
       </c>
       <c r="R32" t="n">
-        <v>0.06799202401502966</v>
+        <v>0.05799211166189783</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01602894251605886</v>
+        <v>0.01386721276690924</v>
       </c>
       <c r="T32" t="n">
-        <v>0.05045481407653248</v>
+        <v>0.04142476732969318</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03276022065713628</v>
+        <v>0.01190792234856086</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02925112104174256</v>
+        <v>0.01564145615980586</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07502457726363194</v>
+        <v>0.0615817223139161</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01180816677757698</v>
+        <v>0.00552852131068603</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04327151166575254</v>
+        <v>0.05503960043842189</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.02025943078856996</v>
+        <v>0.03654174587585583</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01952946971248663</v>
+        <v>0.0422101423657673</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.07149949463492208</v>
+        <v>0.03549396021072731</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.008573369444764093</v>
+        <v>0.06897204426955528</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.05435226146841517</v>
+        <v>0.05747118609612531</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.04356713640361421</v>
+        <v>0.06770575391869706</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.04272408845082772</v>
+        <v>0.03281316566705869</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.07455765978003619</v>
+        <v>0.04668557082646847</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.04211656935536368</v>
+        <v>0.06208062793028747</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1369353906989526</v>
+        <v>0.1211916404482202</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02711072661357854</v>
+        <v>0.0246976673621923</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005252140538720711</v>
+        <v>0.0177510486726571</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0766224366747366</v>
+        <v>0.06129223295280346</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08728164162012518</v>
+        <v>0.06796093544517913</v>
       </c>
       <c r="J33" t="n">
-        <v>0.02643684356244878</v>
+        <v>0.06233501068147133</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01444019948834784</v>
+        <v>0.0247972897399227</v>
       </c>
       <c r="L33" t="n">
-        <v>0.009509267536810726</v>
+        <v>0.05525355213319887</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06731197232289889</v>
+        <v>0.04216816350767225</v>
       </c>
       <c r="N33" t="n">
-        <v>0.04463012031749865</v>
+        <v>0.02955074264793149</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02942255756150155</v>
+        <v>0.005133497915740815</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01046517034724672</v>
+        <v>0.05507607136461436</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04827496696869956</v>
+        <v>0.01114140101056941</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005952379229334128</v>
+        <v>0.01014905840857363</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03832188542553412</v>
+        <v>0.03169165236428877</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06836049416263647</v>
+        <v>0.06752156490548109</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01818445206892834</v>
+        <v>0.02698409724877676</v>
       </c>
       <c r="V33" t="n">
-        <v>0.04077494128963014</v>
+        <v>0.0198069711576014</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01086460888927088</v>
+        <v>0.03690110401485283</v>
       </c>
       <c r="X33" t="n">
-        <v>0.07585227266468483</v>
+        <v>0.0484415920512245</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.06973976370264738</v>
+        <v>0.009921773653856391</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02927046942312912</v>
+        <v>0.06764286928395967</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.02915867980458206</v>
+        <v>0.009385194003487704</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.004264208141916912</v>
+        <v>0.000147143205007457</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01129297821163326</v>
+        <v>0.001463491689056809</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.002137524935668877</v>
+        <v>0.06388666204743106</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.02352889266383217</v>
+        <v>0.0619508983927698</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.07649004001961823</v>
+        <v>0.06923362003489282</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.04904836581433933</v>
+        <v>0.01771469410478605</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.03660277493551038</v>
+        <v>0.0464323190562861</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.180732636879781</v>
+        <v>0.1466442099582101</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06205417551775479</v>
+        <v>0.03532905513301298</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0001629337090938128</v>
+        <v>0.01696630132571291</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03782821394417089</v>
+        <v>0.07360630175890442</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03010929519880189</v>
+        <v>0.03038894843504176</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05877381026032723</v>
+        <v>0.03394655882679004</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01241586951069399</v>
+        <v>0.04338329365851175</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03743883592873078</v>
+        <v>0.02980175539009573</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06502853125521538</v>
+        <v>0.06276178116779708</v>
       </c>
       <c r="N34" t="n">
-        <v>0.003275639257935632</v>
+        <v>0.004104215194175002</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01673174107938781</v>
+        <v>0.006797784966213092</v>
       </c>
       <c r="P34" t="n">
-        <v>0.02151163573671853</v>
+        <v>0.07361916104825651</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0001154844251673756</v>
+        <v>0.001170832159366611</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0547088905479397</v>
+        <v>0.009032559137570695</v>
       </c>
       <c r="S34" t="n">
-        <v>0.05733840255669458</v>
+        <v>0.01473313946556934</v>
       </c>
       <c r="T34" t="n">
-        <v>0.06482366394811248</v>
+        <v>0.08367549192987921</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03963335560843516</v>
+        <v>0.04068594108800288</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0437295239538095</v>
+        <v>0.04953805408645791</v>
       </c>
       <c r="W34" t="n">
-        <v>0.03853982573317206</v>
+        <v>0.02051093655487249</v>
       </c>
       <c r="X34" t="n">
-        <v>0.04701527562538189</v>
+        <v>0.02089806184745499</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.06246252066266324</v>
+        <v>0.0850101143877883</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0305416793827528</v>
+        <v>0.03323110836317323</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.04496533182179254</v>
+        <v>0.00908736738665648</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.009004322350779767</v>
+        <v>0.00696743983724351</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05049094212967598</v>
+        <v>0.05193129423735223</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0008277038690559827</v>
+        <v>0.002008919856627201</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.02876285793023044</v>
+        <v>0.06240949122501219</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.03975949196870254</v>
+        <v>0.04150294230872082</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.04195004608680315</v>
+        <v>0.05690114922374041</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.02109922164532953</v>
+        <v>-0.02025180752733568</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2093854814224162</v>
+        <v>0.1886114220843343</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06167203848079392</v>
+        <v>0.07125908711354273</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0316440954521978</v>
+        <v>0.07496605898353768</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01487497075661929</v>
+        <v>0.01092518502226189</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02564428372889711</v>
+        <v>0.07305027004132335</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03867711171340044</v>
+        <v>0.005175722661739027</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06592583439097073</v>
+        <v>0.04706566502736247</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04459208340069645</v>
+        <v>0.03783488413361643</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01106671176091112</v>
+        <v>0.004800894664532787</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02331526657977222</v>
+        <v>0.04416542049055609</v>
       </c>
       <c r="O35" t="n">
-        <v>4.801440322532426e-05</v>
+        <v>0.001176871982504297</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0392285563927867</v>
+        <v>0.0716612934605806</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01059790883441573</v>
+        <v>0.006183004880843525</v>
       </c>
       <c r="R35" t="n">
-        <v>0.002164626262139431</v>
+        <v>0.01607627518354301</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01330653951494973</v>
+        <v>0.0165354432536836</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05344360038825353</v>
+        <v>0.0449096079231632</v>
       </c>
       <c r="U35" t="n">
-        <v>0.008008227865073726</v>
+        <v>0.03186976970692326</v>
       </c>
       <c r="V35" t="n">
-        <v>0.05220759917256081</v>
+        <v>0.05479346328509492</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02035233256258454</v>
+        <v>0.04517726215070642</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02362272426513339</v>
+        <v>0.02304691758294971</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0628126390656996</v>
+        <v>0.04090478608749296</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.07052962624041258</v>
+        <v>0.05708198428775391</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.06069677208379994</v>
+        <v>0.05702263876021064</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02937145441737997</v>
+        <v>0.04287599926301695</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0640846526413108</v>
+        <v>0.02052119062644329</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.01317510417679686</v>
+        <v>3.011907988376804e-05</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.05563576157747626</v>
+        <v>0.02522626053964258</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.05546099037714502</v>
+        <v>0.02378692760660365</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.04784047349459691</v>
+        <v>0.0518769962004874</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.01137090410831401</v>
+        <v>0.01988389647123248</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1021028761267563</v>
+        <v>0.1031326951441188</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05866754093322125</v>
+        <v>0.03080123417090684</v>
       </c>
       <c r="G36" t="n">
-        <v>0.003993317241438495</v>
+        <v>0.0005949758012449178</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06082616144118114</v>
+        <v>0.01818216919399753</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04808759264127957</v>
+        <v>0.05150696928997667</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06745333629712871</v>
+        <v>0.06905205764430535</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00268513924745298</v>
+        <v>0.003129587876827857</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05428927494181614</v>
+        <v>0.04837116989679598</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05514108834908555</v>
+        <v>0.001796029542982202</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05496259197809794</v>
+        <v>0.05526652119165199</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03703279690081812</v>
+        <v>0.07655742000483137</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03866999918020954</v>
+        <v>0.02088210401506496</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02061814063407713</v>
+        <v>0.003890265331052155</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01367332098330097</v>
+        <v>0.04806835318599979</v>
       </c>
       <c r="S36" t="n">
-        <v>0.03599908243075264</v>
+        <v>0.0171365806770856</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01092063227922587</v>
+        <v>0.03112558547653605</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05119144102820018</v>
+        <v>0.02493241763830762</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03484469281974005</v>
+        <v>0.007801275260179794</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05399854598584956</v>
+        <v>0.05981385602393494</v>
       </c>
       <c r="X36" t="n">
-        <v>0.004109339949570131</v>
+        <v>0.01781817406681938</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.05705720529437955</v>
+        <v>0.07192312202205406</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.005268026423945566</v>
+        <v>0.03393093655073622</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.01098892617125383</v>
+        <v>0.003199410890676106</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.05300142249867409</v>
+        <v>0.07234224458706599</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.05534404996585509</v>
+        <v>0.06638622615558676</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.02633159787935733</v>
+        <v>0.03998609524376542</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0184723789892114</v>
+        <v>0.06223997822678796</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.01739355087893512</v>
+        <v>0.03321741637818407</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.04897880663594215</v>
+        <v>0.03004782365664243</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.02829541807956204</v>
+        <v>-0.02555369010917101</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2463533870546106</v>
+        <v>0.317702988788809</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05825276873004678</v>
+        <v>0.0006815766107005825</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00212074174536324</v>
+        <v>0.01137549299145905</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01780000007500341</v>
+        <v>0.03468169584075433</v>
       </c>
       <c r="I37" t="n">
-        <v>0.005276602360609682</v>
+        <v>0.01661196655388301</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01475241418327426</v>
+        <v>0.02288708308761584</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0623905078657994</v>
+        <v>0.0844783296703024</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02336374340805016</v>
+        <v>0.02034421682523236</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01979377224991198</v>
+        <v>0.04806958885031933</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03277741576292778</v>
+        <v>0.01273798807467612</v>
       </c>
       <c r="O37" t="n">
-        <v>0.04898045788127215</v>
+        <v>0.07143686719905545</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01650298638723551</v>
+        <v>0.05761428710625917</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.06789363134927676</v>
+        <v>0.03536202307044855</v>
       </c>
       <c r="R37" t="n">
-        <v>0.05628325671658652</v>
+        <v>0.02395922839781251</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06841537726189044</v>
+        <v>0.07190474525143789</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02038722107755112</v>
+        <v>0.04369272999285458</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03592718774866223</v>
+        <v>0.02318429230694919</v>
       </c>
       <c r="V37" t="n">
-        <v>0.06019590787535591</v>
+        <v>0.009692222609323014</v>
       </c>
       <c r="W37" t="n">
-        <v>0.04803641531325747</v>
+        <v>0.08571780147624289</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02643371229307469</v>
+        <v>0.005712788031978683</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02666235071522038</v>
+        <v>0.06615582730909633</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01089464048758725</v>
+        <v>0.04820977896213269</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.005263437380427716</v>
+        <v>0.003714984117471488</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.06134018991249111</v>
+        <v>0.04086035448099452</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.001874023627835249</v>
+        <v>0.01568913300164115</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.07431628659126155</v>
+        <v>0.0507012361310113</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.03447974260144143</v>
+        <v>0.01169212813374733</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.07428431716003098</v>
+        <v>0.05803713088348299</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.02530089123855473</v>
+        <v>0.02479450303311708</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.01270125205015776</v>
+        <v>0.0205369198669224</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1245089081588468</v>
+        <v>0.1228369887757229</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01622450564785985</v>
+        <v>0.03882374074657592</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02503617019748844</v>
+        <v>0.006063331688749479</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04840504246330483</v>
+        <v>0.03118531933953467</v>
       </c>
       <c r="I38" t="n">
-        <v>0.017285621044083</v>
+        <v>0.06942586247729043</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01026972236834073</v>
+        <v>0.0669391331008759</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0631986875645601</v>
+        <v>0.004454516861624127</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0226381387243633</v>
+        <v>0.02757938256815989</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02279699210994031</v>
+        <v>0.04787424118707814</v>
       </c>
       <c r="N38" t="n">
-        <v>0.02311154685023396</v>
+        <v>0.04821059540498046</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01765512268929771</v>
+        <v>0.02120026046217759</v>
       </c>
       <c r="P38" t="n">
-        <v>0.002683540558226522</v>
+        <v>0.002378632171120108</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02222270441829283</v>
+        <v>0.02768175343905255</v>
       </c>
       <c r="R38" t="n">
-        <v>0.02683794636564115</v>
+        <v>0.02568686584511713</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0380732593372782</v>
+        <v>0.007257184178290313</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06214395390219992</v>
+        <v>0.03832045634722903</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03318903380585427</v>
+        <v>0.009470226082419294</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0625148381524504</v>
+        <v>0.05800537681994272</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0582052209001303</v>
+        <v>0.02683454010287228</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01389292398654786</v>
+        <v>0.012407824696133</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.06286240536773058</v>
+        <v>0.01210646246672258</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01434706711173444</v>
+        <v>0.01162540777198722</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.02915616140133612</v>
+        <v>0.06672070716704696</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.05617779369511585</v>
+        <v>0.06060704152706452</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.03185391757473235</v>
+        <v>0.06830217151619679</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0476103575352284</v>
+        <v>0.03769887795469067</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.06574988332969628</v>
+        <v>0.07333002839525579</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.06741504352453837</v>
+        <v>0.03547306199565221</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.03844239937379412</v>
+        <v>0.06433699768616027</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05703496082512083</v>
+        <v>0.05535684376067237</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1585735712059229</v>
+        <v>0.2105094427400955</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04255101487310982</v>
+        <v>0.0003776532788859722</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01908147175276199</v>
+        <v>0.06210503804389861</v>
       </c>
       <c r="H39" t="n">
-        <v>0.002055485642478999</v>
+        <v>0.007396581970858286</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09311915949279553</v>
+        <v>0.07396168913311534</v>
       </c>
       <c r="J39" t="n">
-        <v>0.02891878131595662</v>
+        <v>0.07298797500731517</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04899340941204108</v>
+        <v>0.06243599237009506</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04526162263426976</v>
+        <v>0.01986641238861105</v>
       </c>
       <c r="M39" t="n">
-        <v>0.004062616940533328</v>
+        <v>0.01860242965785516</v>
       </c>
       <c r="N39" t="n">
-        <v>0.08015309864074846</v>
+        <v>0.05045196194425235</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0366778279217656</v>
+        <v>0.006765014235760547</v>
       </c>
       <c r="P39" t="n">
-        <v>0.006956151018747866</v>
+        <v>0.01657231314692311</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03923358666916961</v>
+        <v>0.04899566571724934</v>
       </c>
       <c r="R39" t="n">
-        <v>0.005069515913168308</v>
+        <v>0.01032739251173364</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01604464836235296</v>
+        <v>0.01617894384374113</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01656772127500407</v>
+        <v>0.03004130743721636</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03038104812279473</v>
+        <v>0.004066232431647609</v>
       </c>
       <c r="V39" t="n">
-        <v>0.03332446020712678</v>
+        <v>0.05516031430585532</v>
       </c>
       <c r="W39" t="n">
-        <v>0.08594866209727915</v>
+        <v>0.07837910986162699</v>
       </c>
       <c r="X39" t="n">
-        <v>0.04134474494108947</v>
+        <v>0.0005182040697040169</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.03722894916265015</v>
+        <v>0.01878981483456534</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.02622122549385149</v>
+        <v>0.03386737648054254</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.002130833122022395</v>
+        <v>0.07694129804128626</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01977380111180376</v>
+        <v>0.0341646011653392</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.01851675999965093</v>
+        <v>0.03726084542196858</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.09764960554864523</v>
+        <v>0.06397985012966409</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.05911023745164019</v>
+        <v>0.05819185230010284</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.06219842038655395</v>
+        <v>0.0373518793357055</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.001425140489987849</v>
+        <v>0.004262250934480562</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.04114355873520888</v>
+        <v>0.04326744393488412</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1355918129470452</v>
+        <v>0.1338331372622679</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0433764956963816</v>
+        <v>0.07940695332123054</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004232696725591515</v>
+        <v>0.05910028139961775</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002201698738402454</v>
+        <v>0.001039365232598871</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03238549108406382</v>
+        <v>0.008812998519725692</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0001127404167283404</v>
+        <v>0.007591814224300423</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04607144949728534</v>
+        <v>0.01409380043375136</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04668621558382786</v>
+        <v>0.05301854217730136</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05920142882081478</v>
+        <v>0.0005702363424003304</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0720730706724854</v>
+        <v>0.08517608172339662</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0006715575539759877</v>
+        <v>0.01949153926392208</v>
       </c>
       <c r="P40" t="n">
-        <v>0.05562432093287134</v>
+        <v>0.03841639133363606</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.001630306787328817</v>
+        <v>0.01483929085240767</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02465340851249015</v>
+        <v>0.07441409079043006</v>
       </c>
       <c r="S40" t="n">
-        <v>0.07273255250799694</v>
+        <v>0.0238300566675881</v>
       </c>
       <c r="T40" t="n">
-        <v>0.003845439426186068</v>
+        <v>0.003691786505748642</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0386892236812872</v>
+        <v>0.05023927092770736</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05625879083411367</v>
+        <v>0.07513954926646522</v>
       </c>
       <c r="W40" t="n">
-        <v>0.007035603505575627</v>
+        <v>0.02703496720893039</v>
       </c>
       <c r="X40" t="n">
-        <v>0.05141972247197563</v>
+        <v>0.002157669976320933</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02743176421671786</v>
+        <v>0.05579492791424008</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.04033926540667981</v>
+        <v>0.0004408088041394743</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.04425906764240418</v>
+        <v>0.05654031010300142</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.04019647023031716</v>
+        <v>0.05069066079311657</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.06150704134112655</v>
+        <v>0.02609621635906925</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.01666847803008492</v>
+        <v>0.002204665561829487</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.03924847439451409</v>
+        <v>0.04813913830601196</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.03937343105911047</v>
+        <v>0.03856298144367765</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.07207379422966237</v>
+        <v>0.08346560454743458</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.04414271094334815</v>
+        <v>0.04076673964112752</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1979773549289936</v>
+        <v>0.186230407949788</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01062707608204768</v>
+        <v>0.03631070292134865</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03314783188577083</v>
+        <v>0.009520813712255119</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01528826425411958</v>
+        <v>0.009451866028737065</v>
       </c>
       <c r="I41" t="n">
-        <v>0.001356737465335442</v>
+        <v>0.08042288244480165</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03090355208897076</v>
+        <v>0.006432536996029649</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1027035531050754</v>
+        <v>0.07618427420226136</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04409329927352363</v>
+        <v>0.05454351534963352</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0129136632369507</v>
+        <v>0.05189107027170767</v>
       </c>
       <c r="N41" t="n">
-        <v>0.07038112546280326</v>
+        <v>0.01827936783718754</v>
       </c>
       <c r="O41" t="n">
-        <v>0.001705475107960387</v>
+        <v>0.008509015496518928</v>
       </c>
       <c r="P41" t="n">
-        <v>0.02349526293571219</v>
+        <v>0.03786650969833848</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.002211377959847371</v>
+        <v>0.07335704847247572</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01495790088242291</v>
+        <v>0.001026019925025061</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01382192847170617</v>
+        <v>0.01929516580278126</v>
       </c>
       <c r="T41" t="n">
-        <v>0.02733190740482835</v>
+        <v>0.02000883702878507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04375958989931808</v>
+        <v>0.04377145605339872</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01954231759465843</v>
+        <v>0.03994748303962983</v>
       </c>
       <c r="W41" t="n">
-        <v>0.09688758331401259</v>
+        <v>0.06667414266569817</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01446317214395574</v>
+        <v>0.05788562570559062</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.03239862444967738</v>
+        <v>0.01179533391401262</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.07779833116432115</v>
+        <v>0.03705774129960741</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.08199397407141101</v>
+        <v>0.05344444398933822</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01561464564779966</v>
+        <v>0.001186452353102364</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.05302063815990816</v>
+        <v>0.01064169674819897</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.04445866577939281</v>
+        <v>0.08040401765182599</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.05746529457640984</v>
+        <v>0.005488916890098965</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.04605605464859373</v>
+        <v>0.07903480885001883</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.01160215293346663</v>
+        <v>0.009568254651592584</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.03089307980602505</v>
+        <v>0.05433945555651873</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1294126039593819</v>
+        <v>0.131884691060987</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05690476035372175</v>
+        <v>0.01402280674693704</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00765862848918291</v>
+        <v>0.005012559745358369</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01182244255582494</v>
+        <v>0.06451702790330789</v>
       </c>
       <c r="I42" t="n">
-        <v>0.005988700634009719</v>
+        <v>0.0512333201729122</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01053997620074531</v>
+        <v>0.001911361874799286</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01936581159484085</v>
+        <v>0.06770258888407424</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04692912280594753</v>
+        <v>0.06620186295532778</v>
       </c>
       <c r="M42" t="n">
-        <v>0.000913341946629403</v>
+        <v>0.00162372265334202</v>
       </c>
       <c r="N42" t="n">
-        <v>0.06438356080230584</v>
+        <v>0.060182861975683</v>
       </c>
       <c r="O42" t="n">
-        <v>0.004212214669453458</v>
+        <v>0.01665666318921091</v>
       </c>
       <c r="P42" t="n">
-        <v>0.04263420607689236</v>
+        <v>0.04517206877708915</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07017320197644208</v>
+        <v>0.02320882159536729</v>
       </c>
       <c r="R42" t="n">
-        <v>0.02560668482408719</v>
+        <v>0.05905891174841211</v>
       </c>
       <c r="S42" t="n">
-        <v>0.007578374371771219</v>
+        <v>0.07015647112538963</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02580055140514873</v>
+        <v>0.007477147332416305</v>
       </c>
       <c r="U42" t="n">
-        <v>0.002935770837015872</v>
+        <v>0.0008234738500448932</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01482044193509083</v>
+        <v>0.0224434062534793</v>
       </c>
       <c r="W42" t="n">
-        <v>0.05412464363973148</v>
+        <v>0.04941294256838914</v>
       </c>
       <c r="X42" t="n">
-        <v>0.06450488637686351</v>
+        <v>0.01021966350343989</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.02221465735077132</v>
+        <v>0.01597066633250021</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.01064009940908997</v>
+        <v>0.01462754958975133</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.06829936067629182</v>
+        <v>0.07074790607594694</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0396735877815923</v>
+        <v>0.06179873843270783</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.07124013277718896</v>
+        <v>0.06920679270812419</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.06206008891385163</v>
+        <v>0.02387655273668271</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.06721103720655121</v>
+        <v>0.04256459915817439</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.06657621546493882</v>
+        <v>0.02121807975923498</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.05518749892401897</v>
+        <v>0.04295143235189696</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.07510223934123975</v>
+        <v>0.06634613467839395</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.7176475190697575</v>
+        <v>0.6124395827814014</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03641632768519414</v>
+        <v>0.07817489346742545</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02900707327086543</v>
+        <v>0.05359409757976138</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02667922134136129</v>
+        <v>0.01494099136621457</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02899084563478193</v>
+        <v>0.0136917438257655</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02013211328655717</v>
+        <v>0.0007753619407180541</v>
       </c>
       <c r="K43" t="n">
-        <v>0.002161461489767665</v>
+        <v>0.03461271377029614</v>
       </c>
       <c r="L43" t="n">
-        <v>0.001053908433611301</v>
+        <v>0.04485613481247662</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09136473436710942</v>
+        <v>0.08023823786608017</v>
       </c>
       <c r="N43" t="n">
-        <v>0.04779084514026885</v>
+        <v>0.02529532286903926</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01476131002124654</v>
+        <v>0.0106718676879332</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01060040708998385</v>
+        <v>0.0004564151504976619</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01938333163335005</v>
+        <v>0.06859851296550395</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03946568022817432</v>
+        <v>0.01669895274153925</v>
       </c>
       <c r="S43" t="n">
-        <v>0.05185884663029597</v>
+        <v>0.02826310090001664</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0736459585651149</v>
+        <v>0.08343202654638253</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0055928849135025</v>
+        <v>0.0003507914750419318</v>
       </c>
       <c r="V43" t="n">
-        <v>0.05065219199807401</v>
+        <v>0.007094849269060659</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02478347132340815</v>
+        <v>0.08979420887834454</v>
       </c>
       <c r="X43" t="n">
-        <v>0.07203254367618153</v>
+        <v>0.0763961340310495</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.05972804394324897</v>
+        <v>0.04512784150535281</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0218580571821574</v>
+        <v>0.01504338038062665</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.018544250660739</v>
+        <v>0.01784348116795225</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02429064309360384</v>
+        <v>0.01518998006929392</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0285256197631211</v>
+        <v>0.01424352368332245</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.04641554384225597</v>
+        <v>0.07281823806282482</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0205833040042032</v>
+        <v>0.02024866831323824</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.07686467892607306</v>
+        <v>0.03732761885339223</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.05681670185574863</v>
+        <v>0.03422091082084954</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.05356921221568413</v>
+        <v>0.09292681442687158</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.129598535923447</v>
+        <v>0.1274697072041425</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05059891905825403</v>
+        <v>0.00886552558654421</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05136546437645848</v>
+        <v>0.06002570370155409</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07328706855235975</v>
+        <v>0.02876735406314308</v>
       </c>
       <c r="I44" t="n">
-        <v>0.005077851861881357</v>
+        <v>0.002051080266579905</v>
       </c>
       <c r="J44" t="n">
-        <v>0.003053944246454758</v>
+        <v>0.0004133830023442447</v>
       </c>
       <c r="K44" t="n">
-        <v>0.006588533752665177</v>
+        <v>0.002647312449718259</v>
       </c>
       <c r="L44" t="n">
-        <v>0.015522345394852</v>
+        <v>0.01270298141596331</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06207429713763</v>
+        <v>0.007539572879756767</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01087334967673505</v>
+        <v>0.007644386135656427</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05562853064591599</v>
+        <v>0.07142597058126753</v>
       </c>
       <c r="P44" t="n">
-        <v>0.06614957698389216</v>
+        <v>0.03154600672296384</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0005665714955020505</v>
+        <v>0.007787344227678007</v>
       </c>
       <c r="R44" t="n">
-        <v>0.04560970842289936</v>
+        <v>0.06126912444872266</v>
       </c>
       <c r="S44" t="n">
-        <v>0.07311362289498712</v>
+        <v>0.06905293676141697</v>
       </c>
       <c r="T44" t="n">
-        <v>0.02459886559709667</v>
+        <v>0.05742600937119473</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07697447976191012</v>
+        <v>0.06999430389226464</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01402808906577517</v>
+        <v>0.06403971046848279</v>
       </c>
       <c r="W44" t="n">
-        <v>0.02781627287135718</v>
+        <v>0.07062055261087474</v>
       </c>
       <c r="X44" t="n">
-        <v>0.02814815413565329</v>
+        <v>0.04167950415844614</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01173516569453738</v>
+        <v>0.02577219070461392</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.008156528364601115</v>
+        <v>0.01042369431540854</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.02191877390419153</v>
+        <v>0.06242280060484884</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.05605737053456746</v>
+        <v>0.0488300729472246</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.001734802621189872</v>
+        <v>0.002037569629913335</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.02096406831004828</v>
+        <v>0.0363876698287608</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.05508120440991802</v>
+        <v>0.05246059314423354</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.06609764053403656</v>
+        <v>0.0150766873166173</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.06717879969463017</v>
+        <v>0.07108995876380698</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1299170074490603</v>
+        <v>0.1144092726927911</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.3892350829148716</v>
+        <v>0.5615221287532194</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0003633783429090315</v>
+        <v>0.07655022326565218</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03120708211236784</v>
+        <v>0.03086074885612919</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04820906682349146</v>
+        <v>0.06316710154372596</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04348221585692922</v>
+        <v>0.05305826086850388</v>
       </c>
       <c r="J45" t="n">
-        <v>4.520798731980632e-05</v>
+        <v>2.514715929977468e-05</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05684394492212157</v>
+        <v>0.0008454577815175524</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02250190725940408</v>
+        <v>0.006063346244378999</v>
       </c>
       <c r="M45" t="n">
-        <v>0.005158571523604387</v>
+        <v>0.002366713299479125</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03853582661857264</v>
+        <v>0.05013623859573967</v>
       </c>
       <c r="O45" t="n">
-        <v>0.05381109775905486</v>
+        <v>0.002450232431636147</v>
       </c>
       <c r="P45" t="n">
-        <v>0.05878803455866966</v>
+        <v>0.02399701086539933</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.001582903658246732</v>
+        <v>0.03639355134865437</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05293136050360401</v>
+        <v>0.07434583763973074</v>
       </c>
       <c r="S45" t="n">
-        <v>0.06347881833062288</v>
+        <v>0.01007226537248138</v>
       </c>
       <c r="T45" t="n">
-        <v>0.05797556956377617</v>
+        <v>0.07816777224103194</v>
       </c>
       <c r="U45" t="n">
-        <v>6.038044900601878e-05</v>
+        <v>0.05291675335220717</v>
       </c>
       <c r="V45" t="n">
-        <v>0.003096516626817377</v>
+        <v>0.06731830386308559</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01052954148507417</v>
+        <v>0.01902927640030257</v>
       </c>
       <c r="X45" t="n">
-        <v>0.03231747859475924</v>
+        <v>0.04506473285321585</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.06665411979599037</v>
+        <v>0.01668724070374801</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.03614304715371916</v>
+        <v>0.0416491734391328</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.02919032333620418</v>
+        <v>0.06402481131863463</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.04144417225674731</v>
+        <v>0.01023319933469677</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.05972864412572842</v>
+        <v>0.08095347069864761</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.04411539749597888</v>
+        <v>0.03128828076859613</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.05702640360763241</v>
+        <v>0.05032575314513698</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.06813002884540155</v>
+        <v>0.003113182832074078</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.01664896040624658</v>
+        <v>0.008895913777161661</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1092967788850796</v>
+        <v>0.1108731411732484</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1648751383191065</v>
+        <v>0.1539244246962206</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06556064779445929</v>
+        <v>0.003208103083019809</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01334713733896125</v>
+        <v>0.05368084351004206</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03968188630336057</v>
+        <v>0.0361689596248674</v>
       </c>
       <c r="I46" t="n">
-        <v>0.006897626338480372</v>
+        <v>0.001565061827458739</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01915989352808164</v>
+        <v>0.04008874867657156</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03315672318412027</v>
+        <v>0.07231058789340852</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01608872474090117</v>
+        <v>0.001050531898999334</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05513809303055936</v>
+        <v>0.006105084936722537</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05063719919571749</v>
+        <v>0.04795922628079868</v>
       </c>
       <c r="O46" t="n">
-        <v>0.04452061959901885</v>
+        <v>0.02106650535132971</v>
       </c>
       <c r="P46" t="n">
-        <v>0.04073283082990064</v>
+        <v>0.05523273511347111</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01215049939470306</v>
+        <v>0.01938306219184526</v>
       </c>
       <c r="R46" t="n">
-        <v>0.06815499676095355</v>
+        <v>0.03949099250308417</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05631804890932094</v>
+        <v>0.06931790273277112</v>
       </c>
       <c r="T46" t="n">
-        <v>0.002113428887233921</v>
+        <v>0.03589819129979942</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02261529140706318</v>
+        <v>0.03273145244735715</v>
       </c>
       <c r="V46" t="n">
-        <v>0.02414202547334685</v>
+        <v>0.05926401066829989</v>
       </c>
       <c r="W46" t="n">
-        <v>0.04888405487154175</v>
+        <v>0.04408297367585286</v>
       </c>
       <c r="X46" t="n">
-        <v>0.06648140734904222</v>
+        <v>0.0470463121709023</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05876876787877659</v>
+        <v>0.02318851073120258</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.002241702785693765</v>
+        <v>0.008467099915907756</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06576497384947796</v>
+        <v>0.06317293579253122</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.05385784745005715</v>
+        <v>0.03418509582663809</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.02304405220492325</v>
+        <v>0.03096943782200855</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.004867898663250749</v>
+        <v>0.002978822219819071</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.0394836930413685</v>
+        <v>0.04610575715849397</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.04647022799907025</v>
+        <v>0.04422152505594194</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.01971970119061534</v>
+        <v>0.06105952959085521</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.02359511887039752</v>
+        <v>-0.02175927634208649</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.302747382024777</v>
+        <v>0.5847570700339888</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06809068260922854</v>
+        <v>0.0403076572487007</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01785549488487758</v>
+        <v>0.08154355922255034</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05907140512156633</v>
+        <v>0.03911667360561305</v>
       </c>
       <c r="I47" t="n">
-        <v>0.005570007386316159</v>
+        <v>0.01044667168510055</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06481501945699451</v>
+        <v>0.08075096171030384</v>
       </c>
       <c r="K47" t="n">
-        <v>0.04129817476031061</v>
+        <v>0.02956065537470788</v>
       </c>
       <c r="L47" t="n">
-        <v>0.00477856705735416</v>
+        <v>0.01171112157080903</v>
       </c>
       <c r="M47" t="n">
-        <v>0.06984621102097929</v>
+        <v>0.01433660275047096</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02378772163721602</v>
+        <v>0.03544585638066593</v>
       </c>
       <c r="O47" t="n">
-        <v>0.01403550936527048</v>
+        <v>0.07100965665275613</v>
       </c>
       <c r="P47" t="n">
-        <v>0.007667725612642156</v>
+        <v>0.0009104936772873382</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0008019487861683214</v>
+        <v>0.0362897479031231</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05471338532720767</v>
+        <v>0.05288618484828384</v>
       </c>
       <c r="S47" t="n">
-        <v>0.06722450700334287</v>
+        <v>0.05740635128662308</v>
       </c>
       <c r="T47" t="n">
-        <v>0.001954837359260051</v>
+        <v>0.006672953607311355</v>
       </c>
       <c r="U47" t="n">
-        <v>0.05155100636919926</v>
+        <v>0.005188312452425591</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05690891764239333</v>
+        <v>0.02238147616489043</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03956671885703478</v>
+        <v>0.05015567754560657</v>
       </c>
       <c r="X47" t="n">
-        <v>0.06536555104529145</v>
+        <v>0.06524465959670118</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.001127242404636613</v>
+        <v>0.01078563146932313</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.003660487879098686</v>
+        <v>0.01452457968647612</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.01855873876235115</v>
+        <v>0.03836776974336639</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.05992027573845134</v>
+        <v>0.07545305877868175</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0285795267304567</v>
+        <v>0.003555763236782853</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.04154661648971249</v>
+        <v>0.07620877635941666</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0328615863260215</v>
+        <v>0.01456605109182101</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.06666791409437953</v>
+        <v>0.003835177641855782</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0321742202722385</v>
+        <v>0.05133791870834534</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.04102300314842316</v>
+        <v>-0.0323895792508383</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.09978583007705695</v>
+        <v>0.1027145407300094</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03965720099905447</v>
+        <v>0.04753682813015737</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05186628893678027</v>
+        <v>0.00831428951127566</v>
       </c>
       <c r="H48" t="n">
-        <v>0.05349991350867919</v>
+        <v>0.01793276407367021</v>
       </c>
       <c r="I48" t="n">
-        <v>0.005473408205494972</v>
+        <v>0.001161294098176348</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02364735150572015</v>
+        <v>0.03279257816721663</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0003979691548502105</v>
+        <v>0.000920654536736685</v>
       </c>
       <c r="L48" t="n">
-        <v>0.048984455073649</v>
+        <v>0.0511107918167374</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03461028858984038</v>
+        <v>0.03514137536950663</v>
       </c>
       <c r="N48" t="n">
-        <v>0.04126947681585822</v>
+        <v>0.04798455279197384</v>
       </c>
       <c r="O48" t="n">
-        <v>0.04925424167226972</v>
+        <v>0.02685620471274874</v>
       </c>
       <c r="P48" t="n">
-        <v>0.006056902143770479</v>
+        <v>0.03147301812737838</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02834965472426714</v>
+        <v>0.03396092376236579</v>
       </c>
       <c r="R48" t="n">
-        <v>0.07114713451121014</v>
+        <v>0.03345095510842928</v>
       </c>
       <c r="S48" t="n">
-        <v>0.04700524415396068</v>
+        <v>0.0647656492348591</v>
       </c>
       <c r="T48" t="n">
-        <v>0.04629009115685109</v>
+        <v>0.06927542930888406</v>
       </c>
       <c r="U48" t="n">
-        <v>0.05180961871758225</v>
+        <v>0.01393087941042741</v>
       </c>
       <c r="V48" t="n">
-        <v>0.04866712445112211</v>
+        <v>0.03213473367996276</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06740876544883535</v>
+        <v>0.03268856706885704</v>
       </c>
       <c r="X48" t="n">
-        <v>0.01513959705165176</v>
+        <v>0.06501919269244186</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.02603781532479384</v>
+        <v>0.06127735572360212</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.01466676984991046</v>
+        <v>0.03509082941182984</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.005822528242480638</v>
+        <v>0.006325396878064002</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.02002627028688942</v>
+        <v>0.04751578505724533</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.05921496830255542</v>
+        <v>0.03375547900087594</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.01135183799969137</v>
+        <v>0.02770692252806201</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.06292182216208295</v>
+        <v>0.02013410056142197</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.001681452320111273</v>
+        <v>0.05737275997630255</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.06774180869003688</v>
+        <v>0.06437068926079116</v>
       </c>
       <c r="AH48" t="n">
-        <v>-0.01198801810091159</v>
+        <v>0.007486869743684712</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1133320551904806</v>
+        <v>0.1097578261595504</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04978291355993678</v>
+        <v>0.02038851659914217</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07183083044472988</v>
+        <v>0.007820997556750997</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0246798860084896</v>
+        <v>0.08892673425287768</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0212881110638985</v>
+        <v>0.0080891997857114</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03645394904743795</v>
+        <v>0.06502049356372559</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0003825310726195564</v>
+        <v>0.0006432208626957938</v>
       </c>
       <c r="L49" t="n">
-        <v>0.03278684242855743</v>
+        <v>0.08081135664373501</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05005201679031591</v>
+        <v>0.004860300705381746</v>
       </c>
       <c r="N49" t="n">
-        <v>0.06733088722476885</v>
+        <v>0.031138667441343</v>
       </c>
       <c r="O49" t="n">
-        <v>0.002645237460367795</v>
+        <v>0.024141551323013</v>
       </c>
       <c r="P49" t="n">
-        <v>0.003871975526707801</v>
+        <v>0.07199068321274792</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.06125943796760226</v>
+        <v>0.006773698754234616</v>
       </c>
       <c r="R49" t="n">
-        <v>0.001440510592900474</v>
+        <v>0.0147415823867556</v>
       </c>
       <c r="S49" t="n">
-        <v>0.04852783394921174</v>
+        <v>0.03168015803911606</v>
       </c>
       <c r="T49" t="n">
-        <v>0.03159855467328538</v>
+        <v>0.09324225574855222</v>
       </c>
       <c r="U49" t="n">
-        <v>0.07184941774820043</v>
+        <v>0.01503625587912874</v>
       </c>
       <c r="V49" t="n">
-        <v>0.001191590834965983</v>
+        <v>0.002468060757448591</v>
       </c>
       <c r="W49" t="n">
-        <v>0.046095670568768</v>
+        <v>0.08381737485553206</v>
       </c>
       <c r="X49" t="n">
-        <v>0.06898548413617302</v>
+        <v>0.07563972167891299</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0347100980153024</v>
+        <v>0.08910260240779021</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.06099065044311349</v>
+        <v>0.02984057066545573</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.003482247431299915</v>
+        <v>0.01505544815915165</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.004813299599944043</v>
+        <v>0.02005881851669359</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.06877980813900321</v>
+        <v>0.01192268816643287</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.04134091922288112</v>
+        <v>0.0161669619331535</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.07087913591646806</v>
+        <v>0.01255982247159484</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.007246706365371714</v>
+        <v>0.007175930786743336</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.01570345376767873</v>
+        <v>0.07088632684617911</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.001516579061604858</v>
+        <v>0.0151120976631906</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1228160822366805</v>
+        <v>0.1226964928504349</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01954443735015935</v>
+        <v>0.001138092893567888</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06876306954165257</v>
+        <v>0.06151450482751285</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01122533324324288</v>
+        <v>0.06573782397032532</v>
       </c>
       <c r="I50" t="n">
-        <v>0.001626077793104588</v>
+        <v>0.07102884057188998</v>
       </c>
       <c r="J50" t="n">
-        <v>0.04841776731911995</v>
+        <v>0.03202984449669181</v>
       </c>
       <c r="K50" t="n">
-        <v>0.006749563969364743</v>
+        <v>0.03133403060358386</v>
       </c>
       <c r="L50" t="n">
-        <v>0.009411906257668965</v>
+        <v>0.005773725434046965</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03490276875800202</v>
+        <v>0.06741365011960605</v>
       </c>
       <c r="N50" t="n">
-        <v>0.04831374290328971</v>
+        <v>0.05290751350975967</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01525825550745262</v>
+        <v>0.01629634957414092</v>
       </c>
       <c r="P50" t="n">
-        <v>0.03984932295100882</v>
+        <v>0.03593197721904266</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0663946140764915</v>
+        <v>0.004850783550913473</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06340680743527143</v>
+        <v>0.0303501251196705</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01070819940551741</v>
+        <v>0.01420318482945279</v>
       </c>
       <c r="T50" t="n">
-        <v>0.06392199189990272</v>
+        <v>0.07031842834077863</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04088099226953062</v>
+        <v>0.002295421720763364</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05325318119675194</v>
+        <v>0.03581352191274531</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01589073730270667</v>
+        <v>0.004023431594310432</v>
       </c>
       <c r="X50" t="n">
-        <v>0.05068600680814558</v>
+        <v>0.06479890376472087</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0008725253032639923</v>
+        <v>0.00611349128658794</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.0528922265090105</v>
+        <v>0.009399141246589754</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.01907622100042798</v>
+        <v>0.03683292840255954</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.02777451982658189</v>
+        <v>0.05420403364793649</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.04435518691416058</v>
+        <v>0.04626621191959124</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.03774752450770685</v>
+        <v>0.04687887259196208</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.04825012691357898</v>
+        <v>0.01340823334930368</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.06699994323957742</v>
+        <v>0.05568508505055717</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.03282694979730775</v>
+        <v>0.06345184845138876</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1127944626695023</v>
+        <v>0.1044994288770426</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1457901331381299</v>
+        <v>0.1450441884746936</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01780119583891318</v>
+        <v>0.02223963348108816</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02328513116688064</v>
+        <v>0.05795449342965888</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01378154559663892</v>
+        <v>0.01031705218439184</v>
       </c>
       <c r="I51" t="n">
-        <v>0.03139846821675195</v>
+        <v>0.06578758435887026</v>
       </c>
       <c r="J51" t="n">
-        <v>0.001401189785020012</v>
+        <v>0.00368246333489843</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0733724853924804</v>
+        <v>0.05383980518122992</v>
       </c>
       <c r="L51" t="n">
-        <v>0.05733441220360776</v>
+        <v>0.06714356607689223</v>
       </c>
       <c r="M51" t="n">
-        <v>0.08730964459814376</v>
+        <v>0.0507009191766247</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04545729603052632</v>
+        <v>0.057447030136603</v>
       </c>
       <c r="O51" t="n">
-        <v>0.003800390460479678</v>
+        <v>0.007103237971751239</v>
       </c>
       <c r="P51" t="n">
-        <v>0.03868661546503523</v>
+        <v>0.01590951096144219</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.07659379718837819</v>
+        <v>0.06855137606957717</v>
       </c>
       <c r="R51" t="n">
-        <v>0.009266282166517054</v>
+        <v>0.0176949015718094</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01740328234462512</v>
+        <v>0.02058005421341487</v>
       </c>
       <c r="T51" t="n">
-        <v>0.001711036366787232</v>
+        <v>0.04605314005049315</v>
       </c>
       <c r="U51" t="n">
-        <v>0.02297939229685274</v>
+        <v>0.0343607028156209</v>
       </c>
       <c r="V51" t="n">
-        <v>0.08765655296411043</v>
+        <v>0.02120934782082547</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08658274061180293</v>
+        <v>0.06814918155365707</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01327041185225352</v>
+        <v>0.005769983874914602</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.004833314442457764</v>
+        <v>0.01529302514504079</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.02316901718087394</v>
+        <v>0.02377610076783691</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0787063404835938</v>
+        <v>0.05149400964173789</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.03142579958666603</v>
+        <v>0.05043355586104478</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.04748657852793275</v>
+        <v>0.028408560565989</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.001551856282459182</v>
+        <v>0.02593246183439172</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.05254593445366618</v>
+        <v>0.03075831779686702</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.04669417883747803</v>
+        <v>0.02184261573262752</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.004495109659067273</v>
+        <v>0.05756736839070094</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1411109434183725</v>
+        <v>0.1450170064201344</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1299733812574888</v>
+        <v>0.1294624564441401</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0308670646829757</v>
+        <v>0.04590579916618592</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05546717228191088</v>
+        <v>0.03050430031583445</v>
       </c>
       <c r="H52" t="n">
-        <v>0.008635834930122266</v>
+        <v>0.04869482177979273</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03343359056599613</v>
+        <v>0.05921178048101312</v>
       </c>
       <c r="J52" t="n">
-        <v>0.03354793687850694</v>
+        <v>0.0008957625310964166</v>
       </c>
       <c r="K52" t="n">
-        <v>0.009035896017052458</v>
+        <v>0.003487954546747424</v>
       </c>
       <c r="L52" t="n">
-        <v>0.03019196888659895</v>
+        <v>0.01681569025070438</v>
       </c>
       <c r="M52" t="n">
-        <v>0.07028883255977579</v>
+        <v>0.08036069236524906</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01048477846366226</v>
+        <v>0.01091557363948191</v>
       </c>
       <c r="O52" t="n">
-        <v>0.06058910049659987</v>
+        <v>0.02286699802703463</v>
       </c>
       <c r="P52" t="n">
-        <v>0.02474071033812801</v>
+        <v>0.0551850877327671</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.06636327306030855</v>
+        <v>0.05264862402379093</v>
       </c>
       <c r="R52" t="n">
-        <v>0.06619628039004202</v>
+        <v>0.02818695371501334</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06388392442927261</v>
+        <v>0.01695701826204916</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06784375453009758</v>
+        <v>0.06525057932116451</v>
       </c>
       <c r="U52" t="n">
-        <v>0.04255043852489668</v>
+        <v>0.01266806517520949</v>
       </c>
       <c r="V52" t="n">
-        <v>0.008944360414673539</v>
+        <v>0.06884905413349542</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06844065398774722</v>
+        <v>0.0844010865077334</v>
       </c>
       <c r="X52" t="n">
-        <v>0.02047264788701107</v>
+        <v>0.03782461047119168</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.04691328495599332</v>
+        <v>0.019782619886048</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01945442305005949</v>
+        <v>7.05602883064423e-06</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.008815383553704564</v>
+        <v>0.02394286129107099</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.001719873106522471</v>
+        <v>0.01447990630594276</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0006166749870583658</v>
+        <v>0.0005324648595070729</v>
       </c>
       <c r="AD52" t="n">
-        <v>3.724975701075868e-05</v>
+        <v>0.05825364829807643</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.06512359232147606</v>
+        <v>0.06782910375640526</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.04039366314147758</v>
+        <v>0.004546008556284473</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.0449476358013188</v>
+        <v>0.06899587857227937</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.06742631409911787</v>
+        <v>0.05843761413692239</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.6852056587496795</v>
+        <v>0.726224699059562</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003356985386945926</v>
+        <v>0.0003214877492261876</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02813799304055904</v>
+        <v>0.03341791431108172</v>
       </c>
       <c r="H53" t="n">
-        <v>0.08303921516772017</v>
+        <v>0.008025403385777046</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02927555568804532</v>
+        <v>0.01630705267346434</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01869820466483302</v>
+        <v>0.02380590837124868</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01802185426226822</v>
+        <v>0.06102192292476073</v>
       </c>
       <c r="L53" t="n">
-        <v>0.04528392161611467</v>
+        <v>0.009440964638263157</v>
       </c>
       <c r="M53" t="n">
-        <v>0.03369038210812406</v>
+        <v>0.09633800338649383</v>
       </c>
       <c r="N53" t="n">
-        <v>0.001634748372303145</v>
+        <v>0.05381647372877647</v>
       </c>
       <c r="O53" t="n">
-        <v>0.09002931577994634</v>
+        <v>0.02848611698230733</v>
       </c>
       <c r="P53" t="n">
-        <v>0.03857519166766969</v>
+        <v>0.06671381679884202</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.04903982338897636</v>
+        <v>0.01469396482936098</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01434656793515491</v>
+        <v>0.01400537146239672</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04174007097980974</v>
+        <v>0.04008331407056295</v>
       </c>
       <c r="T53" t="n">
-        <v>0.01207693244642162</v>
+        <v>0.01832713902048305</v>
       </c>
       <c r="U53" t="n">
-        <v>0.0003016465238176232</v>
+        <v>0.06309296010596481</v>
       </c>
       <c r="V53" t="n">
-        <v>0.05102747409566396</v>
+        <v>0.02858062248777752</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0119728293951465</v>
+        <v>0.04314737104302931</v>
       </c>
       <c r="X53" t="n">
-        <v>0.007872429104609082</v>
+        <v>0.03636737164802543</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.09203345808611019</v>
+        <v>0.03798998738363999</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.03668005015790354</v>
+        <v>0.02930122198458119</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.004911344412297387</v>
+        <v>0.0345198918189343</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.04266213164602063</v>
+        <v>0.04824004072881147</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0897992596172473</v>
+        <v>0.09528162804894594</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.05846647120228575</v>
+        <v>0.002230487856342656</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.006061521500908293</v>
+        <v>0.01175010644644832</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.0132711982003168</v>
+        <v>0.01416387699986559</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.07799342355278072</v>
+        <v>0.07052957911458828</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.05159367561988671</v>
+        <v>0.05369555616323525</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1558298856826834</v>
+        <v>0.1568099646136471</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0009062070477141555</v>
+        <v>0.01830658156894624</v>
       </c>
       <c r="G54" t="n">
-        <v>0.006905085185365888</v>
+        <v>0.02150886279826261</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06705223559890339</v>
+        <v>0.03840730857705008</v>
       </c>
       <c r="I54" t="n">
-        <v>0.005225025773483069</v>
+        <v>0.004574921425007027</v>
       </c>
       <c r="J54" t="n">
-        <v>0.05962621631923182</v>
+        <v>0.04704682258290808</v>
       </c>
       <c r="K54" t="n">
-        <v>0.07436975965494481</v>
+        <v>0.05179631256153228</v>
       </c>
       <c r="L54" t="n">
-        <v>0.02300237901993217</v>
+        <v>0.005497687156819174</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02844070054727866</v>
+        <v>0.02515738139360617</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0223939482848849</v>
+        <v>0.006827429763363151</v>
       </c>
       <c r="O54" t="n">
-        <v>0.04533364120901926</v>
+        <v>0.05766047313772544</v>
       </c>
       <c r="P54" t="n">
-        <v>0.07767682638060136</v>
+        <v>0.06417826277563227</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.03230257301812791</v>
+        <v>0.05597977634899321</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06926603400324574</v>
+        <v>0.06669499654280552</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03346700700994009</v>
+        <v>0.04226040390101066</v>
       </c>
       <c r="T54" t="n">
-        <v>0.02143131161649777</v>
+        <v>0.06272086404663453</v>
       </c>
       <c r="U54" t="n">
-        <v>0.01526923957870255</v>
+        <v>0.03237923134292088</v>
       </c>
       <c r="V54" t="n">
-        <v>0.07479767916185483</v>
+        <v>0.04825446196196484</v>
       </c>
       <c r="W54" t="n">
-        <v>0.04358991637930174</v>
+        <v>0.0576499861790514</v>
       </c>
       <c r="X54" t="n">
-        <v>0.02111023454112994</v>
+        <v>0.002799326353411858</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07261181974640239</v>
+        <v>0.06089330210575317</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.003058577526587183</v>
+        <v>0.003395280453316127</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.007164836931997444</v>
+        <v>0.001635731890820597</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.05663687815361827</v>
+        <v>0.008346080470249763</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.01690539872030706</v>
+        <v>0.001854862568694771</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.009516689218753109</v>
+        <v>0.08157959611194365</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.04747425098910733</v>
+        <v>0.07973149463147762</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.04068832230267697</v>
+        <v>0.03197574039638869</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.02377720608039019</v>
+        <v>0.02088682095370995</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1204400240206013</v>
+        <v>-0.10547504743728</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1891688568942031</v>
+        <v>0.2444313162497613</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05220935815765448</v>
+        <v>0.07521432319540532</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0324955057582588</v>
+        <v>0.05259271418266359</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02931973285741151</v>
+        <v>0.0382243498371351</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01516091762257253</v>
+        <v>0.0007604513199871094</v>
       </c>
       <c r="J55" t="n">
-        <v>0.001725792498105165</v>
+        <v>0.007747204262735408</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02785436001592287</v>
+        <v>0.06120867352139858</v>
       </c>
       <c r="L55" t="n">
-        <v>0.03081910746256569</v>
+        <v>0.03159677751195536</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0290215505297031</v>
+        <v>0.05186345835647883</v>
       </c>
       <c r="N55" t="n">
-        <v>0.04626070828329035</v>
+        <v>0.01902655938409977</v>
       </c>
       <c r="O55" t="n">
-        <v>0.06398254966510508</v>
+        <v>0.03539304338662144</v>
       </c>
       <c r="P55" t="n">
-        <v>0.06183648754900129</v>
+        <v>0.04069148849859855</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04912141950013981</v>
+        <v>0.0408740294583108</v>
       </c>
       <c r="R55" t="n">
-        <v>0.01882585289948217</v>
+        <v>0.02232911212699703</v>
       </c>
       <c r="S55" t="n">
-        <v>0.05730909263136114</v>
+        <v>0.04213185785076087</v>
       </c>
       <c r="T55" t="n">
-        <v>0.05953259410983389</v>
+        <v>0.03018310431063817</v>
       </c>
       <c r="U55" t="n">
-        <v>0.02862091807336454</v>
+        <v>0.04705882157019617</v>
       </c>
       <c r="V55" t="n">
-        <v>0.06648685046277872</v>
+        <v>0.02353455421418006</v>
       </c>
       <c r="W55" t="n">
-        <v>0.05033688497451207</v>
+        <v>0.04887653366651733</v>
       </c>
       <c r="X55" t="n">
-        <v>0.03860722861756642</v>
+        <v>0.01726151895618675</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02845673254544644</v>
+        <v>0.0240482773196623</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.002507546552476627</v>
+        <v>0.01610842537364062</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.002814328490903824</v>
+        <v>0.004556669131481495</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03708110563607049</v>
+        <v>0.07299426085957487</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0259743106846602</v>
+        <v>0.03228470358911625</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.06677745182017229</v>
+        <v>0.06078545895538833</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.02275578212054732</v>
+        <v>0.04989912523801606</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.005115844612179635</v>
+        <v>0.010232943194086</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.04898998586891346</v>
+        <v>0.04252156072816764</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.09579030586110268</v>
+        <v>-0.07403133489344066</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2193543783580288</v>
+        <v>0.2172669637424119</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01959502511714122</v>
+        <v>0.01308209252499787</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08022504899797775</v>
+        <v>0.07821483758173133</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01289016522892602</v>
+        <v>0.00250553242764438</v>
       </c>
       <c r="I56" t="n">
-        <v>0.007263604182956022</v>
+        <v>0.01058654123784567</v>
       </c>
       <c r="J56" t="n">
-        <v>0.02083615907139301</v>
+        <v>0.06574948144724138</v>
       </c>
       <c r="K56" t="n">
-        <v>0.006220310005397535</v>
+        <v>0.08784780987715339</v>
       </c>
       <c r="L56" t="n">
-        <v>0.03743438295525445</v>
+        <v>0.000384576176011448</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01238686872646796</v>
+        <v>0.06157065527233784</v>
       </c>
       <c r="N56" t="n">
-        <v>0.07885244037448452</v>
+        <v>0.02435414749739031</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01296255915111332</v>
+        <v>0.01276339298631455</v>
       </c>
       <c r="P56" t="n">
-        <v>0.06740858143780631</v>
+        <v>0.02185227959261227</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02087811227596729</v>
+        <v>0.01436715703997108</v>
       </c>
       <c r="R56" t="n">
-        <v>0.05184735770465674</v>
+        <v>0.0005355555392663169</v>
       </c>
       <c r="S56" t="n">
-        <v>0.04038895490603632</v>
+        <v>0.001835626136467729</v>
       </c>
       <c r="T56" t="n">
-        <v>0.06895730977414882</v>
+        <v>0.008894106799233208</v>
       </c>
       <c r="U56" t="n">
-        <v>0.004206815936728101</v>
+        <v>0.02424845098723269</v>
       </c>
       <c r="V56" t="n">
-        <v>0.06792152667864249</v>
+        <v>0.07387875126670185</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05016627698300122</v>
+        <v>0.04956713189494712</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0486383549346722</v>
+        <v>0.04347475703926734</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.04692530049914215</v>
+        <v>0.05816160093417361</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.009860097908492267</v>
+        <v>0.003823255982835074</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.01633282231823134</v>
+        <v>0.01911349639404404</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.0560824637266329</v>
+        <v>0.0651228716806336</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.04563791554155631</v>
+        <v>0.05044734857238302</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.02847934556959535</v>
+        <v>0.01271504642205125</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.006802493473007932</v>
+        <v>0.08298533945990504</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.002082535994235033</v>
+        <v>0.03798332285533482</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.07871717052633552</v>
+        <v>0.07393483437427172</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1440084810143961</v>
+        <v>0.1438920580129243</v>
       </c>
     </row>
     <row r="57">
@@ -6670,94 +6670,94 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2432100058883391</v>
+        <v>0.2445674884889817</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07933864395185711</v>
+        <v>0.07195953119864144</v>
       </c>
       <c r="G57" t="n">
-        <v>0.006932922513138173</v>
+        <v>0.02911384593946712</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002358205281486788</v>
+        <v>0.006935266070503206</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02934095587604372</v>
+        <v>0.004746301456349523</v>
       </c>
       <c r="J57" t="n">
-        <v>0.002013393336110719</v>
+        <v>0.03737627663453099</v>
       </c>
       <c r="K57" t="n">
-        <v>0.007721508414144047</v>
+        <v>0.03156264292600484</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01311506198550226</v>
+        <v>0.04361102902223651</v>
       </c>
       <c r="M57" t="n">
-        <v>0.001967432930859179</v>
+        <v>0.03938079233027141</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03177958318038043</v>
+        <v>0.01083687919502522</v>
       </c>
       <c r="O57" t="n">
-        <v>0.07012961991405672</v>
+        <v>0.05693733125051194</v>
       </c>
       <c r="P57" t="n">
-        <v>0.06340240325390693</v>
+        <v>0.07071492784745435</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.04724879510074365</v>
+        <v>0.08871343249175713</v>
       </c>
       <c r="R57" t="n">
-        <v>0.02262995198273898</v>
+        <v>0.07469470209843351</v>
       </c>
       <c r="S57" t="n">
-        <v>0.07107201417686941</v>
+        <v>0.001391964632880144</v>
       </c>
       <c r="T57" t="n">
-        <v>0.05461536545178707</v>
+        <v>0.005899292200896708</v>
       </c>
       <c r="U57" t="n">
-        <v>0.02810248802280589</v>
+        <v>0.03466578836117109</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0477829379515642</v>
+        <v>0.04774486684482576</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03180909091284847</v>
+        <v>0.04114066469602241</v>
       </c>
       <c r="X57" t="n">
-        <v>0.002522549991761406</v>
+        <v>0.002707992351206496</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.05475708364822775</v>
+        <v>0.01410101828094259</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.07415292236620578</v>
+        <v>0.0889972672388249</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.001467644719581079</v>
+        <v>0.0356896230024128</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07615015707160272</v>
+        <v>0.06432509006216723</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.06679908329744068</v>
+        <v>0.01920316931981345</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.05234147302532734</v>
+        <v>0.004397123391513592</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.01004249010646576</v>
+        <v>0.05058213535467227</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.003317521481045651</v>
+        <v>0.0008344957571509991</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.04708870005549798</v>
+        <v>0.02173655004431231</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1666692160454273</v>
+        <v>0.1785524385148068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1590412478465196</v>
+        <v>0.136310430949373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008071354353092097</v>
+        <v>0.004731374387398085</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05522848827196102</v>
+        <v>0.02297362614909526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05629418987751389</v>
+        <v>0.0207266166425654</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01360545050767828</v>
+        <v>0.006738418679974719</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01886596450736935</v>
+        <v>0.03730136454020861</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02094270192742457</v>
+        <v>0.02668797045320546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003982778914439683</v>
+        <v>0.001068962267049046</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05312647992495112</v>
+        <v>0.05219994682908746</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0270921899284131</v>
+        <v>0.06029544312669965</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0009199288846209526</v>
+        <v>0.004359777833925926</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03611914184996486</v>
+        <v>0.04744249475734279</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05645681574251107</v>
+        <v>0.05582447078375954</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01889389425078864</v>
+        <v>0.06462606161507083</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02131529826132589</v>
+        <v>0.0229225144644839</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03632042943482983</v>
+        <v>0.07522447533657178</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06257716647915747</v>
+        <v>0.06578625562079074</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04466785952701596</v>
+        <v>0.03207543417879866</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05416282741806262</v>
+        <v>0.05370928506156246</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02315034635547356</v>
+        <v>0.07500552534996864</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02293735378232254</v>
+        <v>0.03350847326363102</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.05356714358175969</v>
+        <v>0.02273732446554438</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05542001899965123</v>
+        <v>0.07391931094885823</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02513610363720205</v>
+        <v>0.01744066239177091</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02128068937415732</v>
+        <v>0.01233515112475946</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02968656960227604</v>
+        <v>0.02606352645222049</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.05669904806732674</v>
+        <v>0.05402949984875521</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.06478021009937532</v>
+        <v>0.0299577738934405</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06228405746233076</v>
+        <v>0.0003082595334607711</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.04959097317011259</v>
+        <v>0.07147868145859068</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8337397648005755</v>
+        <v>0.1616282892459873</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004702419960976019</v>
+        <v>0.003727627101048281</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06268452414631552</v>
+        <v>0.0592329791374536</v>
       </c>
       <c r="H3" t="n">
-        <v>0.031479760085788</v>
+        <v>0.02788838234941206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005350009297574117</v>
+        <v>0.008608892101353662</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04904282647537667</v>
+        <v>0.009294348855802223</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0467531949279737</v>
+        <v>0.05386701359665928</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0660897844279649</v>
+        <v>0.001464527471206342</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03385887386986024</v>
+        <v>0.08279624037441767</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06801051301821047</v>
+        <v>0.0798193536703132</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07324550681458902</v>
+        <v>0.001470471288662793</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06315892004629844</v>
+        <v>0.02041265923653659</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02400045646306669</v>
+        <v>0.03842621711945254</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02703517184295334</v>
+        <v>0.03047810134875195</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03136122164056845</v>
+        <v>0.0379546985958299</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01254529832769477</v>
+        <v>0.08751338527327662</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001633175161404348</v>
+        <v>0.06455827178606452</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05019277463532072</v>
+        <v>0.02750104737489695</v>
       </c>
       <c r="W3" t="n">
-        <v>0.003834408589339139</v>
+        <v>0.05066389190194647</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05245153295374747</v>
+        <v>0.05068450915753026</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02193939431985339</v>
+        <v>0.01776015446716208</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04734915756744187</v>
+        <v>0.02236219269720505</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05657848415705979</v>
+        <v>0.01614309985596855</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03465188237057256</v>
+        <v>0.08304322811355608</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.008744594311432857</v>
+        <v>0.01808045771972691</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01176106440571242</v>
+        <v>0.02147459550638277</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06724822746353187</v>
+        <v>0.05049055878656578</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02929040505737665</v>
+        <v>0.009911176806643341</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01500641766199661</v>
+        <v>0.02437191830617478</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05445830050718938</v>
+        <v>0.0449230761555611</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1240794199213757</v>
+        <v>0.1209023617594559</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01210636914627675</v>
+        <v>0.02378055715756881</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06310047001908996</v>
+        <v>0.0423687369133504</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05950790322942672</v>
+        <v>0.02290326690321742</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02139942808036213</v>
+        <v>0.05303424449125869</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03549170660655304</v>
+        <v>0.03817608794177164</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04570316661744021</v>
+        <v>0.01081309017221984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01464877598349706</v>
+        <v>0.07132897833442695</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008580526036607411</v>
+        <v>0.01845964498916922</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01997709821574044</v>
+        <v>0.01769634879582356</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009359144543798424</v>
+        <v>0.03487617898518059</v>
       </c>
       <c r="P4" t="n">
-        <v>0.007189396417254631</v>
+        <v>0.005179589122204179</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.003213156830528131</v>
+        <v>0.01309561166937455</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05594586574464575</v>
+        <v>0.00612158268005529</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04390669843511569</v>
+        <v>0.007858715082184836</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0536580680920137</v>
+        <v>0.07988066535938325</v>
       </c>
       <c r="U4" t="n">
-        <v>0.005151873291716141</v>
+        <v>0.01309410526484101</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03919257537473354</v>
+        <v>0.01085910973702166</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03805136170829407</v>
+        <v>0.00659124624386684</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02486671750906502</v>
+        <v>0.08307437949620793</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02191632004401091</v>
+        <v>0.06759764373961878</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05194539465313114</v>
+        <v>0.04640016098801601</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07160600592471791</v>
+        <v>0.03163351615384342</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06034361173298598</v>
+        <v>0.04782261144244632</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05245629193519717</v>
+        <v>0.06280636677540614</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05027920927811901</v>
+        <v>0.08683603773153989</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0006952624576347843</v>
+        <v>0.001201298655272757</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.05817179774506757</v>
+        <v>0.02846634572514202</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.07153580434697679</v>
+        <v>0.06804387944958808</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.03733145407118726</v>
+        <v>0.03026286798604583</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.019635293122403</v>
+        <v>0.1489060780773107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001071049783404799</v>
+        <v>0.01233238699826369</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03429907839903999</v>
+        <v>0.04200438139180965</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007658196118901822</v>
+        <v>0.03622281514518709</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07112903852010231</v>
+        <v>0.06328320693413332</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005844717863522871</v>
+        <v>0.05151410356753845</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01499726158553615</v>
+        <v>0.06453620024798312</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02165042212077963</v>
+        <v>0.05192744003817621</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008869018282676902</v>
+        <v>0.04485045626312744</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000146489735249833</v>
+        <v>0.06911156855658379</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0583991789102246</v>
+        <v>0.05898398873453697</v>
       </c>
       <c r="P5" t="n">
-        <v>0.007838038244080182</v>
+        <v>0.006515803311891164</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002320123571682367</v>
+        <v>0.00853592218451465</v>
       </c>
       <c r="R5" t="n">
-        <v>0.06610128068754011</v>
+        <v>0.03587009157661444</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04462352600964083</v>
+        <v>0.01371609953967267</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06580363261729573</v>
+        <v>0.02346577454278468</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004469374287206288</v>
+        <v>0.06853137346791832</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001908521521443361</v>
+        <v>0.01262510285410717</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05914200869623391</v>
+        <v>0.03556095026625034</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07603314482112541</v>
+        <v>0.03736037294409884</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04600455996447389</v>
+        <v>0.06411029807785523</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02638833409419833</v>
+        <v>0.02717300462031653</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04615061540229019</v>
+        <v>0.06915332689061254</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03505037343413928</v>
+        <v>0.01368028026563246</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02320443823276655</v>
+        <v>0.01463486702821602</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04592405407000084</v>
+        <v>0.02816615247015433</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.09673322874383707</v>
+        <v>0.007897713238458991</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04013466812938102</v>
+        <v>0.01788391104785109</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.08810562615322573</v>
+        <v>0.02035240779571088</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02794917591317161</v>
+        <v>0.02540116381037075</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1290039126331847</v>
+        <v>0.1385255879279925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03647909984782736</v>
+        <v>0.03501331030389557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06632150481477013</v>
+        <v>0.04177807771967514</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04056702720906006</v>
+        <v>0.04108412179285478</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007642283872831668</v>
+        <v>0.0402563593857283</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07181167860787405</v>
+        <v>0.06924738068501886</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01232193672125374</v>
+        <v>0.04095826001983215</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03453597581753568</v>
+        <v>0.05003762911776203</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01887638404212521</v>
+        <v>0.01371904687041484</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05375739515315957</v>
+        <v>0.0416641959615407</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001788158012142314</v>
+        <v>0.03023520038115358</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02458762182193285</v>
+        <v>0.01970409934195426</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005745619327412846</v>
+        <v>0.05393331584408254</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0740908465838426</v>
+        <v>0.06842213710209785</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005043215478948015</v>
+        <v>0.02922661107891432</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06240305174043232</v>
+        <v>0.06787513190685322</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01297620911952589</v>
+        <v>0.0156733053862396</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00984924342780542</v>
+        <v>0.003436411243590697</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01130912558665056</v>
+        <v>0.01578383577619247</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04688901933741028</v>
+        <v>0.003356536672300646</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.003288100182720455</v>
+        <v>0.0005916071204064979</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03258819200538547</v>
+        <v>0.01891109898385452</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03643038796201752</v>
+        <v>0.0187509791885643</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06033049521456667</v>
+        <v>0.05499375624150995</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0613946836113204</v>
+        <v>0.02179492230858435</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.03050023088821645</v>
+        <v>0.009922578772736081</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06878417612889437</v>
+        <v>0.06627309879596323</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04947344391927267</v>
+        <v>0.07266298019363601</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06870229126154202</v>
+        <v>0.05469401180464355</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.08272427516292555</v>
+        <v>-0.07779056171429792</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1674998160358524</v>
+        <v>0.1651193111314581</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07908900306749941</v>
+        <v>0.08657074240766932</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02495426037211594</v>
+        <v>0.003463685285303269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002361428900370716</v>
+        <v>0.03662116244463055</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0520537024158622</v>
+        <v>0.01647612528445845</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09899586389020036</v>
+        <v>0.05749022824103359</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08036480249507526</v>
+        <v>0.07077587424793728</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01037483480831679</v>
+        <v>0.05105955874391362</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08063943206126518</v>
+        <v>0.04509352354264077</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05400023158038147</v>
+        <v>0.02032446080457115</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06758197090341612</v>
+        <v>0.03204868737541244</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01362937332025936</v>
+        <v>0.05931027868539653</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01231073592294474</v>
+        <v>0.01759312987155142</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03599346365046464</v>
+        <v>0.02732586135992358</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04204844954237293</v>
+        <v>0.03286644213516868</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005200078366571763</v>
+        <v>0.03599316184798561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04442636855720019</v>
+        <v>0.01350002854282603</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02898938194841433</v>
+        <v>0.0126516812646601</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0385518707283912</v>
+        <v>0.05438169571943824</v>
       </c>
       <c r="X7" t="n">
-        <v>0.00554578769440757</v>
+        <v>0.01750916582728159</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001478624593622939</v>
+        <v>0.01021484839678807</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01284435348576242</v>
+        <v>0.004085773927147533</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.04309749731645991</v>
+        <v>0.05475783864311277</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04182299749440318</v>
+        <v>0.03968510320916983</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.007920949476108699</v>
+        <v>0.00360761283778939</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01828071161212804</v>
+        <v>0.01828689305636283</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.005349027810172173</v>
+        <v>0.09165848202093049</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03419108485727265</v>
+        <v>0.002507989335545938</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.05923447526280042</v>
+        <v>0.08413996494135087</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.06046962435672904</v>
+        <v>-0.07254255638893733</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1479743896737384</v>
+        <v>0.1445333703578492</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0700609272756333</v>
+        <v>0.03878817225737625</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03438734208608906</v>
+        <v>0.002599549480089704</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03179327844460408</v>
+        <v>0.0505278549183824</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01507952493041887</v>
+        <v>0.06265868247154141</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05396910936516432</v>
+        <v>0.02619601955017649</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03546113549423446</v>
+        <v>0.0348109428736508</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01050507256005825</v>
+        <v>0.03654144793479615</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04130646694786938</v>
+        <v>0.07954348776131977</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01705720294301287</v>
+        <v>0.02573776927948457</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02540184691679663</v>
+        <v>0.01195111627368011</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05612712535618975</v>
+        <v>0.006380324366578989</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01256564948516141</v>
+        <v>0.0401886614136888</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05165803572600834</v>
+        <v>0.01482470524943609</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001456323103730975</v>
+        <v>0.02674146571426251</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06024281206017183</v>
+        <v>0.0840441546931167</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004897474227537064</v>
+        <v>0.01960134403237024</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02910486135399704</v>
+        <v>0.07757056295124876</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002980861326874933</v>
+        <v>0.0008089456666051227</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0461023155972323</v>
+        <v>0.06224448331559388</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.06264559759538729</v>
+        <v>0.005713174075199854</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04957634620718121</v>
+        <v>0.07760980786219736</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03224425540027984</v>
+        <v>0.009306291675138341</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0636060557840926</v>
+        <v>0.06365998803169645</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.07371225437289168</v>
+        <v>0.04920767286410965</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.06546652460153268</v>
+        <v>0.007908801818015334</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01951280941617127</v>
+        <v>0.01513604779702534</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03254897450003908</v>
+        <v>0.06893727002407136</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0005298169216394621</v>
+        <v>0.0007612556491473801</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2533160492500403</v>
+        <v>-0.295217284720253</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2176315403690308</v>
+        <v>0.1578924541714965</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06860592136709114</v>
+        <v>0.02004109309481006</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0154621882668833</v>
+        <v>0.04741335191395726</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06441174494337785</v>
+        <v>0.03211481677303206</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03479343123598379</v>
+        <v>0.03879465264279561</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04922528793245574</v>
+        <v>0.03081191721508209</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004638188387695406</v>
+        <v>0.02147546674394148</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04304487471898625</v>
+        <v>0.02329157191115043</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05202886998195088</v>
+        <v>0.04943392439031478</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001522000740070539</v>
+        <v>0.01533117650470762</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02923367953717255</v>
+        <v>0.03377943177924241</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02023650807496622</v>
+        <v>0.03409995770859003</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05876539173214634</v>
+        <v>0.01691650694334624</v>
       </c>
       <c r="R9" t="n">
-        <v>0.10111668967464</v>
+        <v>0.07590679776883816</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04293409838863109</v>
+        <v>0.004449904924045462</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05899850522639362</v>
+        <v>0.07084882775256791</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007411513965429278</v>
+        <v>0.008081170247147157</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02877971988401172</v>
+        <v>0.08200199365442705</v>
       </c>
       <c r="W9" t="n">
-        <v>0.007421165421908142</v>
+        <v>0.003513689705273504</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01335986983998615</v>
+        <v>0.0308497591147365</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02118833423440391</v>
+        <v>0.0531711025940966</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.06585170196406637</v>
+        <v>0.01616315289269816</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06972427267241547</v>
+        <v>0.06952720293861998</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03045223910890854</v>
+        <v>0.07276884770450272</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0502460106656964</v>
+        <v>0.04104439284534248</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01602992767402019</v>
+        <v>0.01515071632824738</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.002218424234609601</v>
+        <v>0.08637223393030988</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03075610166376151</v>
+        <v>0.006217322402221794</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01154333846233819</v>
+        <v>0.0004290175759550073</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.3236281742840208</v>
+        <v>-0.221924330262072</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2500545981682088</v>
+        <v>0.2506224022646434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02570983739748291</v>
+        <v>0.004848784735096898</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03755722326618226</v>
+        <v>0.03974326307076783</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007844884468536527</v>
+        <v>0.00591513223302504</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03458794953908956</v>
+        <v>0.05546219941605655</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06266328824044107</v>
+        <v>0.01159220263142739</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001080827638494289</v>
+        <v>0.0234537840375225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01280018279968038</v>
+        <v>0.03663996904307475</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0249956754506142</v>
+        <v>0.02236379428513552</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002819877487835984</v>
+        <v>1.017787522896151e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0198818986911431</v>
+        <v>0.02013120288311796</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001887497885301334</v>
+        <v>0.0755651709549012</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01711349634414882</v>
+        <v>0.0623261515342438</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0724827209503785</v>
+        <v>0.04243398106762299</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01715443574708421</v>
+        <v>0.02761950577515194</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08170914723299359</v>
+        <v>0.06606106165628328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0136801332808784</v>
+        <v>0.002573788338702412</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03659421096923021</v>
+        <v>0.005143106292423112</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04511309947594384</v>
+        <v>0.07516799689357305</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04440159229793125</v>
+        <v>0.06595658277463387</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.05666303531902713</v>
+        <v>0.05316093680118982</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03030605057287924</v>
+        <v>0.01402017747339745</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05703094002021323</v>
+        <v>0.0369531920410275</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01377284711300022</v>
+        <v>0.07044307141721558</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.03003794745167726</v>
+        <v>0.01353256966252732</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06607588582888008</v>
+        <v>0.02330492482143624</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.07738957067235797</v>
+        <v>0.06200555085386425</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03365855978071144</v>
+        <v>0.02227540613741294</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.07498718407786291</v>
+        <v>0.06129631529393992</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.02721769689370824</v>
+        <v>-0.03342811851076076</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3430027056585449</v>
+        <v>0.3207718988238382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07768394005842376</v>
+        <v>0.03391486539719814</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05879855835453512</v>
+        <v>0.05962843777576263</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07779262126115349</v>
+        <v>0.006138331155438537</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02056395144012108</v>
+        <v>0.003385247134219871</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05475001410415503</v>
+        <v>0.02815985157945316</v>
       </c>
       <c r="K11" t="n">
-        <v>0.008558317091963629</v>
+        <v>0.06550790629554659</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0699954802981278</v>
+        <v>0.05074228122213042</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01531213560649074</v>
+        <v>0.01415813942628069</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01878369463408533</v>
+        <v>0.006094167910394421</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02473491431235945</v>
+        <v>0.09699423928887911</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04910239816625649</v>
+        <v>0.07763309831670656</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004421718137697662</v>
+        <v>0.05173886566023111</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06231599750799868</v>
+        <v>0.04281340121778762</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03981026544725694</v>
+        <v>0.01560820473127978</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03660052650729481</v>
+        <v>0.03445161662681379</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0490605764253354</v>
+        <v>0.05215939858808209</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005633800786565697</v>
+        <v>0.04375231936426725</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07168244908228381</v>
+        <v>0.02584407009819941</v>
       </c>
       <c r="X11" t="n">
-        <v>0.006495331522421341</v>
+        <v>0.05580423489079895</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003134942291226797</v>
+        <v>0.0369971003467891</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02499664289343038</v>
+        <v>0.0008612498817469444</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03199795830137763</v>
+        <v>0.00500816371904448</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01033329095691538</v>
+        <v>0.02630062900737635</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01337028096980798</v>
+        <v>0.03708480147833346</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.001565438523718233</v>
+        <v>0.00895287971529366</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06348315452929258</v>
+        <v>0.03275453863624427</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.06923344827711439</v>
+        <v>0.01304902321221245</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02978815251259029</v>
+        <v>0.07446293732348895</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04822193355114865</v>
+        <v>0.04347243055808837</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2753401887403282</v>
+        <v>0.2816944398264118</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0415438046091372</v>
+        <v>0.00126033561458226</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04675767231863568</v>
+        <v>0.07726447483488992</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003886123365023373</v>
+        <v>9.133070164999687e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07149412195170381</v>
+        <v>0.04638974546606907</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007978360666719368</v>
+        <v>0.005848458144303985</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06430589779835406</v>
+        <v>0.02526227103107772</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01627394923738451</v>
+        <v>0.005346481093825819</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04428876472011337</v>
+        <v>0.03721120313895054</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04169800161213633</v>
+        <v>0.06290747776465291</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003673616817966838</v>
+        <v>0.02694078520107298</v>
       </c>
       <c r="P12" t="n">
-        <v>0.005052210174857429</v>
+        <v>0.02765475426305898</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01737729600838621</v>
+        <v>0.01262946266954562</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07300640644388895</v>
+        <v>0.07704206891462445</v>
       </c>
       <c r="S12" t="n">
-        <v>0.003585375680968298</v>
+        <v>0.02213275663523588</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05095777149585928</v>
+        <v>0.02329640375905748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02378237281377932</v>
+        <v>0.05215905470101399</v>
       </c>
       <c r="V12" t="n">
-        <v>0.04562806124542997</v>
+        <v>0.02147195042634846</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07298263490836521</v>
+        <v>0.0505429827084831</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02875608670865571</v>
+        <v>0.03397370347607981</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04832017794223385</v>
+        <v>0.01034715103729587</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02826825185065206</v>
+        <v>0.0001559119364092035</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.007359082824115353</v>
+        <v>0.02755121902251081</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03033772625265064</v>
+        <v>0.075913369771551</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02767777860453881</v>
+        <v>0.00269911663975885</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01537768584528605</v>
+        <v>0.0414009062478962</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07313883867208314</v>
+        <v>0.08642604231481185</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05944928187139453</v>
+        <v>0.05027815578120255</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.04704264755968065</v>
+        <v>0.09580242670404072</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.219789198589467</v>
+        <v>0.1837474491125869</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3169446407822013</v>
+        <v>0.3261114252013862</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08191926732229082</v>
+        <v>0.005450778510019926</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06276967173605995</v>
+        <v>0.01768200230184369</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006508375626251335</v>
+        <v>0.001918804009050158</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03035659896949806</v>
+        <v>0.004618156913413106</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01235656027864613</v>
+        <v>0.002378325953113997</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03301622199677615</v>
+        <v>0.1120274911427378</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08003778775341561</v>
+        <v>0.1061833764431795</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04627680073434801</v>
+        <v>0.08451947878023329</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01805687943308816</v>
+        <v>0.01941129507692839</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05204228446389664</v>
+        <v>0.003067443840119714</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01772648998928828</v>
+        <v>0.08712313079129282</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0148786445251821</v>
+        <v>0.09028823788857274</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03458361604558509</v>
+        <v>0.02327770925894998</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02237374601401971</v>
+        <v>0.001428473030173432</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04089977328251679</v>
+        <v>0.05705175567988389</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06146050366875937</v>
+        <v>0.03926475352362634</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07042433192365637</v>
+        <v>0.05375964878842473</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0005309495397793867</v>
+        <v>0.01968622753509279</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001291621602160162</v>
+        <v>0.01238467923235411</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02684826320310491</v>
+        <v>0.005920307660335968</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04115137630456247</v>
+        <v>0.01778755267249424</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05764425609637554</v>
+        <v>0.05003385704373016</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01730340929350002</v>
+        <v>0.007146770092582969</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.05263410871437547</v>
+        <v>0.01666527681627961</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002362811414389567</v>
+        <v>0.01964243048643632</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002791843723561755</v>
+        <v>0.08994212358876368</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.06704814717557921</v>
+        <v>0.02024331700784847</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.04470565916933303</v>
+        <v>0.03109659593251803</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2243878091252279</v>
+        <v>0.23250959624587</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2849779232370349</v>
+        <v>0.2922675680447582</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004124123916751923</v>
+        <v>0.001461633035971115</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03137040876997019</v>
+        <v>0.03254495531357434</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002597826358279838</v>
+        <v>0.01532382748547273</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06278557043346594</v>
+        <v>0.05765827286696326</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06719976625684999</v>
+        <v>0.05820094054204318</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03805479249958876</v>
+        <v>0.05610014130074976</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03599108163194342</v>
+        <v>0.06778658775580353</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01301334192021388</v>
+        <v>0.0558715003803807</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02685379317332951</v>
+        <v>0.03061540501117349</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03380542249621197</v>
+        <v>0.04065469483284966</v>
       </c>
       <c r="P14" t="n">
-        <v>0.009007159307543637</v>
+        <v>0.001543580308102339</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0104818181140376</v>
+        <v>0.008736439649918354</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06369234196800894</v>
+        <v>0.05820329202512081</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01751313063668435</v>
+        <v>0.005372697836260262</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04445449620748008</v>
+        <v>0.07586886061093057</v>
       </c>
       <c r="U14" t="n">
-        <v>0.003319196570386521</v>
+        <v>0.02495067022550286</v>
       </c>
       <c r="V14" t="n">
-        <v>0.05556481839255813</v>
+        <v>0.04188271442518464</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02714448202812401</v>
+        <v>0.06638101584338231</v>
       </c>
       <c r="X14" t="n">
-        <v>0.05134513056975309</v>
+        <v>0.00136456824390534</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04386309372630764</v>
+        <v>0.06631263980089599</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02693794127082741</v>
+        <v>0.00809692222425773</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.006003535832496148</v>
+        <v>0.009579185422666552</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06330762895612044</v>
+        <v>0.05236726231337556</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01192027335023235</v>
+        <v>0.007255173986610278</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.06120265997058803</v>
+        <v>0.03289062842276964</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.05927953655567736</v>
+        <v>0.03425611567806117</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.06576293891855624</v>
+        <v>0.003193228573297243</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.06340369016801267</v>
+        <v>0.08552704588477676</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.08616063525714303</v>
+        <v>-0.06580521124171784</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.355823456103823</v>
+        <v>0.3585970702156599</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008014013645162209</v>
+        <v>0.000988628583991812</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02235706361257214</v>
+        <v>0.001620808198921884</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06105473412679552</v>
+        <v>0.07904422594654485</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07491073313984307</v>
+        <v>0.01714445529980353</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03678708297519418</v>
+        <v>0.04427997716250399</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08342006775030418</v>
+        <v>0.04509225914367077</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02778412284039544</v>
+        <v>0.04456931300553016</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04076572785133759</v>
+        <v>0.002840355294155076</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02355852603271109</v>
+        <v>0.07918788831662119</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05676125535926802</v>
+        <v>0.07344386190342812</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04145630116771891</v>
+        <v>0.007619559058970934</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06203800508185812</v>
+        <v>0.06433985090856796</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01544248926461051</v>
+        <v>0.04144852985041729</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07259878319491139</v>
+        <v>0.07209956143810035</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002920828363802877</v>
+        <v>0.02356331212738995</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008468767838094332</v>
+        <v>0.02116984493183948</v>
       </c>
       <c r="V15" t="n">
-        <v>0.07008234955131282</v>
+        <v>0.06781893232096615</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01083252406380483</v>
+        <v>0.02648204773095625</v>
       </c>
       <c r="X15" t="n">
-        <v>0.03694096864173081</v>
+        <v>0.01966189402096861</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03587311351697461</v>
+        <v>0.0001790877232636745</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04919588029639998</v>
+        <v>0.004248211295389514</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06388091666948079</v>
+        <v>0.08174634739874898</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.006067438713291169</v>
+        <v>0.005961396135903817</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02537222805001256</v>
+        <v>0.05378733904962958</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01355720054649399</v>
+        <v>0.01923968838040137</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002385066389126824</v>
+        <v>0.01401834314639219</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03975130694019966</v>
+        <v>0.02103688904804634</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.007722504376592206</v>
+        <v>0.06736739257887607</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.0635282682746504</v>
+        <v>-0.06715710993832892</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2640840065520445</v>
+        <v>0.2648091433525589</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01996691773389122</v>
+        <v>0.02377640028928592</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08849965418786487</v>
+        <v>0.04529599200035603</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03302136839539237</v>
+        <v>0.00435551500565086</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009256522955504267</v>
+        <v>0.02711085253529574</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03583953652123684</v>
+        <v>0.01915568551665914</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0187119645959111</v>
+        <v>0.02894429312090454</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002882382130876978</v>
+        <v>0.01929991767221888</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03601470581080952</v>
+        <v>0.0003654108787268581</v>
       </c>
       <c r="N16" t="n">
-        <v>0.003423345174884441</v>
+        <v>0.007442896008291932</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01017967261808449</v>
+        <v>0.0116279804446705</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02531729657502358</v>
+        <v>0.05178901197767214</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0454140995511066</v>
+        <v>0.01784466190379597</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05454352763511293</v>
+        <v>0.08074846404392783</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0169597526108346</v>
+        <v>0.0004487780998634925</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07975037495734291</v>
+        <v>0.01106633557976605</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004320198385136208</v>
+        <v>0.02447199453798625</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01173765581589956</v>
+        <v>0.06537922240779181</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0524996230318422</v>
+        <v>0.06396507405174523</v>
       </c>
       <c r="X16" t="n">
-        <v>0.08603576908304116</v>
+        <v>0.06174736035886356</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07375677850603012</v>
+        <v>0.08072785083609899</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.002741675632283997</v>
+        <v>0.0616223705567942</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.08103944523986388</v>
+        <v>0.0520760611057815</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.08040114766980744</v>
+        <v>0.04454636393513451</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01254361452600536</v>
+        <v>0.003624731344250825</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.004096879048508032</v>
+        <v>0.01893593502620437</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.02747147582774313</v>
+        <v>0.05305839779841837</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.03982235708051814</v>
+        <v>0.08091887277673698</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.04375225869944388</v>
+        <v>0.03965357018710751</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1651039465694912</v>
+        <v>0.1907936063235357</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3215585676697423</v>
+        <v>0.323816484511367</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07438066010013857</v>
+        <v>0.08724878855248706</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01365057456302187</v>
+        <v>0.0235045088140006</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07830589720966881</v>
+        <v>0.05462495682680957</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04626161182985791</v>
+        <v>0.02011051728670938</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02515269040279715</v>
+        <v>0.04563771609121271</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06747109261694079</v>
+        <v>0.02397228702417483</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05453640765667237</v>
+        <v>0.06990236682705407</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04118488716689869</v>
+        <v>0.01398933755700898</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04034135892812712</v>
+        <v>0.03665905324625805</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03100503218031023</v>
+        <v>0.07785057523741679</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05240445887318537</v>
+        <v>0.01984970822528843</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001169378024699915</v>
+        <v>0.005824156800596478</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02980102322372215</v>
+        <v>0.06080042505977808</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05294181653807735</v>
+        <v>0.07912443327080962</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01424822467487229</v>
+        <v>0.02152190698451172</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01206120450029837</v>
+        <v>0.008721013869708754</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02710863806307351</v>
+        <v>0.004098806065342162</v>
       </c>
       <c r="W17" t="n">
-        <v>0.008957037887255079</v>
+        <v>0.0217034345821486</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05230623950708962</v>
+        <v>0.04679840187373311</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.06408937201896228</v>
+        <v>0.03247733697011279</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03367550586013236</v>
+        <v>0.04048796922711168</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.06241726385020832</v>
+        <v>0.06639228965214752</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.00690288011711469</v>
+        <v>0.02297098171161109</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.00977128457044402</v>
+        <v>0.02152120746631776</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0008869361998949832</v>
+        <v>0.02202495504144205</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01807019978133898</v>
+        <v>0.006017045717070024</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.04948390731736368</v>
+        <v>0.01655579489555639</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.03141441633783357</v>
+        <v>0.04961002512358158</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1844963348745214</v>
+        <v>0.1696943861460263</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2643416509670778</v>
+        <v>0.2209188077091913</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002785668193268846</v>
+        <v>0.02090887154403052</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0779084404663473</v>
+        <v>0.02339996120500891</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001163179807235784</v>
+        <v>0.06352624294021891</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04925648832739426</v>
+        <v>0.00295005362280315</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07008006090007518</v>
+        <v>0.005587204107190028</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002026284611858584</v>
+        <v>0.004658872265244471</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05321299806886783</v>
+        <v>0.05940210222274732</v>
       </c>
       <c r="M18" t="n">
-        <v>9.046328043091325e-05</v>
+        <v>0.001995413449137017</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07266731090352371</v>
+        <v>0.002102208124265202</v>
       </c>
       <c r="O18" t="n">
-        <v>0.06814427771562129</v>
+        <v>0.0545910311878343</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01431067428775203</v>
+        <v>0.05429813727988388</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01784297811338643</v>
+        <v>0.06342013466900408</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01618377193245636</v>
+        <v>0.01157396429075089</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06351746492795518</v>
+        <v>0.0050716523467122</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07684227053831837</v>
+        <v>0.07613223901064259</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002557212519865289</v>
+        <v>0.005352901444531932</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01153390310709404</v>
+        <v>0.03297891354182408</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07160321817274162</v>
+        <v>0.05017217710977779</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03252757920257848</v>
+        <v>0.0672578274435093</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07494287061653127</v>
+        <v>0.04768165148802993</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06000025708803771</v>
+        <v>0.07128806856541349</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01979252156355435</v>
+        <v>0.04751447183797799</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01104697691244306</v>
+        <v>0.06385754588074485</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.001714520371358367</v>
+        <v>0.02740439655573345</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.06256890362153104</v>
+        <v>0.00884092624597123</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.008608965575037507</v>
+        <v>0.00324122721726708</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.005315409539742875</v>
+        <v>0.05070340604759962</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.05175532963499211</v>
+        <v>0.07408839835614593</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0390858782616023</v>
+        <v>0.02260558681381364</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3628403072294763</v>
+        <v>0.2919594388123601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07107515916914263</v>
+        <v>0.04576900791451607</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03455785593923483</v>
+        <v>0.06802890474612297</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008025801335290184</v>
+        <v>0.04942111696054392</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01532225378861574</v>
+        <v>0.004111817493693052</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02744225845939495</v>
+        <v>0.06784347211452456</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01067339588014871</v>
+        <v>0.01699501278027974</v>
       </c>
       <c r="L19" t="n">
-        <v>6.677455163296341e-05</v>
+        <v>0.01217275342146917</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005094838978880726</v>
+        <v>0.003777889151484766</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0362626217890468</v>
+        <v>0.05648427385847343</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07124233166756366</v>
+        <v>0.02219807885476343</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05079335046669739</v>
+        <v>0.06863389509921014</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.07159362663172088</v>
+        <v>0.0580348005888531</v>
       </c>
       <c r="R19" t="n">
-        <v>0.007623942043260463</v>
+        <v>0.01467243031769867</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0129479015938683</v>
+        <v>0.009643058627830239</v>
       </c>
       <c r="T19" t="n">
-        <v>0.009415708626290773</v>
+        <v>0.09314387551552365</v>
       </c>
       <c r="U19" t="n">
-        <v>0.006501014804170552</v>
+        <v>0.003865288423759946</v>
       </c>
       <c r="V19" t="n">
-        <v>0.06549342061173567</v>
+        <v>0.07681642810564736</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01153073147507589</v>
+        <v>0.04533710457078976</v>
       </c>
       <c r="X19" t="n">
-        <v>0.07324971940371391</v>
+        <v>0.02640453180269722</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06059256569080772</v>
+        <v>0.01680402371856159</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.002227429118122481</v>
+        <v>0.01154898246840422</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07132384641427203</v>
+        <v>0.02748416101863491</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.06850928475189326</v>
+        <v>0.02472117205314551</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0218922743832553</v>
+        <v>0.01583901853996075</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.06082559161160789</v>
+        <v>0.04943381604068404</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.006519969555438296</v>
+        <v>0.002992411481376725</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.07037463753322815</v>
+        <v>0.06887970167239273</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.04882169372588997</v>
+        <v>0.03894297265895843</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05386435912368127</v>
+        <v>0.07478950884487799</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1333237382339326</v>
+        <v>0.1315133814905614</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000917877898514169</v>
+        <v>0.01514169724228607</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07018399440147821</v>
+        <v>0.04962643731627412</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009014774108930703</v>
+        <v>0.008351360407141189</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01253612261211978</v>
+        <v>0.01986049706882282</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0112508302122062</v>
+        <v>0.0068929247049848</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03867282358043378</v>
+        <v>0.01460556235039285</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01683697415381052</v>
+        <v>0.05382740976617548</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03438705307792598</v>
+        <v>0.0320152248669551</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00956349261252633</v>
+        <v>0.001105106725270874</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01094055512537343</v>
+        <v>0.02823053574127055</v>
       </c>
       <c r="P20" t="n">
-        <v>0.04421409548858011</v>
+        <v>0.06288691944669302</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01656247343025212</v>
+        <v>0.02676774609403678</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06821041088110179</v>
+        <v>0.04873783015326749</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0204770931341259</v>
+        <v>0.06079836926124096</v>
       </c>
       <c r="T20" t="n">
-        <v>0.06966708937397878</v>
+        <v>0.04890191460255391</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01137289389130494</v>
+        <v>0.01869098011676822</v>
       </c>
       <c r="V20" t="n">
-        <v>0.04914825108251417</v>
+        <v>0.04977728170448972</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02968868677682834</v>
+        <v>0.04423970975866174</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06993200931284914</v>
+        <v>0.01388904052758085</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02903483176384592</v>
+        <v>0.06020918834832982</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.05222698562285969</v>
+        <v>0.04579139186831646</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01624574894196599</v>
+        <v>0.008661380090241713</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06566887147697327</v>
+        <v>0.03295208881381548</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03690373274373269</v>
+        <v>0.06562751224819384</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.07303448305680148</v>
+        <v>0.01800684787512522</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0627776741173886</v>
+        <v>0.04885168741445799</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.003176532186747977</v>
+        <v>0.05737228500050089</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0673536389348299</v>
+        <v>0.05818107048615205</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.002236996606943722</v>
+        <v>0.007373700479570815</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.16326851090796</v>
+        <v>0.1757766266379649</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06725629279576373</v>
+        <v>0.01041122654846286</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04186660374938588</v>
+        <v>0.08098668545796281</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03069546617195197</v>
+        <v>0.05370763250715576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002756605052022843</v>
+        <v>0.03559085892575932</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07112042825179712</v>
+        <v>0.07721334283964092</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07966305580693882</v>
+        <v>0.08699812534674177</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01695837794900655</v>
+        <v>0.01916207639110099</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06042810861207686</v>
+        <v>0.06076204734062104</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0677518943263842</v>
+        <v>0.05160396363426886</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0187296380007009</v>
+        <v>0.006952362614101939</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04822107172443048</v>
+        <v>0.01246770219458181</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01342984167012124</v>
+        <v>0.03923892767177351</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01574968801637333</v>
+        <v>0.03094336397466278</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0158197514362411</v>
+        <v>0.01163245520239033</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01883066115011817</v>
+        <v>0.02251065957385136</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04802468068725864</v>
+        <v>0.001368142056268751</v>
       </c>
       <c r="V21" t="n">
-        <v>0.04349367032917026</v>
+        <v>0.008398120997618405</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01477825293005554</v>
+        <v>0.06603660968855492</v>
       </c>
       <c r="X21" t="n">
-        <v>0.007631541448451509</v>
+        <v>0.03083185330519069</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04566035952724862</v>
+        <v>0.03657763673294186</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0003166359963935109</v>
+        <v>0.009871455229854009</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04693312569462539</v>
+        <v>0.07760610638087007</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05830179305722509</v>
+        <v>0.02778721975813766</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05623893700221876</v>
+        <v>0.02756013450084527</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02297782409903606</v>
+        <v>0.04878758801105861</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01762318399827062</v>
+        <v>0.04302965180209151</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.06412237987640509</v>
+        <v>0.01481702686972627</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.004620130640327564</v>
+        <v>0.007147024443765876</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.05071827082556495</v>
+        <v>-0.03725811028716507</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1649905184185607</v>
+        <v>0.1621206263513454</v>
       </c>
       <c r="F22" t="n">
-        <v>0.009525234212906873</v>
+        <v>0.01717564342348572</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06349779484524433</v>
+        <v>0.01615804581835929</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06227680859996464</v>
+        <v>0.02944458842489139</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0162258995614176</v>
+        <v>0.002248507198570938</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01243232326416703</v>
+        <v>0.04867430850432012</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03697800992876219</v>
+        <v>0.005045140417206075</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0366637556351653</v>
+        <v>0.02479088112247927</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01494215766090622</v>
+        <v>0.01400952989610158</v>
       </c>
       <c r="N22" t="n">
-        <v>0.004697242448857884</v>
+        <v>0.06941912551946189</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03641998431097495</v>
+        <v>0.008399686986016272</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02106074895766039</v>
+        <v>0.05612889602514976</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01280065119092211</v>
+        <v>0.02738456468430271</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06306968719675515</v>
+        <v>0.03666719960879644</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03852193973323588</v>
+        <v>0.01461374828998616</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04869157233657002</v>
+        <v>0.0631208682725007</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01476430449649917</v>
+        <v>0.01230446820841109</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04918368305154696</v>
+        <v>0.0245626387141934</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001075924559035369</v>
+        <v>0.002863462944819844</v>
       </c>
       <c r="X22" t="n">
-        <v>0.05325251869822423</v>
+        <v>0.05423473643404263</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0680864888541812</v>
+        <v>0.0582980587945845</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.076825351602116</v>
+        <v>0.05604206637495841</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02157960132729995</v>
+        <v>0.02918830013062267</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.07509100528845569</v>
+        <v>0.08820544365365525</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.01713795554733874</v>
+        <v>0.003628637233886571</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.06425849490357263</v>
+        <v>0.05131259195323629</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.02942344085932926</v>
+        <v>0.0747830534636565</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.01652600777735973</v>
+        <v>0.04680868473502427</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.03499141315153045</v>
+        <v>0.06448712316728013</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.07613125675983745</v>
+        <v>0.06924214092562987</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.411988405858943</v>
+        <v>0.3210522215793483</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005970092898093363</v>
+        <v>0.07346841224404065</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03257057763746309</v>
+        <v>0.04465880870768191</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0003265982748334701</v>
+        <v>0.03120166615659059</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01740576071409216</v>
+        <v>0.01109979336669514</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03781613209796955</v>
+        <v>0.05319864013262701</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03880900982235623</v>
+        <v>0.02022463875768609</v>
       </c>
       <c r="L23" t="n">
-        <v>0.009492439183889582</v>
+        <v>0.03114448618978831</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04803421964068323</v>
+        <v>0.002930412951183992</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00233556428235345</v>
+        <v>8.219008408415194e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003687076057943892</v>
+        <v>0.005524518166300786</v>
       </c>
       <c r="P23" t="n">
-        <v>0.004880581247270002</v>
+        <v>0.07791221802972276</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03531731868178977</v>
+        <v>0.02722458977024111</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05301640212615683</v>
+        <v>0.0760666533286122</v>
       </c>
       <c r="S23" t="n">
-        <v>0.102618945412896</v>
+        <v>0.05134019937814613</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05371763850781419</v>
+        <v>0.005225982883377104</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03348919681006042</v>
+        <v>0.01081630841971273</v>
       </c>
       <c r="V23" t="n">
-        <v>0.05038781083857288</v>
+        <v>0.009992844162644185</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04816002641946892</v>
+        <v>0.03455954213675153</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01529103751873792</v>
+        <v>0.01843430433965914</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01161034749032871</v>
+        <v>0.0199713401144057</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.006479623325403786</v>
+        <v>0.04522060670224532</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08490471914739783</v>
+        <v>0.07656768716657748</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05186338960417657</v>
+        <v>0.04468166308849289</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.03011043995468399</v>
+        <v>0.00295829041981009</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.09835693954445289</v>
+        <v>0.07221331943182108</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.01941685114805402</v>
+        <v>0.07579748072541684</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.01328163800074841</v>
+        <v>0.03237925112674733</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.09064962361230872</v>
+        <v>0.04510415201893805</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.04567395999044716</v>
+        <v>0.07765514047267943</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1817212045357199</v>
+        <v>0.1826157961411629</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06344633643059162</v>
+        <v>0.01369596531129759</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02973357458456369</v>
+        <v>0.06428276928652181</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01412358331771871</v>
+        <v>0.007018757485593864</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04726586154257501</v>
+        <v>0.05850010248680703</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006562827217686618</v>
+        <v>0.06298843573061952</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01924784374189291</v>
+        <v>0.03915854146069938</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06770732663290029</v>
+        <v>0.04213087577471547</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01550595110360773</v>
+        <v>0.04442414768537271</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04907290874530886</v>
+        <v>0.02995534213890153</v>
       </c>
       <c r="O24" t="n">
-        <v>0.06724697243362265</v>
+        <v>0.009659106003407046</v>
       </c>
       <c r="P24" t="n">
-        <v>0.002814677952161194</v>
+        <v>0.001631075005889414</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05527541609676898</v>
+        <v>0.01163938784255329</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06357764431206681</v>
+        <v>0.01525373204842807</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02631442179772202</v>
+        <v>0.0686239581524451</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02525437222253739</v>
+        <v>0.0616502731984119</v>
       </c>
       <c r="U24" t="n">
-        <v>0.007454781638581919</v>
+        <v>0.03995579418953704</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05939139903214084</v>
+        <v>0.02649396748862336</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05454628027103593</v>
+        <v>0.05765705236144633</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01720338239696818</v>
+        <v>0.01705427187175601</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02920523338419641</v>
+        <v>0.06036712602851026</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.03503298121338779</v>
+        <v>0.05839464841899154</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06162797818333901</v>
+        <v>0.07035410158103272</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04436228455274379</v>
+        <v>0.007729735196787837</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.06459445694546317</v>
+        <v>0.02791828347735641</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0007749630547327568</v>
+        <v>0.04699132479309231</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.002660669924204585</v>
+        <v>0.003212062459693349</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.06702570343723646</v>
+        <v>0.05124187327333833</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.002970167834244744</v>
+        <v>0.002017289248170706</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.06004556024467041</v>
+        <v>0.03790848929130086</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6804229461750755</v>
+        <v>0.2358721300852453</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08227528670267673</v>
+        <v>0.02649857080795727</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003838765340118908</v>
+        <v>0.09398958598100056</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02714376787485335</v>
+        <v>0.06899970735068822</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06250799128329464</v>
+        <v>0.001997998483382355</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05968343090260878</v>
+        <v>0.08237063854842852</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04915926567424834</v>
+        <v>0.06468717691508262</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02979154708319904</v>
+        <v>0.004506015694986809</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01910540878787142</v>
+        <v>0.01177583290125786</v>
       </c>
       <c r="N25" t="n">
-        <v>0.002863181551384326</v>
+        <v>0.05376546374772388</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003215308401807623</v>
+        <v>0.005425891281764582</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0745146309811469</v>
+        <v>0.008772492204284697</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.06653022753028148</v>
+        <v>0.02516232219609868</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01283996901288485</v>
+        <v>0.05611333768711026</v>
       </c>
       <c r="S25" t="n">
-        <v>0.07855921470042629</v>
+        <v>0.002205849296980092</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04557983741980874</v>
+        <v>0.02099120092120614</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05621916224496583</v>
+        <v>0.06573762176430011</v>
       </c>
       <c r="V25" t="n">
-        <v>0.06262591373986505</v>
+        <v>0.07305424740954057</v>
       </c>
       <c r="W25" t="n">
-        <v>0.006199682047320551</v>
+        <v>0.03061867915720657</v>
       </c>
       <c r="X25" t="n">
-        <v>0.08310039100809556</v>
+        <v>0.05823211942254855</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.06929732117229664</v>
+        <v>0.006933639691952934</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.008271495061918755</v>
+        <v>0.06985979323501658</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01863293851508009</v>
+        <v>0.01992813880503194</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.03950221377574191</v>
+        <v>0.009997261992412522</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.009217142630716636</v>
+        <v>0.01575129576914987</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01056467692959343</v>
+        <v>0.06674685159805072</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.006159155229473987</v>
+        <v>0.01694606317657645</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01251711119949507</v>
+        <v>0.03167007187090127</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.496319882507002e-05</v>
+        <v>0.007262132089359397</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.02963942156446982</v>
+        <v>0.04305493236069727</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1753974495959146</v>
+        <v>0.1728615630614485</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03629270479392897</v>
+        <v>0.04663754142962866</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006992584078041772</v>
+        <v>0.005273793057892602</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05016997347121771</v>
+        <v>0.06369903511773249</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01471801023324721</v>
+        <v>0.02315432480327797</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02460135541753318</v>
+        <v>0.03467945932875728</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009072942315101005</v>
+        <v>0.01621755262656492</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05239814462712059</v>
+        <v>0.03623180249075923</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01571435573360785</v>
+        <v>0.01734584694884976</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05439825962518263</v>
+        <v>0.02541101214060319</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04058075512067744</v>
+        <v>0.06305389560681128</v>
       </c>
       <c r="P26" t="n">
-        <v>0.03975240708941857</v>
+        <v>0.03663291268143844</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.006030137465036538</v>
+        <v>8.96736902971419e-05</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07273788717927003</v>
+        <v>0.05249884298246518</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01732541043770034</v>
+        <v>0.03805186897937859</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0324653084373839</v>
+        <v>0.06302969245279526</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01628915688421973</v>
+        <v>0.02568096889759557</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05830518405253541</v>
+        <v>0.04193672682899849</v>
       </c>
       <c r="W26" t="n">
-        <v>0.07977091276224429</v>
+        <v>0.05224722485513803</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02021623262798398</v>
+        <v>0.06631874650570761</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05922994600873623</v>
+        <v>0.06382224733299892</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01302862481572713</v>
+        <v>0.001020276146576846</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04130685440254183</v>
+        <v>0.0105548753124949</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.005990933196998228</v>
+        <v>0.01000092391268288</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01799591920610212</v>
+        <v>0.008400866397445576</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.06048167020339433</v>
+        <v>0.05222178177057101</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.03955454337800079</v>
+        <v>0.06818973405163005</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.03914022454376743</v>
+        <v>0.01588952450456835</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.07543956189328072</v>
+        <v>0.06170884914633976</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1124631730537966</v>
+        <v>0.1073982701158028</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2088942953482489</v>
+        <v>0.2065707666398551</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05528277457316846</v>
+        <v>0.01555404077367148</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007389035260758721</v>
+        <v>0.007012638843734625</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03633081115624002</v>
+        <v>0.05474827385790464</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07229814314993958</v>
+        <v>0.06779338329402834</v>
       </c>
       <c r="J27" t="n">
-        <v>0.002677552500305913</v>
+        <v>0.006356309425736405</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0405658403903618</v>
+        <v>0.07011095874075844</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07252620347070386</v>
+        <v>0.07102495306619311</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02346048911914203</v>
+        <v>0.02105523970194786</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05172697930537574</v>
+        <v>0.069612535987366</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03352866490449982</v>
+        <v>0.05514766157898202</v>
       </c>
       <c r="P27" t="n">
-        <v>0.07092489111658676</v>
+        <v>0.01447967976162383</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.07103618404500023</v>
+        <v>0.02760650863885968</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01735618107811736</v>
+        <v>0.005690818469347536</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03790394701967573</v>
+        <v>0.02072833294986755</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02039304149819294</v>
+        <v>0.06096156953019161</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06842676111310676</v>
+        <v>0.03720015956717417</v>
       </c>
       <c r="V27" t="n">
-        <v>0.005045477289438732</v>
+        <v>0.01369708216015571</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02335195533187725</v>
+        <v>0.003820344949262475</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05415519670670644</v>
+        <v>0.05063061257021231</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.06665356150257064</v>
+        <v>0.07437083052040989</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0003046626818474458</v>
+        <v>0.02814387894467843</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01874783372749739</v>
+        <v>0.04095427496829075</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.004872617805630115</v>
+        <v>0.0004085453935037296</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.009474053125334921</v>
+        <v>0.02357825892643023</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.05338785614301608</v>
+        <v>0.00838557227507551</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.03546575113557245</v>
+        <v>0.02145123686135265</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.04164370582034184</v>
+        <v>0.06936667342465611</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.005069829028991182</v>
+        <v>0.06010962481858499</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1326706872921423</v>
+        <v>0.1398827576158806</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1590473206242776</v>
+        <v>0.1525543507564977</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02076979400359295</v>
+        <v>0.04525370152281919</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05763813186327492</v>
+        <v>0.05552346537346863</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01102415458190386</v>
+        <v>0.01761863165897885</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0008029929027648858</v>
+        <v>0.0008116153479458419</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04915336097738859</v>
+        <v>0.03374571081074262</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01798865194112204</v>
+        <v>0.0291129757186333</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001900449896278132</v>
+        <v>0.001622439793205147</v>
       </c>
       <c r="M28" t="n">
-        <v>0.007860480663175263</v>
+        <v>0.01482502221586925</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01103048131022705</v>
+        <v>0.07533950660446459</v>
       </c>
       <c r="O28" t="n">
-        <v>0.007213256989024019</v>
+        <v>0.0335159320405768</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05159024483548313</v>
+        <v>0.03678415201415507</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02508065691572151</v>
+        <v>0.004744432524341529</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05827631554334604</v>
+        <v>0.01885039484030717</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02809719007545779</v>
+        <v>0.05280166388904761</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02976246603126962</v>
+        <v>0.02403482853757419</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06231024103918471</v>
+        <v>0.03961708962384192</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06256073291239862</v>
+        <v>0.04554560233008963</v>
       </c>
       <c r="W28" t="n">
-        <v>0.008608917621439189</v>
+        <v>0.06557780607613206</v>
       </c>
       <c r="X28" t="n">
-        <v>0.007559941818161812</v>
+        <v>0.004241540258518531</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.04045343274007575</v>
+        <v>0.07177746087236034</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.07006971963939918</v>
+        <v>0.01128949688667337</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0372549633471418</v>
+        <v>0.02956004303546326</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06022524819992712</v>
+        <v>0.07104007459317739</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.03807767445280741</v>
+        <v>0.04568931393749767</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06494509425328168</v>
+        <v>0.05044055157898207</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.03960687061844308</v>
+        <v>0.01666688293514796</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.07150144862322734</v>
+        <v>0.03362638439715047</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0586370862044826</v>
+        <v>0.0703432805828355</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.1059480505173626</v>
+        <v>0.1131630080145592</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.17017147197742</v>
+        <v>0.186271481948028</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05572766857880729</v>
+        <v>0.04129285896855927</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04295484549031578</v>
+        <v>0.06677476767320772</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005257397522462058</v>
+        <v>0.06808618461082126</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002840537512537873</v>
+        <v>0.003057802613570991</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02878666483978012</v>
+        <v>0.001555836912697212</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01186311923829019</v>
+        <v>0.02058725988749418</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002393293331695423</v>
+        <v>0.005928748532019436</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02801385190370148</v>
+        <v>0.01001459509453754</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08795804141846424</v>
+        <v>0.05764036500764209</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07958999869691263</v>
+        <v>0.06745050641704692</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0434758951048216</v>
+        <v>0.07757485440562822</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01706155600273337</v>
+        <v>0.02562822077054088</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02369127219528516</v>
+        <v>0.007219196696149628</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01084093760738163</v>
+        <v>0.01435538310550078</v>
       </c>
       <c r="T29" t="n">
-        <v>0.006646343214785263</v>
+        <v>0.05483321584771331</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02646517671001339</v>
+        <v>0.07061265565085773</v>
       </c>
       <c r="V29" t="n">
-        <v>0.004548775124649056</v>
+        <v>0.04812796231637222</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03154425768463814</v>
+        <v>0.004065017999859441</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04431087228662531</v>
+        <v>0.04966221726767042</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.09061376394821659</v>
+        <v>0.02849993790616923</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0427107743386251</v>
+        <v>0.01392463586453301</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03805667816812886</v>
+        <v>0.07299151498881684</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.08413491657944071</v>
+        <v>0.01648821760352473</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.05666839315614409</v>
+        <v>0.0107172512807623</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.05848265323761315</v>
+        <v>0.02030977569612402</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0251481783112019</v>
+        <v>0.01379574991319396</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.02713844252992027</v>
+        <v>0.06481104651138898</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.02307569526680937</v>
+        <v>0.06399422045759763</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1265292414148519</v>
+        <v>0.1439690968699943</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1302323171908616</v>
+        <v>0.1294269981984822</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03132419156594849</v>
+        <v>0.02203971180516494</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03094863274279859</v>
+        <v>0.08147519499866737</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04137268367463165</v>
+        <v>0.04450910679376378</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01569441748105911</v>
+        <v>0.04249157865740293</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01730540639872163</v>
+        <v>0.04366623780244744</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0192209738534846</v>
+        <v>0.007714132202150274</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04674065222723851</v>
+        <v>0.01354921982482031</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02377054608762238</v>
+        <v>0.008041826103047765</v>
       </c>
       <c r="N30" t="n">
-        <v>0.06577886759435715</v>
+        <v>0.04879995462515051</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01814556966798426</v>
+        <v>0.001450205141006757</v>
       </c>
       <c r="P30" t="n">
-        <v>0.003193884083258137</v>
+        <v>0.0268060296405807</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.004036666280162167</v>
+        <v>0.02315367268192482</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05441187506232767</v>
+        <v>0.03621812480413321</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05652962792706036</v>
+        <v>0.07428781251956827</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0448977199668453</v>
+        <v>0.06572067721480483</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04566961311473086</v>
+        <v>0.00910405189198522</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03368041431268156</v>
+        <v>0.03550706591150154</v>
       </c>
       <c r="W30" t="n">
-        <v>0.04905182829958877</v>
+        <v>0.03155702115380514</v>
       </c>
       <c r="X30" t="n">
-        <v>0.002674728611592702</v>
+        <v>0.001840749249066909</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.06745246560975512</v>
+        <v>0.05685095417069591</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.008381534257018328</v>
+        <v>0.0260184847606315</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.06187241967504246</v>
+        <v>0.05054830495014492</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.04647131039298685</v>
+        <v>0.07057194323731428</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.04442756013783355</v>
+        <v>0.07075620940653561</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.06202242843903054</v>
+        <v>0.002009476123686339</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.002007102575300774</v>
+        <v>0.04338261266357978</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.03870526732295972</v>
+        <v>0.0161853968292864</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.06421161263797864</v>
+        <v>0.04574424483713258</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07546133518422544</v>
+        <v>0.07030092853317786</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1370186258848944</v>
+        <v>0.1398271354863633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01125075060105451</v>
+        <v>0.06605262225106236</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0323784494401783</v>
+        <v>0.05367280805556326</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04805133816357277</v>
+        <v>0.05902329993943801</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05178917059802639</v>
+        <v>0.06489308177038211</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01304737813676677</v>
+        <v>0.004655727525898191</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00653143900150294</v>
+        <v>0.003995212288083362</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0405879065103134</v>
+        <v>0.0152764622260118</v>
       </c>
       <c r="M31" t="n">
-        <v>0.007038670508732576</v>
+        <v>0.05485294091626031</v>
       </c>
       <c r="N31" t="n">
-        <v>0.03650921156870284</v>
+        <v>0.03459912407539233</v>
       </c>
       <c r="O31" t="n">
-        <v>0.002235667011821973</v>
+        <v>0.000411397108210929</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06458753135026842</v>
+        <v>0.06359903711531985</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.008615026817078464</v>
+        <v>0.01403268089900275</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0505058312204428</v>
+        <v>0.04874525650676476</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04098764072995831</v>
+        <v>0.05131027336105941</v>
       </c>
       <c r="T31" t="n">
-        <v>0.06644652851754876</v>
+        <v>0.009686436513669646</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02419023299976248</v>
+        <v>0.00342538416876382</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03395204339812335</v>
+        <v>0.01561755824840476</v>
       </c>
       <c r="W31" t="n">
-        <v>0.04438952003641957</v>
+        <v>0.06635123038063455</v>
       </c>
       <c r="X31" t="n">
-        <v>0.01067548399014533</v>
+        <v>0.009792201745604833</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02685994506528149</v>
+        <v>0.05647776151779068</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0526233006067772</v>
+        <v>0.009757113204711211</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05945008488475674</v>
+        <v>0.04896452581962035</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0225801138734983</v>
+        <v>0.05206149929047266</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.06704435744817468</v>
+        <v>0.04375388239230377</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.04655404245190983</v>
+        <v>0.06103122945526674</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.04816020275656289</v>
+        <v>0.01543269685752835</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.05257829489935395</v>
+        <v>0.05538728225964273</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.03037983741326499</v>
+        <v>0.01714127410713654</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.06937057928091164</v>
+        <v>0.07086164524611151</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.09988624317406218</v>
+        <v>0.1026291501983077</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0408239667486618</v>
+        <v>0.02304838531096033</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02719412542130049</v>
+        <v>0.03949750618615056</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0236091216106729</v>
+        <v>0.01842049812002615</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04074864197470802</v>
+        <v>0.07371919830528936</v>
       </c>
       <c r="J32" t="n">
-        <v>0.006665071344106266</v>
+        <v>0.01244144121927462</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02044753878809934</v>
+        <v>0.03243198304626723</v>
       </c>
       <c r="L32" t="n">
-        <v>0.07230870102672197</v>
+        <v>0.04745888470473016</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02888825200215719</v>
+        <v>0.0604433833040194</v>
       </c>
       <c r="N32" t="n">
-        <v>0.005760658091934495</v>
+        <v>0.005013257728035633</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01424499075666359</v>
+        <v>0.02960899044385339</v>
       </c>
       <c r="P32" t="n">
-        <v>0.05340937210594458</v>
+        <v>0.05199483122367692</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01502267656888306</v>
+        <v>0.01954382765410451</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05799211166189783</v>
+        <v>0.04972466642372392</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01386721276690924</v>
+        <v>0.01641611504243068</v>
       </c>
       <c r="T32" t="n">
-        <v>0.04142476732969318</v>
+        <v>0.008463025094148756</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01190792234856086</v>
+        <v>0.04334736284814777</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01564145615980586</v>
+        <v>0.05185222931784636</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0615817223139161</v>
+        <v>0.06292312947664866</v>
       </c>
       <c r="X32" t="n">
-        <v>0.00552852131068603</v>
+        <v>0.01950986040016933</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.05503960043842189</v>
+        <v>0.04033448819383337</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.03654174587585583</v>
+        <v>0.01423969540986582</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0422101423657673</v>
+        <v>0.03623159347863809</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03549396021072731</v>
+        <v>0.022812623714595</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.06897204426955528</v>
+        <v>0.02647375015454782</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.05747118609612531</v>
+        <v>0.05928050533275322</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.06770575391869706</v>
+        <v>0.05906721177982995</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.03281316566705869</v>
+        <v>0.04304935424538171</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.04668557082646847</v>
+        <v>0.03265220184105116</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.06208062793028747</v>
+        <v>0.05320511211118779</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1211916404482202</v>
+        <v>0.1158302781744883</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0246976673621923</v>
+        <v>0.02579480038561577</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0177510486726571</v>
+        <v>0.02990153533547858</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06129223295280346</v>
+        <v>0.06026141376253834</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06796093544517913</v>
+        <v>0.07217193988774669</v>
       </c>
       <c r="J33" t="n">
-        <v>0.06233501068147133</v>
+        <v>0.0415111401608312</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0247972897399227</v>
+        <v>0.003045694180087253</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05525355213319887</v>
+        <v>0.02641815617475248</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04216816350767225</v>
+        <v>0.04303564830747327</v>
       </c>
       <c r="N33" t="n">
-        <v>0.02955074264793149</v>
+        <v>0.007005237166984685</v>
       </c>
       <c r="O33" t="n">
-        <v>0.005133497915740815</v>
+        <v>0.004859773818864093</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05507607136461436</v>
+        <v>0.03531106234349952</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01114140101056941</v>
+        <v>0.02039456628910953</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01014905840857363</v>
+        <v>0.02885368384093866</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03169165236428877</v>
+        <v>0.01944881051127298</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06752156490548109</v>
+        <v>0.01842938492734077</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02698409724877676</v>
+        <v>0.005759238262852392</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0198069711576014</v>
+        <v>0.01551673559610988</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03690110401485283</v>
+        <v>0.05476924530215542</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0484415920512245</v>
+        <v>0.03676091431398675</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.009921773653856391</v>
+        <v>0.06637893226138018</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.06764286928395967</v>
+        <v>0.06955238910308842</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.009385194003487704</v>
+        <v>0.05219955245751424</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.000147143205007457</v>
+        <v>0.03960012688674781</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.001463491689056809</v>
+        <v>0.03318259174760201</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.06388666204743106</v>
+        <v>0.03237321681420407</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0619508983927698</v>
+        <v>0.04903090273679133</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.06923362003489282</v>
+        <v>0.07389621056519062</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.01771469410478605</v>
+        <v>0.03453709685984299</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.0464323190562861</v>
+        <v>0.0482339694822452</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1466442099582101</v>
+        <v>0.1345960081698032</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03532905513301298</v>
+        <v>0.06428772594524246</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01696630132571291</v>
+        <v>0.007398855229435963</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07360630175890442</v>
+        <v>0.08675455803005647</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03038894843504176</v>
+        <v>0.01060692452442173</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03394655882679004</v>
+        <v>0.02183574027814517</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04338329365851175</v>
+        <v>0.009238381859193116</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02980175539009573</v>
+        <v>0.03277359286517073</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06276178116779708</v>
+        <v>0.02703303430523332</v>
       </c>
       <c r="N34" t="n">
-        <v>0.004104215194175002</v>
+        <v>0.008568701295589721</v>
       </c>
       <c r="O34" t="n">
-        <v>0.006797784966213092</v>
+        <v>0.02219409957293537</v>
       </c>
       <c r="P34" t="n">
-        <v>0.07361916104825651</v>
+        <v>0.07819350894484876</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.001170832159366611</v>
+        <v>0.009282511426457892</v>
       </c>
       <c r="R34" t="n">
-        <v>0.009032559137570695</v>
+        <v>0.02659871535452267</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01473313946556934</v>
+        <v>0.01180439473785507</v>
       </c>
       <c r="T34" t="n">
-        <v>0.08367549192987921</v>
+        <v>0.02007771571200207</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04068594108800288</v>
+        <v>0.0945242050402333</v>
       </c>
       <c r="V34" t="n">
-        <v>0.04953805408645791</v>
+        <v>0.08873308057204343</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02051093655487249</v>
+        <v>0.09037374070083598</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02089806184745499</v>
+        <v>0.0147587028021755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0850101143877883</v>
+        <v>0.06038746866802382</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.03323110836317323</v>
+        <v>0.02340942445187747</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.00908736738665648</v>
+        <v>0.01976486171132485</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.00696743983724351</v>
+        <v>0.001939434105792781</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05193129423735223</v>
+        <v>0.01298357469492541</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.002008919856627201</v>
+        <v>0.001622039692537603</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.06240949122501219</v>
+        <v>0.03997661347631191</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.04150294230872082</v>
+        <v>0.03616903695269117</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.05690114922374041</v>
+        <v>0.07870935705011632</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.02025180752733568</v>
+        <v>-0.007082817274089428</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1886114220843343</v>
+        <v>0.2211413404106619</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07125908711354273</v>
+        <v>0.03492905986710704</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07496605898353768</v>
+        <v>0.07006006929936759</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01092518502226189</v>
+        <v>0.0003677487902773899</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07305027004132335</v>
+        <v>0.03937429158744608</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005175722661739027</v>
+        <v>0.06490397384450006</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04706566502736247</v>
+        <v>0.07179136765290361</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03783488413361643</v>
+        <v>0.05063989491843934</v>
       </c>
       <c r="M35" t="n">
-        <v>0.004800894664532787</v>
+        <v>0.02313506128013343</v>
       </c>
       <c r="N35" t="n">
-        <v>0.04416542049055609</v>
+        <v>0.01004599037019375</v>
       </c>
       <c r="O35" t="n">
-        <v>0.001176871982504297</v>
+        <v>0.02772534171621637</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0716612934605806</v>
+        <v>0.02390281101027947</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.006183004880843525</v>
+        <v>0.01586945621429693</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01607627518354301</v>
+        <v>0.009215559817565487</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0165354432536836</v>
+        <v>0.04376041228043389</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0449096079231632</v>
+        <v>0.01179480033898347</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03186976970692326</v>
+        <v>0.02495555922269336</v>
       </c>
       <c r="V35" t="n">
-        <v>0.05479346328509492</v>
+        <v>0.01261143066980423</v>
       </c>
       <c r="W35" t="n">
-        <v>0.04517726215070642</v>
+        <v>0.03679875283761436</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02304691758294971</v>
+        <v>0.0219197259224172</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.04090478608749296</v>
+        <v>0.077255557815916</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.05708198428775391</v>
+        <v>0.06152865214046008</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.05702263876021064</v>
+        <v>0.03929888273844866</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.04287599926301695</v>
+        <v>0.006595499223013111</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.02052119062644329</v>
+        <v>0.02632543872208884</v>
       </c>
       <c r="AD35" t="n">
-        <v>3.011907988376804e-05</v>
+        <v>0.02397844309869881</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.02522626053964258</v>
+        <v>0.05838369804402484</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.02378692760660365</v>
+        <v>0.06885124084214697</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0518769962004874</v>
+        <v>0.04398127973452955</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.01988389647123248</v>
+        <v>0.01344832753129484</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1031326951441188</v>
+        <v>0.1031903333979541</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03080123417090684</v>
+        <v>0.006382378376569206</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0005949758012449178</v>
+        <v>0.004245245097830322</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01818216919399753</v>
+        <v>0.04127547805969444</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05150696928997667</v>
+        <v>0.05764801236217948</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06905205764430535</v>
+        <v>0.05897584251205947</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003129587876827857</v>
+        <v>0.002380890389933677</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04837116989679598</v>
+        <v>0.04990155199023054</v>
       </c>
       <c r="M36" t="n">
-        <v>0.001796029542982202</v>
+        <v>0.02050513940261094</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05526652119165199</v>
+        <v>0.008852136160835801</v>
       </c>
       <c r="O36" t="n">
-        <v>0.07655742000483137</v>
+        <v>0.03707614407639853</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02088210401506496</v>
+        <v>0.02633652932099602</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.003890265331052155</v>
+        <v>0.001381030125232721</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04806835318599979</v>
+        <v>0.076081105516434</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0171365806770856</v>
+        <v>0.02291529108821676</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03112558547653605</v>
+        <v>0.002683946965815984</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02493241763830762</v>
+        <v>0.08172355427866704</v>
       </c>
       <c r="V36" t="n">
-        <v>0.007801275260179794</v>
+        <v>0.05450014578236059</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05981385602393494</v>
+        <v>0.07200197340120831</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01781817406681938</v>
+        <v>0.01179247366406228</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.07192312202205406</v>
+        <v>0.04992984978439716</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03393093655073622</v>
+        <v>0.0007237425995595421</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.003199410890676106</v>
+        <v>0.041200882606902</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.07234224458706599</v>
+        <v>0.07800573501738368</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.06638622615558676</v>
+        <v>0.08049893309395023</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.03998609524376542</v>
+        <v>0.009035691907946888</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.06223997822678796</v>
+        <v>0.07823584246961428</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.03321741637818407</v>
+        <v>0.00392697217532091</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.03004782365664243</v>
+        <v>0.02178348177358934</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.02555369010917101</v>
+        <v>-0.00788876241927247</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.317702988788809</v>
+        <v>0.3973186308919372</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0006815766107005825</v>
+        <v>0.04665304250598581</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01137549299145905</v>
+        <v>0.01693587057518551</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03468169584075433</v>
+        <v>0.002507072809106053</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01661196655388301</v>
+        <v>0.05575043423550231</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02288708308761584</v>
+        <v>0.0164552605919473</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0844783296703024</v>
+        <v>0.07668274274546343</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02034421682523236</v>
+        <v>0.06419263542300656</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04806958885031933</v>
+        <v>0.03203440920825039</v>
       </c>
       <c r="N37" t="n">
-        <v>0.01273798807467612</v>
+        <v>0.06218036142656694</v>
       </c>
       <c r="O37" t="n">
-        <v>0.07143686719905545</v>
+        <v>0.05390800845435215</v>
       </c>
       <c r="P37" t="n">
-        <v>0.05761428710625917</v>
+        <v>0.02722396320138559</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.03536202307044855</v>
+        <v>0.02163187761024453</v>
       </c>
       <c r="R37" t="n">
-        <v>0.02395922839781251</v>
+        <v>0.02366353569521518</v>
       </c>
       <c r="S37" t="n">
-        <v>0.07190474525143789</v>
+        <v>0.04490220195480808</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04369272999285458</v>
+        <v>0.03844343379402256</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02318429230694919</v>
+        <v>0.0004999623196090484</v>
       </c>
       <c r="V37" t="n">
-        <v>0.009692222609323014</v>
+        <v>0.02564777411962273</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08571780147624289</v>
+        <v>0.04437680656815607</v>
       </c>
       <c r="X37" t="n">
-        <v>0.005712788031978683</v>
+        <v>0.03953032890582308</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.06615582730909633</v>
+        <v>0.05550830362169482</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.04820977896213269</v>
+        <v>0.01060100844989729</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.003714984117471488</v>
+        <v>0.01482876183462165</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.04086035448099452</v>
+        <v>0.00254732462821775</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01568913300164115</v>
+        <v>0.02094395204222961</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0507012361310113</v>
+        <v>0.07916390091135309</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.01169212813374733</v>
+        <v>0.02134217502378331</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.05803713088348299</v>
+        <v>0.07590184866246859</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.02479450303311708</v>
+        <v>0.02594300268148057</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.0205369198669224</v>
+        <v>-0.006905272940685193</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1228369887757229</v>
+        <v>0.1247894865431773</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03882374074657592</v>
+        <v>0.06048473833528402</v>
       </c>
       <c r="G38" t="n">
-        <v>0.006063331688749479</v>
+        <v>0.007070899234783101</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03118531933953467</v>
+        <v>0.04811351933615529</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06942586247729043</v>
+        <v>0.04711849795771206</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0669391331008759</v>
+        <v>8.345822358815343e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>0.004454516861624127</v>
+        <v>0.05357446091979768</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02757938256815989</v>
+        <v>0.001413407730117959</v>
       </c>
       <c r="M38" t="n">
-        <v>0.04787424118707814</v>
+        <v>0.006981422441012753</v>
       </c>
       <c r="N38" t="n">
-        <v>0.04821059540498046</v>
+        <v>0.003614480327727773</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02120026046217759</v>
+        <v>0.07112249560519977</v>
       </c>
       <c r="P38" t="n">
-        <v>0.002378632171120108</v>
+        <v>0.0009041586996531992</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02768175343905255</v>
+        <v>0.04558936331027828</v>
       </c>
       <c r="R38" t="n">
-        <v>0.02568686584511713</v>
+        <v>0.01346185270189004</v>
       </c>
       <c r="S38" t="n">
-        <v>0.007257184178290313</v>
+        <v>0.04511129508305642</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03832045634722903</v>
+        <v>0.03513301566294759</v>
       </c>
       <c r="U38" t="n">
-        <v>0.009470226082419294</v>
+        <v>0.01823385263580022</v>
       </c>
       <c r="V38" t="n">
-        <v>0.05800537681994272</v>
+        <v>0.06000188442573363</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02683454010287228</v>
+        <v>0.07573740153169184</v>
       </c>
       <c r="X38" t="n">
-        <v>0.012407824696133</v>
+        <v>0.05903091146276581</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01210646246672258</v>
+        <v>0.07669572286208592</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01162540777198722</v>
+        <v>0.003682354091994862</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.06672070716704696</v>
+        <v>0.03931788671220322</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.06060704152706452</v>
+        <v>0.02606598729925056</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.06830217151619679</v>
+        <v>0.07721871499545574</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.03769887795469067</v>
+        <v>0.00645025028962776</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.07333002839525579</v>
+        <v>0.04157213686860443</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.03547306199565221</v>
+        <v>0.00101428867269302</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.06433699768616027</v>
+        <v>0.07520154258288901</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05535684376067237</v>
+        <v>0.0372065149879895</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2105094427400955</v>
+        <v>0.1541556052915882</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0003776532788859722</v>
+        <v>0.007609776669770136</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06210503804389861</v>
+        <v>0.02376161923794795</v>
       </c>
       <c r="H39" t="n">
-        <v>0.007396581970858286</v>
+        <v>0.01039844461471434</v>
       </c>
       <c r="I39" t="n">
-        <v>0.07396168913311534</v>
+        <v>0.01000366561313311</v>
       </c>
       <c r="J39" t="n">
-        <v>0.07298797500731517</v>
+        <v>0.01770346001934012</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06243599237009506</v>
+        <v>0.06975338942640198</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01986641238861105</v>
+        <v>0.01707329296265293</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01860242965785516</v>
+        <v>0.06136601180441869</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05045196194425235</v>
+        <v>0.04218905705946484</v>
       </c>
       <c r="O39" t="n">
-        <v>0.006765014235760547</v>
+        <v>0.006235350702068616</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01657231314692311</v>
+        <v>0.01719313860688221</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04899566571724934</v>
+        <v>0.07045340289449742</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01032739251173364</v>
+        <v>0.01586877904260699</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01617894384374113</v>
+        <v>0.04211191470646562</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03004130743721636</v>
+        <v>0.04430237079244281</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004066232431647609</v>
+        <v>0.05842899114641437</v>
       </c>
       <c r="V39" t="n">
-        <v>0.05516031430585532</v>
+        <v>0.03675563291309612</v>
       </c>
       <c r="W39" t="n">
-        <v>0.07837910986162699</v>
+        <v>0.0675666803647286</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0005182040697040169</v>
+        <v>0.05836692165704254</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.01878981483456534</v>
+        <v>0.06259557979877622</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.03386737648054254</v>
+        <v>0.001846813479594716</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.07694129804128626</v>
+        <v>0.0633908778704074</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0341646011653392</v>
+        <v>0.01056016698218991</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.03726084542196858</v>
+        <v>0.03309529317434957</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.06397985012966409</v>
+        <v>0.06507072921319464</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.05819185230010284</v>
+        <v>0.05743253077115382</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.0373518793357055</v>
+        <v>0.02847703829316258</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.004262250934480562</v>
+        <v>0.000389070183081776</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.04326744393488412</v>
+        <v>0.0663204996857413</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1338331372622679</v>
+        <v>0.1304214622884245</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07940695332123054</v>
+        <v>0.02009641258469104</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05910028139961775</v>
+        <v>0.001567559552363928</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001039365232598871</v>
+        <v>0.005900949286004561</v>
       </c>
       <c r="I40" t="n">
-        <v>0.008812998519725692</v>
+        <v>0.006312756638386754</v>
       </c>
       <c r="J40" t="n">
-        <v>0.007591814224300423</v>
+        <v>0.005736768013475666</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01409380043375136</v>
+        <v>0.0137599814709375</v>
       </c>
       <c r="L40" t="n">
-        <v>0.05301854217730136</v>
+        <v>0.006849153452319226</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0005702363424003304</v>
+        <v>0.05512601050307345</v>
       </c>
       <c r="N40" t="n">
-        <v>0.08517608172339662</v>
+        <v>0.07525376441156907</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01949153926392208</v>
+        <v>0.0222880718407469</v>
       </c>
       <c r="P40" t="n">
-        <v>0.03841639133363606</v>
+        <v>0.02688837200326518</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01483929085240767</v>
+        <v>0.04893764737288899</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07441409079043006</v>
+        <v>0.02225803487084608</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0238300566675881</v>
+        <v>0.002485485800585111</v>
       </c>
       <c r="T40" t="n">
-        <v>0.003691786505748642</v>
+        <v>0.003805750705289337</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05023927092770736</v>
+        <v>0.05408551073238331</v>
       </c>
       <c r="V40" t="n">
-        <v>0.07513954926646522</v>
+        <v>0.09713260954342412</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02703496720893039</v>
+        <v>0.03613933162716122</v>
       </c>
       <c r="X40" t="n">
-        <v>0.002157669976320933</v>
+        <v>0.07909693442539757</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.05579492791424008</v>
+        <v>0.02201128463828417</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0004408088041394743</v>
+        <v>0.004476880620068772</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.05654031010300142</v>
+        <v>0.08718454619200924</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05069066079311657</v>
+        <v>0.09215188370475762</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.02609621635906925</v>
+        <v>0.03396897775254459</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.002204665561829487</v>
+        <v>0.02830752633822871</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.04813913830601196</v>
+        <v>0.0754958379962468</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.03856298144367765</v>
+        <v>0.009792912455427443</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.08346560454743458</v>
+        <v>0.06288904546762376</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.04076673964112752</v>
+        <v>0.03232882613625514</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.186230407949788</v>
+        <v>0.4063533453419884</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03631070292134865</v>
+        <v>0.05343959024181699</v>
       </c>
       <c r="G41" t="n">
-        <v>0.009520813712255119</v>
+        <v>0.05879666963910374</v>
       </c>
       <c r="H41" t="n">
-        <v>0.009451866028737065</v>
+        <v>0.02101086242639545</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08042288244480165</v>
+        <v>0.006661125404181908</v>
       </c>
       <c r="J41" t="n">
-        <v>0.006432536996029649</v>
+        <v>0.0009008121395747887</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07618427420226136</v>
+        <v>0.0731119813618214</v>
       </c>
       <c r="L41" t="n">
-        <v>0.05454351534963352</v>
+        <v>0.02607920131527438</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05189107027170767</v>
+        <v>0.02009973234871234</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01827936783718754</v>
+        <v>0.01787520674363155</v>
       </c>
       <c r="O41" t="n">
-        <v>0.008509015496518928</v>
+        <v>0.00981521886272828</v>
       </c>
       <c r="P41" t="n">
-        <v>0.03786650969833848</v>
+        <v>0.07831790334518274</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.07335704847247572</v>
+        <v>0.01425155990110614</v>
       </c>
       <c r="R41" t="n">
-        <v>0.001026019925025061</v>
+        <v>0.004202439061469296</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01929516580278126</v>
+        <v>0.0235379692215931</v>
       </c>
       <c r="T41" t="n">
-        <v>0.02000883702878507</v>
+        <v>0.07635226387402798</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04377145605339872</v>
+        <v>0.03355282348380968</v>
       </c>
       <c r="V41" t="n">
-        <v>0.03994748303962983</v>
+        <v>0.05514038746796388</v>
       </c>
       <c r="W41" t="n">
-        <v>0.06667414266569817</v>
+        <v>0.05611243355279288</v>
       </c>
       <c r="X41" t="n">
-        <v>0.05788562570559062</v>
+        <v>0.06385772968686838</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01179533391401262</v>
+        <v>0.002381166281357274</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.03705774129960741</v>
+        <v>0.02389566784883912</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.05344444398933822</v>
+        <v>0.04660618052037627</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.001186452353102364</v>
+        <v>0.08016752644293113</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.01064169674819897</v>
+        <v>0.06472501948039246</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.08040401765182599</v>
+        <v>0.06366626592643426</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.005488916890098965</v>
+        <v>0.01698545752725594</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.07903480885001883</v>
+        <v>0.006062056416091317</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.009568254651592584</v>
+        <v>0.002394749478267376</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.05433945555651873</v>
+        <v>0.0296526909029519</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.131884691060987</v>
+        <v>0.132926783523597</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01402280674693704</v>
+        <v>0.04773936042495661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005012559745358369</v>
+        <v>0.01493216175673965</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06451702790330789</v>
+        <v>0.02172381682106814</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0512333201729122</v>
+        <v>0.04518813182712152</v>
       </c>
       <c r="J42" t="n">
-        <v>0.001911361874799286</v>
+        <v>0.005705898656617647</v>
       </c>
       <c r="K42" t="n">
-        <v>0.06770258888407424</v>
+        <v>0.01481325588053451</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06620186295532778</v>
+        <v>0.05847184055717382</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00162372265334202</v>
+        <v>0.0005542421183318372</v>
       </c>
       <c r="N42" t="n">
-        <v>0.060182861975683</v>
+        <v>0.05327321228400705</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01665666318921091</v>
+        <v>0.005741481986173882</v>
       </c>
       <c r="P42" t="n">
-        <v>0.04517206877708915</v>
+        <v>0.0595875818920567</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02320882159536729</v>
+        <v>0.0319789325461906</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05905891174841211</v>
+        <v>0.04641826472924838</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07015647112538963</v>
+        <v>0.06304428928469367</v>
       </c>
       <c r="T42" t="n">
-        <v>0.007477147332416305</v>
+        <v>0.03469687227544475</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0008234738500448932</v>
+        <v>0.005670683652392617</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0224434062534793</v>
+        <v>0.002495052719269533</v>
       </c>
       <c r="W42" t="n">
-        <v>0.04941294256838914</v>
+        <v>0.02119450581197862</v>
       </c>
       <c r="X42" t="n">
-        <v>0.01021966350343989</v>
+        <v>0.04334656109877141</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.01597066633250021</v>
+        <v>0.05483601911809979</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.01462754958975133</v>
+        <v>0.04776468189958616</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.07074790607594694</v>
+        <v>0.03555426795874404</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.06179873843270783</v>
+        <v>0.06970492817324535</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.06920679270812419</v>
+        <v>0.03976477262600458</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.02387655273668271</v>
+        <v>0.04221164264800877</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.04256459915817439</v>
+        <v>0.06149813944475592</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.02121807975923498</v>
+        <v>0.04150379032265226</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.04295143235189696</v>
+        <v>0.03058561148613246</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.06634613467839395</v>
+        <v>0.06117008341610763</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6124395827814014</v>
+        <v>0.2714547127326156</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07817489346742545</v>
+        <v>0.07482720253516667</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05359409757976138</v>
+        <v>0.033157253567188</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01494099136621457</v>
+        <v>0.07493586410135308</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0136917438257655</v>
+        <v>0.04137936782554596</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0007753619407180541</v>
+        <v>0.07797128278855157</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03461271377029614</v>
+        <v>0.006012230960265952</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04485613481247662</v>
+        <v>0.06814441631691209</v>
       </c>
       <c r="M43" t="n">
-        <v>0.08023823786608017</v>
+        <v>0.0005878324187763384</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02529532286903926</v>
+        <v>0.01962763555218185</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0106718676879332</v>
+        <v>0.03360249060262116</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0004564151504976619</v>
+        <v>0.05047304492051446</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.06859851296550395</v>
+        <v>0.0125881989481616</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01669895274153925</v>
+        <v>0.01002686771896217</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02826310090001664</v>
+        <v>0.01776956686411131</v>
       </c>
       <c r="T43" t="n">
-        <v>0.08343202654638253</v>
+        <v>0.07735713232531864</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0003507914750419318</v>
+        <v>0.02233660715381673</v>
       </c>
       <c r="V43" t="n">
-        <v>0.007094849269060659</v>
+        <v>0.03247292097517182</v>
       </c>
       <c r="W43" t="n">
-        <v>0.08979420887834454</v>
+        <v>0.01792541338215523</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0763961340310495</v>
+        <v>0.02487050849633625</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.04512784150535281</v>
+        <v>0.01766403347547085</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01504338038062665</v>
+        <v>0.04562943619286236</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.01784348116795225</v>
+        <v>0.05885273043594624</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.01518998006929392</v>
+        <v>0.01014074527207875</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.01424352368332245</v>
+        <v>0.002979404661356808</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.07281823806282482</v>
+        <v>0.03067169261438051</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.02024866831323824</v>
+        <v>0.07329687964733395</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.03732761885339223</v>
+        <v>0.04879413052729475</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.03422091082084954</v>
+        <v>0.01590510972016498</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.09292681442687158</v>
+        <v>0.07871099396561926</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1274697072041425</v>
+        <v>0.1287979660907851</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00886552558654421</v>
+        <v>0.0419062106757601</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06002570370155409</v>
+        <v>0.02529674189598045</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02876735406314308</v>
+        <v>0.03249651746923896</v>
       </c>
       <c r="I44" t="n">
-        <v>0.002051080266579905</v>
+        <v>0.004995042099927252</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0004133830023442447</v>
+        <v>0.004112539297193143</v>
       </c>
       <c r="K44" t="n">
-        <v>0.002647312449718259</v>
+        <v>0.059077620126922</v>
       </c>
       <c r="L44" t="n">
-        <v>0.01270298141596331</v>
+        <v>0.0367374786530793</v>
       </c>
       <c r="M44" t="n">
-        <v>0.007539572879756767</v>
+        <v>0.02649317478728805</v>
       </c>
       <c r="N44" t="n">
-        <v>0.007644386135656427</v>
+        <v>0.03486961202496731</v>
       </c>
       <c r="O44" t="n">
-        <v>0.07142597058126753</v>
+        <v>0.04229629052125778</v>
       </c>
       <c r="P44" t="n">
-        <v>0.03154600672296384</v>
+        <v>0.005529975520524039</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.007787344227678007</v>
+        <v>0.0003425429480292866</v>
       </c>
       <c r="R44" t="n">
-        <v>0.06126912444872266</v>
+        <v>0.05869596685702948</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06905293676141697</v>
+        <v>0.05587481454874016</v>
       </c>
       <c r="T44" t="n">
-        <v>0.05742600937119473</v>
+        <v>0.05805490882944524</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06999430389226464</v>
+        <v>0.04289462678999265</v>
       </c>
       <c r="V44" t="n">
-        <v>0.06403971046848279</v>
+        <v>0.04304597548804733</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07062055261087474</v>
+        <v>0.06344114064806866</v>
       </c>
       <c r="X44" t="n">
-        <v>0.04167950415844614</v>
+        <v>0.06279510363381503</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.02577219070461392</v>
+        <v>0.04068757858104675</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.01042369431540854</v>
+        <v>0.02266367387078715</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.06242280060484884</v>
+        <v>0.0266801359246595</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0488300729472246</v>
+        <v>0.03357974738562062</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.002037569629913335</v>
+        <v>0.001474376025525951</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.0363876698287608</v>
+        <v>0.06192415089089753</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.05246059314423354</v>
+        <v>0.05950922521118721</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.0150766873166173</v>
+        <v>0.005619638667184674</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.07108995876380698</v>
+        <v>0.04890519062778434</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1144092726927911</v>
+        <v>0.1215498708675968</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.5615221287532194</v>
+        <v>0.2023593733848868</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07655022326565218</v>
+        <v>0.0331294827106209</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03086074885612919</v>
+        <v>0.03293923233546352</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06316710154372596</v>
+        <v>0.007991074899559228</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05305826086850388</v>
+        <v>0.06270817441497011</v>
       </c>
       <c r="J45" t="n">
-        <v>2.514715929977468e-05</v>
+        <v>0.02203991637564274</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0008454577815175524</v>
+        <v>0.01843920784918672</v>
       </c>
       <c r="L45" t="n">
-        <v>0.006063346244378999</v>
+        <v>0.06618285156134011</v>
       </c>
       <c r="M45" t="n">
-        <v>0.002366713299479125</v>
+        <v>0.03927996551801236</v>
       </c>
       <c r="N45" t="n">
-        <v>0.05013623859573967</v>
+        <v>0.01822806250785473</v>
       </c>
       <c r="O45" t="n">
-        <v>0.002450232431636147</v>
+        <v>0.07533253201294948</v>
       </c>
       <c r="P45" t="n">
-        <v>0.02399701086539933</v>
+        <v>0.05087390676908016</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03639355134865437</v>
+        <v>0.01635413399562783</v>
       </c>
       <c r="R45" t="n">
-        <v>0.07434583763973074</v>
+        <v>0.005242866388506605</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01007226537248138</v>
+        <v>0.001891420171032076</v>
       </c>
       <c r="T45" t="n">
-        <v>0.07816777224103194</v>
+        <v>0.05783946742292526</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05291675335220717</v>
+        <v>0.0622780193790395</v>
       </c>
       <c r="V45" t="n">
-        <v>0.06731830386308559</v>
+        <v>0.04978344703360232</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01902927640030257</v>
+        <v>0.07687489403405467</v>
       </c>
       <c r="X45" t="n">
-        <v>0.04506473285321585</v>
+        <v>0.07259870577622403</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01668724070374801</v>
+        <v>0.008914847741595334</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0416491734391328</v>
+        <v>0.0233954530379497</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.06402481131863463</v>
+        <v>0.009711158331472665</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01023319933469677</v>
+        <v>0.01375397666974722</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.08095347069864761</v>
+        <v>0.01561440937536614</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.03128828076859613</v>
+        <v>0.06282852667985125</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.05032575314513698</v>
+        <v>0.02092722021259121</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.003113182832074078</v>
+        <v>0.004265198761411079</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.008895913777161661</v>
+        <v>0.07058184803432303</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1108731411732484</v>
+        <v>0.1546971482643252</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1539244246962206</v>
+        <v>0.158690159340692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003208103083019809</v>
+        <v>0.02609360850785611</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05368084351004206</v>
+        <v>0.01844498342383413</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0361689596248674</v>
+        <v>0.06284678445843533</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001565061827458739</v>
+        <v>0.005753000566013634</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04008874867657156</v>
+        <v>0.04569459115218327</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07231058789340852</v>
+        <v>0.03793218959609784</v>
       </c>
       <c r="L46" t="n">
-        <v>0.001050531898999334</v>
+        <v>0.001181285963133012</v>
       </c>
       <c r="M46" t="n">
-        <v>0.006105084936722537</v>
+        <v>0.04967645327687731</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04795922628079868</v>
+        <v>0.04656789314647391</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02106650535132971</v>
+        <v>0.06401189948496547</v>
       </c>
       <c r="P46" t="n">
-        <v>0.05523273511347111</v>
+        <v>0.0271045850156074</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01938306219184526</v>
+        <v>0.008740426729957181</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03949099250308417</v>
+        <v>0.02457315844080094</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06931790273277112</v>
+        <v>0.02320111508545166</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03589819129979942</v>
+        <v>0.05177838279256057</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03273145244735715</v>
+        <v>0.02777056573103242</v>
       </c>
       <c r="V46" t="n">
-        <v>0.05926401066829989</v>
+        <v>0.07865354879368357</v>
       </c>
       <c r="W46" t="n">
-        <v>0.04408297367585286</v>
+        <v>0.02268965696146103</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0470463121709023</v>
+        <v>0.06600594841323369</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02318851073120258</v>
+        <v>0.07261814657504091</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.008467099915907756</v>
+        <v>0.002824972250463238</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06317293579253122</v>
+        <v>0.02027170936912551</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.03418509582663809</v>
+        <v>0.06453745226003391</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.03096943782200855</v>
+        <v>0.0284376044934618</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.002978822219819071</v>
+        <v>0.007235727854775169</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.04610575715849397</v>
+        <v>0.004995900973320489</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.04422152505594194</v>
+        <v>0.06007537419652052</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.06105952959085521</v>
+        <v>0.05028303448760008</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.02175927634208649</v>
+        <v>-0.05368190259391904</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.5847570700339888</v>
+        <v>0.2086411944398964</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0403076572487007</v>
+        <v>0.04679429300817612</v>
       </c>
       <c r="G47" t="n">
-        <v>0.08154355922255034</v>
+        <v>0.0585532149894773</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03911667360561305</v>
+        <v>0.04053158830711456</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01044667168510055</v>
+        <v>0.01235712263535447</v>
       </c>
       <c r="J47" t="n">
-        <v>0.08075096171030384</v>
+        <v>0.07465088975450161</v>
       </c>
       <c r="K47" t="n">
-        <v>0.02956065537470788</v>
+        <v>0.08599577292591599</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01171112157080903</v>
+        <v>0.001435246535090562</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01433660275047096</v>
+        <v>0.04596899814566327</v>
       </c>
       <c r="N47" t="n">
-        <v>0.03544585638066593</v>
+        <v>0.02018535173485065</v>
       </c>
       <c r="O47" t="n">
-        <v>0.07100965665275613</v>
+        <v>0.02459213798837515</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0009104936772873382</v>
+        <v>0.08418447845751306</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0362897479031231</v>
+        <v>0.01588675977745115</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05288618484828384</v>
+        <v>0.01667303865538578</v>
       </c>
       <c r="S47" t="n">
-        <v>0.05740635128662308</v>
+        <v>0.07136471599154462</v>
       </c>
       <c r="T47" t="n">
-        <v>0.006672953607311355</v>
+        <v>0.02967098053160348</v>
       </c>
       <c r="U47" t="n">
-        <v>0.005188312452425591</v>
+        <v>0.0295942771160402</v>
       </c>
       <c r="V47" t="n">
-        <v>0.02238147616489043</v>
+        <v>0.02508456525964389</v>
       </c>
       <c r="W47" t="n">
-        <v>0.05015567754560657</v>
+        <v>0.06048166629975003</v>
       </c>
       <c r="X47" t="n">
-        <v>0.06524465959670118</v>
+        <v>0.009016776877633468</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01078563146932313</v>
+        <v>0.04539980276772081</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.01452457968647612</v>
+        <v>0.002318500748505563</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.03836776974336639</v>
+        <v>0.0132838180962703</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.07545305877868175</v>
+        <v>0.04023011143284499</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.003555763236782853</v>
+        <v>0.00896893877242356</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.07620877635941666</v>
+        <v>0.001975187211221692</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.01456605109182101</v>
+        <v>0.0430440107434196</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.003835177641855782</v>
+        <v>0.01394172129896211</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.05133791870834534</v>
+        <v>0.07781603393754591</v>
       </c>
       <c r="AH47" t="n">
-        <v>-0.0323895792508383</v>
+        <v>-0.01169006436056031</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1027145407300094</v>
+        <v>0.1016180397746847</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04753682813015737</v>
+        <v>0.04572319679419579</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00831428951127566</v>
+        <v>0.05387240443898223</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01793276407367021</v>
+        <v>0.001869847531646968</v>
       </c>
       <c r="I48" t="n">
-        <v>0.001161294098176348</v>
+        <v>0.0009133788272520516</v>
       </c>
       <c r="J48" t="n">
-        <v>0.03279257816721663</v>
+        <v>0.06208974571646864</v>
       </c>
       <c r="K48" t="n">
-        <v>0.000920654536736685</v>
+        <v>0.000408713514092081</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0511107918167374</v>
+        <v>0.06966389726426081</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03514137536950663</v>
+        <v>0.01875519230008266</v>
       </c>
       <c r="N48" t="n">
-        <v>0.04798455279197384</v>
+        <v>0.06200204024405847</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02685620471274874</v>
+        <v>0.01750239040671751</v>
       </c>
       <c r="P48" t="n">
-        <v>0.03147301812737838</v>
+        <v>0.02732761145345298</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03396092376236579</v>
+        <v>0.02884973867231402</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03345095510842928</v>
+        <v>0.01651031166771125</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0647656492348591</v>
+        <v>0.02907643607346736</v>
       </c>
       <c r="T48" t="n">
-        <v>0.06927542930888406</v>
+        <v>0.06192093108955742</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01393087941042741</v>
+        <v>0.06160729598863447</v>
       </c>
       <c r="V48" t="n">
-        <v>0.03213473367996276</v>
+        <v>0.06757392889525735</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03268856706885704</v>
+        <v>0.06203523921103165</v>
       </c>
       <c r="X48" t="n">
-        <v>0.06501919269244186</v>
+        <v>0.04462774484832449</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.06127735572360212</v>
+        <v>0.06296526392901468</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.03509082941182984</v>
+        <v>0.0471315671706264</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.006325396878064002</v>
+        <v>0.005540359813845622</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.04751578505724533</v>
+        <v>0.04171947290740493</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.03375547900087594</v>
+        <v>0.05813766235248354</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.02770692252806201</v>
+        <v>0.01542697860972707</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.02013410056142197</v>
+        <v>0.008404226798035722</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.05737275997630255</v>
+        <v>0.02560700993855386</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.06437068926079116</v>
+        <v>0.002737413542800016</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.007486869743684712</v>
+        <v>0.01187591370294495</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1097578261595504</v>
+        <v>0.1170179437200114</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02038851659914217</v>
+        <v>0.06690037621650725</v>
       </c>
       <c r="G49" t="n">
-        <v>0.007820997556750997</v>
+        <v>0.04296867487852339</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08892673425287768</v>
+        <v>0.01159752405477962</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0080891997857114</v>
+        <v>0.04194087680041907</v>
       </c>
       <c r="J49" t="n">
-        <v>0.06502049356372559</v>
+        <v>0.005568966977467526</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0006432208626957938</v>
+        <v>0.002549617859521911</v>
       </c>
       <c r="L49" t="n">
-        <v>0.08081135664373501</v>
+        <v>0.07492659777690858</v>
       </c>
       <c r="M49" t="n">
-        <v>0.004860300705381746</v>
+        <v>0.008452322042624555</v>
       </c>
       <c r="N49" t="n">
-        <v>0.031138667441343</v>
+        <v>0.01098025847686424</v>
       </c>
       <c r="O49" t="n">
-        <v>0.024141551323013</v>
+        <v>0.0225757346186852</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07199068321274792</v>
+        <v>0.04239566222596454</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.006773698754234616</v>
+        <v>0.05860304532934549</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0147415823867556</v>
+        <v>0.01935902442295521</v>
       </c>
       <c r="S49" t="n">
-        <v>0.03168015803911606</v>
+        <v>0.07553006462421068</v>
       </c>
       <c r="T49" t="n">
-        <v>0.09324225574855222</v>
+        <v>0.07579892489897558</v>
       </c>
       <c r="U49" t="n">
-        <v>0.01503625587912874</v>
+        <v>0.0295938230522833</v>
       </c>
       <c r="V49" t="n">
-        <v>0.002468060757448591</v>
+        <v>0.02941317615149661</v>
       </c>
       <c r="W49" t="n">
-        <v>0.08381737485553206</v>
+        <v>0.06709168987226892</v>
       </c>
       <c r="X49" t="n">
-        <v>0.07563972167891299</v>
+        <v>0.0160879478737924</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.08910260240779021</v>
+        <v>0.02309317093576428</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02984057066545573</v>
+        <v>0.07080194728898868</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01505544815915165</v>
+        <v>0.002405544115871991</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.02005881851669359</v>
+        <v>0.03211179454541874</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.01192268816643287</v>
+        <v>0.05249341100273344</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0161669619331535</v>
+        <v>0.01269926350130259</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.01255982247159484</v>
+        <v>0.02187813480666644</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.007175930786743336</v>
+        <v>0.01656964778280682</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.07088632684617911</v>
+        <v>0.06561277786685299</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.0151120976631906</v>
+        <v>-0.001308095717333042</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1226964928504349</v>
+        <v>0.1208599638234629</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001138092893567888</v>
+        <v>0.002045973944989683</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06151450482751285</v>
+        <v>0.08620827410815766</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06573782397032532</v>
+        <v>0.06189089785617865</v>
       </c>
       <c r="I50" t="n">
-        <v>0.07102884057188998</v>
+        <v>0.006589106970503711</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03202984449669181</v>
+        <v>0.02325063348425492</v>
       </c>
       <c r="K50" t="n">
-        <v>0.03133403060358386</v>
+        <v>0.01517085923405958</v>
       </c>
       <c r="L50" t="n">
-        <v>0.005773725434046965</v>
+        <v>0.001120340014545598</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06741365011960605</v>
+        <v>0.0445994078705428</v>
       </c>
       <c r="N50" t="n">
-        <v>0.05290751350975967</v>
+        <v>0.05156799213354168</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01629634957414092</v>
+        <v>0.000695871754626145</v>
       </c>
       <c r="P50" t="n">
-        <v>0.03593197721904266</v>
+        <v>0.03771857501277277</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.004850783550913473</v>
+        <v>0.05181752990176574</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0303501251196705</v>
+        <v>0.003091429550900627</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01420318482945279</v>
+        <v>0.07076078484689771</v>
       </c>
       <c r="T50" t="n">
-        <v>0.07031842834077863</v>
+        <v>0.01991857493770229</v>
       </c>
       <c r="U50" t="n">
-        <v>0.002295421720763364</v>
+        <v>0.06818263742402396</v>
       </c>
       <c r="V50" t="n">
-        <v>0.03581352191274531</v>
+        <v>0.05700644130697903</v>
       </c>
       <c r="W50" t="n">
-        <v>0.004023431594310432</v>
+        <v>0.02884697083880319</v>
       </c>
       <c r="X50" t="n">
-        <v>0.06479890376472087</v>
+        <v>0.007135437954327611</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.00611349128658794</v>
+        <v>0.004293587313643811</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.009399141246589754</v>
+        <v>0.02432103721935877</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.03683292840255954</v>
+        <v>0.02291012177557582</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.05420403364793649</v>
+        <v>0.03739303140859971</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.04626621191959124</v>
+        <v>0.03010172465331177</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.04687887259196208</v>
+        <v>0.05259557133740309</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.01340823334930368</v>
+        <v>0.08829182323105468</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.05568508505055717</v>
+        <v>0.07729174991130815</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.06345184845138876</v>
+        <v>0.02518361400417094</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1044994288770426</v>
+        <v>0.09705183841290542</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1450441884746936</v>
+        <v>0.1549705313916383</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02223963348108816</v>
+        <v>0.02607002615154024</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05795449342965888</v>
+        <v>0.03148464544107173</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01031705218439184</v>
+        <v>0.02554547731898012</v>
       </c>
       <c r="I51" t="n">
-        <v>0.06578758435887026</v>
+        <v>0.077957384642639</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00368246333489843</v>
+        <v>0.0003127435884070295</v>
       </c>
       <c r="K51" t="n">
-        <v>0.05383980518122992</v>
+        <v>0.06125377784583475</v>
       </c>
       <c r="L51" t="n">
-        <v>0.06714356607689223</v>
+        <v>0.07477472665361266</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0507009191766247</v>
+        <v>0.008939544590843972</v>
       </c>
       <c r="N51" t="n">
-        <v>0.057447030136603</v>
+        <v>0.07694823157855568</v>
       </c>
       <c r="O51" t="n">
-        <v>0.007103237971751239</v>
+        <v>0.0490553575794135</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01590951096144219</v>
+        <v>0.03339530370107512</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.06855137606957717</v>
+        <v>0.05526638239927505</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0176949015718094</v>
+        <v>0.003535641708664249</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02058005421341487</v>
+        <v>0.007936093896413582</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04605314005049315</v>
+        <v>0.009451881654755629</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0343607028156209</v>
+        <v>0.01122787108080204</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02120934782082547</v>
+        <v>0.08071042592699813</v>
       </c>
       <c r="W51" t="n">
-        <v>0.06814918155365707</v>
+        <v>0.07695448858902543</v>
       </c>
       <c r="X51" t="n">
-        <v>0.005769983874914602</v>
+        <v>0.02387580006620929</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.01529302514504079</v>
+        <v>0.01072957563665273</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.02377610076783691</v>
+        <v>0.003903036199953581</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.05149400964173789</v>
+        <v>0.08104252559262189</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.05043355586104478</v>
+        <v>0.03185295342683212</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.028408560565989</v>
+        <v>0.03672498493896239</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.02593246183439172</v>
+        <v>0.02832815334912729</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.03075831779686702</v>
+        <v>0.0524541037121338</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.02184261573262752</v>
+        <v>0.01674784712757291</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.05756736839070094</v>
+        <v>0.003521015602026108</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1450170064201344</v>
+        <v>0.1465823103934866</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1294624564441401</v>
+        <v>0.1331230380917467</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04590579916618592</v>
+        <v>0.0004245007568053876</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03050430031583445</v>
+        <v>0.01791153788889395</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04869482177979273</v>
+        <v>0.01523056028525607</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05921178048101312</v>
+        <v>0.01388566585588623</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0008957625310964166</v>
+        <v>0.01988664535077406</v>
       </c>
       <c r="K52" t="n">
-        <v>0.003487954546747424</v>
+        <v>0.051701233895921</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01681569025070438</v>
+        <v>0.02310051278102718</v>
       </c>
       <c r="M52" t="n">
-        <v>0.08036069236524906</v>
+        <v>0.07010255014020592</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01091557363948191</v>
+        <v>0.06614646907308065</v>
       </c>
       <c r="O52" t="n">
-        <v>0.02286699802703463</v>
+        <v>0.05527016654707365</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0551850877327671</v>
+        <v>0.01399279492306103</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.05264862402379093</v>
+        <v>0.05218686758146301</v>
       </c>
       <c r="R52" t="n">
-        <v>0.02818695371501334</v>
+        <v>0.0671781874327918</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01695701826204916</v>
+        <v>0.02719373945087218</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06525057932116451</v>
+        <v>0.05214237265638581</v>
       </c>
       <c r="U52" t="n">
-        <v>0.01266806517520949</v>
+        <v>0.005676910135029848</v>
       </c>
       <c r="V52" t="n">
-        <v>0.06884905413349542</v>
+        <v>0.02967493375268691</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0844010865077334</v>
+        <v>0.05888038338630513</v>
       </c>
       <c r="X52" t="n">
-        <v>0.03782461047119168</v>
+        <v>0.0178162595462945</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.019782619886048</v>
+        <v>0.0634414965031436</v>
       </c>
       <c r="Z52" t="n">
-        <v>7.05602883064423e-06</v>
+        <v>0.04171146846338051</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.02394286129107099</v>
+        <v>0.03682324277770535</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01447990630594276</v>
+        <v>0.008889961613516826</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0005324648595070729</v>
+        <v>0.003512742344310613</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.05825364829807643</v>
+        <v>0.06671396913147094</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.06782910375640526</v>
+        <v>0.03360642158623661</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.004546008556284473</v>
+        <v>0.04145601024685741</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.06899587857227937</v>
+        <v>0.04544239589356382</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.05843761413692239</v>
+        <v>0.0561697084943592</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.726224699059562</v>
+        <v>0.1408541719320363</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0003214877492261876</v>
+        <v>0.01526819140180883</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03341791431108172</v>
+        <v>0.02898745101753941</v>
       </c>
       <c r="H53" t="n">
-        <v>0.008025403385777046</v>
+        <v>0.05404303740552268</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01630705267346434</v>
+        <v>0.03875473130185921</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02380590837124868</v>
+        <v>0.004482126314114497</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06102192292476073</v>
+        <v>0.06354558783518768</v>
       </c>
       <c r="L53" t="n">
-        <v>0.009440964638263157</v>
+        <v>0.05876970926565916</v>
       </c>
       <c r="M53" t="n">
-        <v>0.09633800338649383</v>
+        <v>0.007238630743575765</v>
       </c>
       <c r="N53" t="n">
-        <v>0.05381647372877647</v>
+        <v>0.05613634131420572</v>
       </c>
       <c r="O53" t="n">
-        <v>0.02848611698230733</v>
+        <v>0.02381334331972727</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06671381679884202</v>
+        <v>0.00188207377494368</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01469396482936098</v>
+        <v>0.06758721767383948</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01400537146239672</v>
+        <v>0.07384677030168776</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04008331407056295</v>
+        <v>0.02564811215803368</v>
       </c>
       <c r="T53" t="n">
-        <v>0.01832713902048305</v>
+        <v>0.02176100299155914</v>
       </c>
       <c r="U53" t="n">
-        <v>0.06309296010596481</v>
+        <v>0.04756626783489565</v>
       </c>
       <c r="V53" t="n">
-        <v>0.02858062248777752</v>
+        <v>0.08047740966520521</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04314737104302931</v>
+        <v>0.0885428023226323</v>
       </c>
       <c r="X53" t="n">
-        <v>0.03636737164802543</v>
+        <v>0.008563267544411073</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.03798998738363999</v>
+        <v>0.0862470202104488</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.02930122198458119</v>
+        <v>0.03254233163435574</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0345198918189343</v>
+        <v>0.001219294035490608</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.04824004072881147</v>
+        <v>0.00589794656831654</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.09528162804894594</v>
+        <v>0.0002837639967978952</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.002230487856342656</v>
+        <v>0.02828538535298975</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.01175010644644832</v>
+        <v>0.05907851966360874</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.01416387699986559</v>
+        <v>0.009003978823949552</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.07052957911458828</v>
+        <v>0.01052768552763423</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.05369555616323525</v>
+        <v>0.04773645594918585</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1568099646136471</v>
+        <v>0.1514586864334023</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01830658156894624</v>
+        <v>0.02032762183863753</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02150886279826261</v>
+        <v>0.00847529524415175</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03840730857705008</v>
+        <v>0.06450598681648247</v>
       </c>
       <c r="I54" t="n">
-        <v>0.004574921425007027</v>
+        <v>0.02594719245342928</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04704682258290808</v>
+        <v>0.02839075039637904</v>
       </c>
       <c r="K54" t="n">
-        <v>0.05179631256153228</v>
+        <v>0.00869592424744195</v>
       </c>
       <c r="L54" t="n">
-        <v>0.005497687156819174</v>
+        <v>0.03227006542221637</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02515738139360617</v>
+        <v>0.007134590897326103</v>
       </c>
       <c r="N54" t="n">
-        <v>0.006827429763363151</v>
+        <v>0.06926404291339153</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05766047313772544</v>
+        <v>0.04165243496197431</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06417826277563227</v>
+        <v>0.04285517486490056</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.05597977634899321</v>
+        <v>0.001712399919038213</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06669499654280552</v>
+        <v>0.06137163805858748</v>
       </c>
       <c r="S54" t="n">
-        <v>0.04226040390101066</v>
+        <v>0.003404989435024625</v>
       </c>
       <c r="T54" t="n">
-        <v>0.06272086404663453</v>
+        <v>0.03787220543121844</v>
       </c>
       <c r="U54" t="n">
-        <v>0.03237923134292088</v>
+        <v>0.03970644769594633</v>
       </c>
       <c r="V54" t="n">
-        <v>0.04825446196196484</v>
+        <v>0.05244707370343803</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0576499861790514</v>
+        <v>0.05845228010239798</v>
       </c>
       <c r="X54" t="n">
-        <v>0.002799326353411858</v>
+        <v>0.05120919891340407</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.06089330210575317</v>
+        <v>0.06076425452023311</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.003395280453316127</v>
+        <v>0.00177760606722319</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.001635731890820597</v>
+        <v>0.00179155128627772</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.008346080470249763</v>
+        <v>0.05633898032140471</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.001854862568694771</v>
+        <v>0.03727222157444233</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.08157959611194365</v>
+        <v>0.05554810015053072</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.07973149463147762</v>
+        <v>0.04505009671606733</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.03197574039638869</v>
+        <v>0.03397106908036058</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.02088682095370995</v>
+        <v>0.0517908069680744</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.10547504743728</v>
+        <v>-0.1433159341703481</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2444313162497613</v>
+        <v>0.1953938635468999</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07521432319540532</v>
+        <v>0.05756721664691008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05259271418266359</v>
+        <v>0.03464578074215475</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0382243498371351</v>
+        <v>0.01100454090156644</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0007604513199871094</v>
+        <v>0.01727648414115976</v>
       </c>
       <c r="J55" t="n">
-        <v>0.007747204262735408</v>
+        <v>0.03604766455808123</v>
       </c>
       <c r="K55" t="n">
-        <v>0.06120867352139858</v>
+        <v>0.04265737861130808</v>
       </c>
       <c r="L55" t="n">
-        <v>0.03159677751195536</v>
+        <v>0.07561023657469643</v>
       </c>
       <c r="M55" t="n">
-        <v>0.05186345835647883</v>
+        <v>0.02721987632420049</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01902655938409977</v>
+        <v>0.03214495288585509</v>
       </c>
       <c r="O55" t="n">
-        <v>0.03539304338662144</v>
+        <v>0.0285598714568323</v>
       </c>
       <c r="P55" t="n">
-        <v>0.04069148849859855</v>
+        <v>0.07602777864280337</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.0408740294583108</v>
+        <v>0.07776736491345101</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02232911212699703</v>
+        <v>0.05419275594929274</v>
       </c>
       <c r="S55" t="n">
-        <v>0.04213185785076087</v>
+        <v>0.05707995351224956</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03018310431063817</v>
+        <v>0.005075384107080414</v>
       </c>
       <c r="U55" t="n">
-        <v>0.04705882157019617</v>
+        <v>0.03608259052323048</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02353455421418006</v>
+        <v>0.04359454656566022</v>
       </c>
       <c r="W55" t="n">
-        <v>0.04887653366651733</v>
+        <v>0.008143635565359818</v>
       </c>
       <c r="X55" t="n">
-        <v>0.01726151895618675</v>
+        <v>0.006825155846896029</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0240482773196623</v>
+        <v>0.02172460794842404</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.01610842537364062</v>
+        <v>0.008306412040195242</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.004556669131481495</v>
+        <v>0.002888240447793256</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.07299426085957487</v>
+        <v>0.07925790169490211</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.03228470358911625</v>
+        <v>0.003042192487749916</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.06078545895538833</v>
+        <v>0.044663945955763</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.04989912523801606</v>
+        <v>0.01341936053065712</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.010232943194086</v>
+        <v>0.04291486494783602</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.04252156072816764</v>
+        <v>0.05625930547789086</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.07403133489344066</v>
+        <v>-0.09126890292579742</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2172669637424119</v>
+        <v>0.2182909907031994</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01308209252499787</v>
+        <v>0.004047309094436136</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07821483758173133</v>
+        <v>0.03990020771976689</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00250553242764438</v>
+        <v>0.007539342431061504</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01058654123784567</v>
+        <v>0.0004239664917626918</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06574948144724138</v>
+        <v>0.02724515120925953</v>
       </c>
       <c r="K56" t="n">
-        <v>0.08784780987715339</v>
+        <v>0.01710096062644007</v>
       </c>
       <c r="L56" t="n">
-        <v>0.000384576176011448</v>
+        <v>0.01473531194677578</v>
       </c>
       <c r="M56" t="n">
-        <v>0.06157065527233784</v>
+        <v>0.009725704786816091</v>
       </c>
       <c r="N56" t="n">
-        <v>0.02435414749739031</v>
+        <v>0.07084341062783509</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01276339298631455</v>
+        <v>0.01194416994671798</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02185227959261227</v>
+        <v>0.03184495180346215</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01436715703997108</v>
+        <v>0.03622387999678596</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0005355555392663169</v>
+        <v>0.001051276386322256</v>
       </c>
       <c r="S56" t="n">
-        <v>0.001835626136467729</v>
+        <v>0.02716850831301408</v>
       </c>
       <c r="T56" t="n">
-        <v>0.008894106799233208</v>
+        <v>0.06771194509778609</v>
       </c>
       <c r="U56" t="n">
-        <v>0.02424845098723269</v>
+        <v>0.01347045878588591</v>
       </c>
       <c r="V56" t="n">
-        <v>0.07387875126670185</v>
+        <v>0.07105132234077007</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04956713189494712</v>
+        <v>0.04743140945092122</v>
       </c>
       <c r="X56" t="n">
-        <v>0.04347475703926734</v>
+        <v>0.06312380266947434</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.05816160093417361</v>
+        <v>0.05910199275126395</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.003823255982835074</v>
+        <v>0.04297868545796078</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.01911349639404404</v>
+        <v>0.06738694102042157</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.0651228716806336</v>
+        <v>0.0379102294903922</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.05044734857238302</v>
+        <v>0.04381009451905718</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.01271504642205125</v>
+        <v>0.01893439394209008</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.08298533945990504</v>
+        <v>0.02783946461088607</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.03798332285533482</v>
+        <v>0.07190584839987352</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.07393483437427172</v>
+        <v>0.06754926008276074</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1438920580129243</v>
+        <v>0.1632268906029936</v>
       </c>
     </row>
     <row r="57">
@@ -6670,97 +6670,97 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2445674884889817</v>
+        <v>0.2275371669290381</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07195953119864144</v>
+        <v>0.0814089481198166</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02911384593946712</v>
+        <v>0.004795591633120954</v>
       </c>
       <c r="H57" t="n">
-        <v>0.006935266070503206</v>
+        <v>0.01598310862930528</v>
       </c>
       <c r="I57" t="n">
-        <v>0.004746301456349523</v>
+        <v>0.008914926235521163</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03737627663453099</v>
+        <v>0.0184053796373044</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03156264292600484</v>
+        <v>0.0364577276352516</v>
       </c>
       <c r="L57" t="n">
-        <v>0.04361102902223651</v>
+        <v>0.008605371738834083</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03938079233027141</v>
+        <v>0.01032115074102898</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01083687919502522</v>
+        <v>0.04845851959475667</v>
       </c>
       <c r="O57" t="n">
-        <v>0.05693733125051194</v>
+        <v>0.03533093188656874</v>
       </c>
       <c r="P57" t="n">
-        <v>0.07071492784745435</v>
+        <v>0.008571554231550482</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.08871343249175713</v>
+        <v>0.03482646532922154</v>
       </c>
       <c r="R57" t="n">
-        <v>0.07469470209843351</v>
+        <v>0.06343345516079268</v>
       </c>
       <c r="S57" t="n">
-        <v>0.001391964632880144</v>
+        <v>0.002299352028601476</v>
       </c>
       <c r="T57" t="n">
-        <v>0.005899292200896708</v>
+        <v>0.06033524041913897</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03466578836117109</v>
+        <v>0.02324983772049446</v>
       </c>
       <c r="V57" t="n">
-        <v>0.04774486684482576</v>
+        <v>0.01157835688691479</v>
       </c>
       <c r="W57" t="n">
-        <v>0.04114066469602241</v>
+        <v>0.01021989146489924</v>
       </c>
       <c r="X57" t="n">
-        <v>0.002707992351206496</v>
+        <v>0.005260379975710008</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01410101828094259</v>
+        <v>0.08112078283634584</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.0889972672388249</v>
+        <v>0.07149719729228966</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.0356896230024128</v>
+        <v>0.03090208077783822</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.06432509006216723</v>
+        <v>0.06274622092021095</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.01920316931981345</v>
+        <v>0.05557387057160904</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.004397123391513592</v>
+        <v>0.03738972684576852</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.05058213535467227</v>
+        <v>0.08327915016363567</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.0008344957571509991</v>
+        <v>0.01179608871714292</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.02173655004431231</v>
+        <v>0.07723869280632707</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1785524385148068</v>
+        <v>0.1854674612244922</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>